--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB754C17-2AA4-4F61-8803-22C189877040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82048860-7419-40FB-A5C4-26ABE305EF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
     <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
+    <sheet name="CURANMOR" sheetId="3" r:id="rId3"/>
+    <sheet name="CURAS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="60">
   <si>
     <t>DATA CURAS DAN CURANMOR KAB PROBOLINGGO 2021 - 2022</t>
   </si>
@@ -195,6 +197,18 @@
   <si>
     <t>ITERASI 4</t>
   </si>
+  <si>
+    <t>SSE C1</t>
+  </si>
+  <si>
+    <t>SSE C2</t>
+  </si>
+  <si>
+    <t>SSE C3</t>
+  </si>
+  <si>
+    <t>CURAS</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,6 +1892,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -1883,11 +1905,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1897,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B6E6DF-B0EA-412D-A038-6A6854FA028B}">
   <dimension ref="B2:BG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2145,7 @@
       </c>
       <c r="Z6" s="9">
         <f>(I10+I12+I15+I18+I20+I21+I23+I26+I29)/9</f>
-        <v>0.33333333333333331</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="AA6" s="9">
         <f>(J10+J12+J15+J18+J20+J21+J23+J26+J29)/9</f>
@@ -2156,7 +2173,7 @@
       </c>
       <c r="AL6" s="9">
         <f>(I11+I12+I21+I26+I29)/5</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AM6" s="9">
         <f>(J11+J12+J21+J26+J29)/5</f>
@@ -2281,7 +2298,7 @@
       </c>
       <c r="AE7" s="13">
         <f>ABS(I7-Z$6)+ABS(J7-AA$6)</f>
-        <v>0.59459459459459452</v>
+        <v>0.44644644644644638</v>
       </c>
       <c r="AF7" s="13">
         <f>ABS(I7-Z$7)+ABS(J7-AA$7)</f>
@@ -2303,7 +2320,7 @@
       </c>
       <c r="AL7" s="9">
         <f>(I7+I8+I9+I13+I15+I16+I17+I18+I19+I22+I23+I24+I25+I27+I28+I30)/16</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AM7" s="9">
         <f>(J7+J8+J9+J13+J15+J16+J17+J18+J19+J22+J23+J24+J25+J27+J28+J30)/16</f>
@@ -2315,11 +2332,11 @@
       </c>
       <c r="AQ7" s="13">
         <f>ABS(I7-AL$6)+ABS(J7-AM$6)</f>
-        <v>0.99459459459459465</v>
+        <v>0.59459459459459474</v>
       </c>
       <c r="AR7" s="13">
         <f>ABS(I7-AL$7)+ABS(J7-AM$7)</f>
-        <v>3.2094594594594614E-2</v>
+        <v>7.3761261261261285E-2</v>
       </c>
       <c r="AS7" s="13">
         <f>ABS(I7-AL$8)+ABS(J7-AM$8)</f>
@@ -2327,7 +2344,7 @@
       </c>
       <c r="AT7" s="14">
         <f>MIN(AQ7:AS7)</f>
-        <v>3.2094594594594614E-2</v>
+        <v>7.3761261261261285E-2</v>
       </c>
       <c r="AU7" s="18" t="s">
         <v>34</v>
@@ -2427,7 +2444,7 @@
       </c>
       <c r="AE8" s="13">
         <f t="shared" ref="AE8:AE30" si="6">ABS(I8-Z$6)+ABS(J8-AA$6)</f>
-        <v>0.62162162162162149</v>
+        <v>0.47347347347347341</v>
       </c>
       <c r="AF8" s="13">
         <f t="shared" ref="AF8:AF30" si="7">ABS(I8-Z$7)+ABS(J8-AA$7)</f>
@@ -2461,11 +2478,11 @@
       </c>
       <c r="AQ8" s="13">
         <f t="shared" ref="AQ8:AQ29" si="9">ABS(I8-AL$6)+ABS(J8-AM$6)</f>
-        <v>1.0216216216216218</v>
+        <v>0.62162162162162171</v>
       </c>
       <c r="AR8" s="13">
         <f t="shared" ref="AR8:AR29" si="10">ABS(I8-AL$7)+ABS(J8-AM$7)</f>
-        <v>5.0675675675675852E-3</v>
+        <v>4.673423423423425E-2</v>
       </c>
       <c r="AS8" s="13">
         <f t="shared" ref="AS8:AS30" si="11">ABS(I8-AL$8)+ABS(J8-AM$8)</f>
@@ -2473,7 +2490,7 @@
       </c>
       <c r="AT8" s="14">
         <f t="shared" ref="AT8:AT30" si="12">MIN(AQ8:AS8)</f>
-        <v>5.0675675675675852E-3</v>
+        <v>4.673423423423425E-2</v>
       </c>
       <c r="AU8" s="18" t="s">
         <v>34</v>
@@ -2546,7 +2563,7 @@
       </c>
       <c r="AE9" s="13">
         <f t="shared" si="6"/>
-        <v>0.67567567567567566</v>
+        <v>0.52752752752752752</v>
       </c>
       <c r="AF9" s="13">
         <f t="shared" si="7"/>
@@ -2568,11 +2585,11 @@
       </c>
       <c r="AQ9" s="13">
         <f t="shared" si="9"/>
-        <v>1.0756756756756758</v>
+        <v>0.67567567567567577</v>
       </c>
       <c r="AR9" s="13">
         <f t="shared" si="10"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AS9" s="13">
         <f t="shared" si="11"/>
@@ -2580,7 +2597,7 @@
       </c>
       <c r="AT9" s="14">
         <f t="shared" si="12"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AU9" s="18" t="s">
         <v>34</v>
@@ -2647,7 +2664,7 @@
       </c>
       <c r="AE10" s="24">
         <f t="shared" si="6"/>
-        <v>0.53153153153153165</v>
+        <v>0.38338338338338346</v>
       </c>
       <c r="AF10" s="24">
         <f t="shared" si="7"/>
@@ -2659,7 +2676,7 @@
       </c>
       <c r="AH10" s="25">
         <f t="shared" si="8"/>
-        <v>0.40540540540540537</v>
+        <v>0.38338338338338346</v>
       </c>
       <c r="AI10" s="31" t="s">
         <v>35</v>
@@ -2669,11 +2686,11 @@
       </c>
       <c r="AQ10" s="24">
         <f t="shared" si="9"/>
-        <v>1.0648648648648649</v>
+        <v>0.66486486486486485</v>
       </c>
       <c r="AR10" s="24">
         <f t="shared" si="10"/>
-        <v>0.49155405405405411</v>
+        <v>0.5332207207207208</v>
       </c>
       <c r="AS10" s="24">
         <f t="shared" si="11"/>
@@ -2715,7 +2732,7 @@
       </c>
       <c r="I11" s="5">
         <f>(C11-MIN(C7:C30))/(MAX(C7:C30)-MIN(C7:C30))</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J11" s="5">
         <f>(D11-MIN(D7:D30))/(MAX(D7:D30)-MIN(D7:D30))</f>
@@ -2726,19 +2743,19 @@
       </c>
       <c r="S11" s="13">
         <f>ABS(I11-N$6)+ABS(J11-O$6)</f>
-        <v>1.2432432432432432</v>
+        <v>0.57657657657657657</v>
       </c>
       <c r="T11" s="13">
         <f t="shared" si="3"/>
-        <v>1.1081081081081081</v>
+        <v>0.44144144144144143</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>1.8918918918918919</v>
+        <v>1.2252252252252251</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="5"/>
-        <v>1.1081081081081081</v>
+        <v>0.44144144144144143</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>34</v>
@@ -2748,19 +2765,19 @@
       </c>
       <c r="AE11" s="20">
         <f t="shared" si="6"/>
-        <v>0.95495495495495497</v>
+        <v>0.43643643643643637</v>
       </c>
       <c r="AF11" s="20">
         <f t="shared" si="7"/>
-        <v>0.97297297297297303</v>
+        <v>0.30630630630630629</v>
       </c>
       <c r="AG11" s="20">
         <f t="shared" si="1"/>
-        <v>1.8918918918918919</v>
+        <v>1.2252252252252251</v>
       </c>
       <c r="AH11" s="21">
         <f t="shared" si="8"/>
-        <v>0.95495495495495497</v>
+        <v>0.30630630630630629</v>
       </c>
       <c r="AI11" s="22" t="s">
         <v>33</v>
@@ -2770,19 +2787,19 @@
       </c>
       <c r="AQ11" s="20">
         <f t="shared" si="9"/>
-        <v>0.42162162162162165</v>
+        <v>0.2882882882882884</v>
       </c>
       <c r="AR11" s="20">
         <f t="shared" si="10"/>
-        <v>1.0050675675675675</v>
+        <v>0.29673423423423423</v>
       </c>
       <c r="AS11" s="20">
         <f t="shared" si="11"/>
-        <v>1.6126126126126126</v>
+        <v>0.94594594594594605</v>
       </c>
       <c r="AT11" s="21">
         <f t="shared" si="12"/>
-        <v>0.42162162162162165</v>
+        <v>0.2882882882882884</v>
       </c>
       <c r="AU11" s="22" t="s">
         <v>33</v>
@@ -2816,7 +2833,7 @@
       </c>
       <c r="I12" s="5">
         <f>(C12-MIN(C7:C30))/(MAX(C7:C30)-MIN(C7:C30))</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J12" s="5">
         <f>(D12-MIN(D7:D30))/(MAX(D7:D30)-MIN(D7:D30))</f>
@@ -2827,19 +2844,19 @@
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
-        <v>1.1351351351351351</v>
+        <v>0.46846846846846846</v>
       </c>
       <c r="T12" s="20">
         <f t="shared" si="3"/>
-        <v>1.4864864864864864</v>
+        <v>0.81981981981981988</v>
       </c>
       <c r="U12" s="21">
         <f t="shared" si="4"/>
-        <v>1.5135135135135136</v>
+        <v>0.84684684684684686</v>
       </c>
       <c r="V12" s="21">
         <f t="shared" si="5"/>
-        <v>1.1351351351351351</v>
+        <v>0.46846846846846846</v>
       </c>
       <c r="W12" s="22" t="s">
         <v>33</v>
@@ -2849,19 +2866,19 @@
       </c>
       <c r="AE12" s="20">
         <f t="shared" si="6"/>
-        <v>0.75675675675675691</v>
+        <v>0.23823823823823831</v>
       </c>
       <c r="AF12" s="20">
         <f t="shared" si="7"/>
-        <v>1.3513513513513513</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="AG12" s="20">
         <f t="shared" si="1"/>
-        <v>1.5135135135135136</v>
+        <v>0.84684684684684686</v>
       </c>
       <c r="AH12" s="21">
         <f t="shared" si="8"/>
-        <v>0.75675675675675691</v>
+        <v>0.23823823823823831</v>
       </c>
       <c r="AI12" s="22" t="s">
         <v>33</v>
@@ -2871,19 +2888,19 @@
       </c>
       <c r="AQ12" s="20">
         <f t="shared" si="9"/>
-        <v>0.35675675675675667</v>
+        <v>0.22342342342342342</v>
       </c>
       <c r="AR12" s="20">
         <f t="shared" si="10"/>
-        <v>1.3834459459459461</v>
+        <v>0.67511261261261257</v>
       </c>
       <c r="AS12" s="20">
         <f t="shared" si="11"/>
-        <v>1.2342342342342343</v>
+        <v>0.56756756756756754</v>
       </c>
       <c r="AT12" s="21">
         <f t="shared" si="12"/>
-        <v>0.35675675675675667</v>
+        <v>0.22342342342342342</v>
       </c>
       <c r="AU12" s="22" t="s">
         <v>33</v>
@@ -2950,7 +2967,7 @@
       </c>
       <c r="AE13" s="13">
         <f t="shared" si="6"/>
-        <v>0.7297297297297296</v>
+        <v>0.58158158158158146</v>
       </c>
       <c r="AF13" s="13">
         <f t="shared" si="7"/>
@@ -2972,11 +2989,11 @@
       </c>
       <c r="AQ13" s="13">
         <f t="shared" si="9"/>
-        <v>1.1297297297297297</v>
+        <v>0.72972972972972983</v>
       </c>
       <c r="AR13" s="13">
         <f t="shared" si="10"/>
-        <v>0.10304054054054053</v>
+        <v>0.1447072072072072</v>
       </c>
       <c r="AS13" s="13">
         <f t="shared" si="11"/>
@@ -2984,7 +3001,7 @@
       </c>
       <c r="AT13" s="14">
         <f t="shared" si="12"/>
-        <v>0.10304054054054053</v>
+        <v>0.1447072072072072</v>
       </c>
       <c r="AU13" s="18" t="s">
         <v>34</v>
@@ -3051,7 +3068,7 @@
       </c>
       <c r="AE14" s="24">
         <f t="shared" si="6"/>
-        <v>0.93693693693693691</v>
+        <v>0.78878878878878878</v>
       </c>
       <c r="AF14" s="24">
         <f t="shared" si="7"/>
@@ -3073,11 +3090,11 @@
       </c>
       <c r="AQ14" s="24">
         <f t="shared" si="9"/>
-        <v>1.4702702702702704</v>
+        <v>1.0702702702702702</v>
       </c>
       <c r="AR14" s="24">
         <f t="shared" si="10"/>
-        <v>0.89695945945945943</v>
+        <v>0.93862612612612606</v>
       </c>
       <c r="AS14" s="24">
         <f t="shared" si="11"/>
@@ -3152,7 +3169,7 @@
       </c>
       <c r="AE15" s="13">
         <f t="shared" si="6"/>
-        <v>0.4864864864864864</v>
+        <v>0.33833833833833826</v>
       </c>
       <c r="AF15" s="13">
         <f t="shared" si="7"/>
@@ -3174,11 +3191,11 @@
       </c>
       <c r="AQ15" s="13">
         <f t="shared" si="9"/>
-        <v>0.88648648648648654</v>
+        <v>0.48648648648648657</v>
       </c>
       <c r="AR15" s="13">
         <f t="shared" si="10"/>
-        <v>0.14020270270270274</v>
+        <v>0.1818693693693694</v>
       </c>
       <c r="AS15" s="13">
         <f t="shared" si="11"/>
@@ -3186,7 +3203,7 @@
       </c>
       <c r="AT15" s="14">
         <f t="shared" si="12"/>
-        <v>0.14020270270270274</v>
+        <v>0.1818693693693694</v>
       </c>
       <c r="AU15" s="18" t="s">
         <v>34</v>
@@ -3253,7 +3270,7 @@
       </c>
       <c r="AE16" s="13">
         <f t="shared" si="6"/>
-        <v>0.64864864864864857</v>
+        <v>0.50050050050050043</v>
       </c>
       <c r="AF16" s="13">
         <f t="shared" si="7"/>
@@ -3275,11 +3292,11 @@
       </c>
       <c r="AQ16" s="13">
         <f t="shared" si="9"/>
-        <v>1.0486486486486488</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="AR16" s="13">
         <f t="shared" si="10"/>
-        <v>2.1959459459459443E-2</v>
+        <v>6.3626126126126115E-2</v>
       </c>
       <c r="AS16" s="13">
         <f t="shared" si="11"/>
@@ -3287,7 +3304,7 @@
       </c>
       <c r="AT16" s="14">
         <f t="shared" si="12"/>
-        <v>2.1959459459459443E-2</v>
+        <v>6.3626126126126115E-2</v>
       </c>
       <c r="AU16" s="18" t="s">
         <v>34</v>
@@ -3354,7 +3371,7 @@
       </c>
       <c r="AE17" s="13">
         <f t="shared" si="6"/>
-        <v>0.67567567567567566</v>
+        <v>0.52752752752752752</v>
       </c>
       <c r="AF17" s="13">
         <f t="shared" si="7"/>
@@ -3376,11 +3393,11 @@
       </c>
       <c r="AQ17" s="13">
         <f t="shared" si="9"/>
-        <v>1.0756756756756758</v>
+        <v>0.67567567567567577</v>
       </c>
       <c r="AR17" s="13">
         <f t="shared" si="10"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AS17" s="13">
         <f t="shared" si="11"/>
@@ -3388,7 +3405,7 @@
       </c>
       <c r="AT17" s="14">
         <f t="shared" si="12"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AU17" s="18" t="s">
         <v>34</v>
@@ -3455,7 +3472,7 @@
       </c>
       <c r="AE18" s="13">
         <f t="shared" si="6"/>
-        <v>0.37837837837837829</v>
+        <v>0.23023023023023015</v>
       </c>
       <c r="AF18" s="13">
         <f t="shared" si="7"/>
@@ -3467,7 +3484,7 @@
       </c>
       <c r="AH18" s="14">
         <f t="shared" si="8"/>
-        <v>0.35907335907335913</v>
+        <v>0.23023023023023015</v>
       </c>
       <c r="AI18" s="18" t="s">
         <v>34</v>
@@ -3477,11 +3494,11 @@
       </c>
       <c r="AQ18" s="13">
         <f t="shared" si="9"/>
-        <v>0.82162162162162167</v>
+        <v>0.42162162162162159</v>
       </c>
       <c r="AR18" s="13">
         <f t="shared" si="10"/>
-        <v>0.24831081081081086</v>
+        <v>0.28997747747747754</v>
       </c>
       <c r="AS18" s="13">
         <f t="shared" si="11"/>
@@ -3489,7 +3506,7 @@
       </c>
       <c r="AT18" s="14">
         <f t="shared" si="12"/>
-        <v>0.24831081081081086</v>
+        <v>0.28997747747747754</v>
       </c>
       <c r="AU18" s="18" t="s">
         <v>34</v>
@@ -3556,7 +3573,7 @@
       </c>
       <c r="AE19" s="13">
         <f t="shared" si="6"/>
-        <v>0.70270270270270263</v>
+        <v>0.55455455455455449</v>
       </c>
       <c r="AF19" s="13">
         <f t="shared" si="7"/>
@@ -3578,11 +3595,11 @@
       </c>
       <c r="AQ19" s="13">
         <f t="shared" si="9"/>
-        <v>1.1027027027027028</v>
+        <v>0.70270270270270285</v>
       </c>
       <c r="AR19" s="13">
         <f t="shared" si="10"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AS19" s="13">
         <f t="shared" si="11"/>
@@ -3590,7 +3607,7 @@
       </c>
       <c r="AT19" s="14">
         <f t="shared" si="12"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AU19" s="18" t="s">
         <v>34</v>
@@ -3657,7 +3674,7 @@
       </c>
       <c r="AE20" s="24">
         <f t="shared" si="6"/>
-        <v>0.50450450450450446</v>
+        <v>0.35635635635635637</v>
       </c>
       <c r="AF20" s="24">
         <f t="shared" si="7"/>
@@ -3669,7 +3686,7 @@
       </c>
       <c r="AH20" s="25">
         <f t="shared" si="8"/>
-        <v>0.43243243243243246</v>
+        <v>0.35635635635635637</v>
       </c>
       <c r="AI20" s="31" t="s">
         <v>35</v>
@@ -3679,11 +3696,11 @@
       </c>
       <c r="AQ20" s="24">
         <f t="shared" si="9"/>
-        <v>1.0378378378378379</v>
+        <v>0.63783783783783776</v>
       </c>
       <c r="AR20" s="24">
         <f t="shared" si="10"/>
-        <v>0.46452702702702703</v>
+        <v>0.50619369369369371</v>
       </c>
       <c r="AS20" s="24">
         <f t="shared" si="11"/>
@@ -3758,7 +3775,7 @@
       </c>
       <c r="AE21" s="20">
         <f t="shared" si="6"/>
-        <v>0.35135135135135126</v>
+        <v>0.20320320320320312</v>
       </c>
       <c r="AF21" s="20">
         <f t="shared" si="7"/>
@@ -3770,7 +3787,7 @@
       </c>
       <c r="AH21" s="21">
         <f t="shared" si="8"/>
-        <v>0.35135135135135126</v>
+        <v>0.20320320320320312</v>
       </c>
       <c r="AI21" s="22" t="s">
         <v>33</v>
@@ -3780,11 +3797,11 @@
       </c>
       <c r="AQ21" s="13">
         <f t="shared" si="9"/>
-        <v>0.84864864864864864</v>
+        <v>0.44864864864864862</v>
       </c>
       <c r="AR21" s="13">
         <f t="shared" si="10"/>
-        <v>0.27533783783783788</v>
+        <v>0.31700450450450457</v>
       </c>
       <c r="AS21" s="13">
         <f t="shared" si="11"/>
@@ -3792,7 +3809,7 @@
       </c>
       <c r="AT21" s="14">
         <f t="shared" si="12"/>
-        <v>0.27533783783783788</v>
+        <v>0.31700450450450457</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>34</v>
@@ -3859,7 +3876,7 @@
       </c>
       <c r="AE22" s="13">
         <f t="shared" si="6"/>
-        <v>0.62162162162162149</v>
+        <v>0.47347347347347341</v>
       </c>
       <c r="AF22" s="13">
         <f t="shared" si="7"/>
@@ -3881,11 +3898,11 @@
       </c>
       <c r="AQ22" s="13">
         <f t="shared" si="9"/>
-        <v>1.0216216216216218</v>
+        <v>0.62162162162162171</v>
       </c>
       <c r="AR22" s="13">
         <f t="shared" si="10"/>
-        <v>5.0675675675675852E-3</v>
+        <v>4.673423423423425E-2</v>
       </c>
       <c r="AS22" s="13">
         <f t="shared" si="11"/>
@@ -3893,7 +3910,7 @@
       </c>
       <c r="AT22" s="14">
         <f>MIN(AQ22:AS22)</f>
-        <v>5.0675675675675852E-3</v>
+        <v>4.673423423423425E-2</v>
       </c>
       <c r="AU22" s="18" t="s">
         <v>34</v>
@@ -3960,7 +3977,7 @@
       </c>
       <c r="AE23" s="13">
         <f t="shared" si="6"/>
-        <v>0.45945945945945937</v>
+        <v>0.31131131131131123</v>
       </c>
       <c r="AF23" s="13">
         <f t="shared" si="7"/>
@@ -3982,11 +3999,11 @@
       </c>
       <c r="AQ23" s="13">
         <f t="shared" si="9"/>
-        <v>0.85945945945945956</v>
+        <v>0.45945945945945954</v>
       </c>
       <c r="AR23" s="13">
         <f t="shared" si="10"/>
-        <v>0.16722972972972977</v>
+        <v>0.20889639639639643</v>
       </c>
       <c r="AS23" s="13">
         <f t="shared" si="11"/>
@@ -3994,7 +4011,7 @@
       </c>
       <c r="AT23" s="14">
         <f t="shared" si="12"/>
-        <v>0.16722972972972977</v>
+        <v>0.20889639639639643</v>
       </c>
       <c r="AU23" s="18" t="s">
         <v>34</v>
@@ -4061,7 +4078,7 @@
       </c>
       <c r="AE24" s="13">
         <f t="shared" si="6"/>
-        <v>0.7297297297297296</v>
+        <v>0.58158158158158146</v>
       </c>
       <c r="AF24" s="13">
         <f t="shared" si="7"/>
@@ -4083,11 +4100,11 @@
       </c>
       <c r="AQ24" s="13">
         <f t="shared" si="9"/>
-        <v>1.1297297297297297</v>
+        <v>0.72972972972972983</v>
       </c>
       <c r="AR24" s="13">
         <f t="shared" si="10"/>
-        <v>0.10304054054054053</v>
+        <v>0.1447072072072072</v>
       </c>
       <c r="AS24" s="13">
         <f t="shared" si="11"/>
@@ -4095,7 +4112,7 @@
       </c>
       <c r="AT24" s="14">
         <f t="shared" si="12"/>
-        <v>0.10304054054054053</v>
+        <v>0.1447072072072072</v>
       </c>
       <c r="AU24" s="18" t="s">
         <v>34</v>
@@ -4162,7 +4179,7 @@
       </c>
       <c r="AE25" s="13">
         <f t="shared" si="6"/>
-        <v>0.70270270270270263</v>
+        <v>0.55455455455455449</v>
       </c>
       <c r="AF25" s="13">
         <f t="shared" si="7"/>
@@ -4184,11 +4201,11 @@
       </c>
       <c r="AQ25" s="13">
         <f t="shared" si="9"/>
-        <v>1.1027027027027028</v>
+        <v>0.70270270270270285</v>
       </c>
       <c r="AR25" s="13">
         <f t="shared" si="10"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AS25" s="13">
         <f t="shared" si="11"/>
@@ -4196,7 +4213,7 @@
       </c>
       <c r="AT25" s="14">
         <f t="shared" si="12"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AU25" s="18" t="s">
         <v>34</v>
@@ -4230,7 +4247,7 @@
       </c>
       <c r="I26" s="5">
         <f>(C26-MIN(C7:C30))/(MAX(C7:C30)-MIN(C7:C30))</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="5">
         <f>(D26-MIN(D7:D30))/(MAX(D7:D30)-MIN(D7:D30))</f>
@@ -4241,19 +4258,19 @@
       </c>
       <c r="S26" s="20">
         <f t="shared" si="2"/>
-        <v>1.0810810810810811</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="T26" s="20">
         <f t="shared" si="3"/>
-        <v>1.2702702702702702</v>
+        <v>0.60360360360360366</v>
       </c>
       <c r="U26" s="21">
         <f t="shared" si="4"/>
-        <v>1.7297297297297298</v>
+        <v>1.0630630630630631</v>
       </c>
       <c r="V26" s="21">
         <f t="shared" si="5"/>
-        <v>1.0810810810810811</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="W26" s="22" t="s">
         <v>33</v>
@@ -4263,19 +4280,19 @@
       </c>
       <c r="AE26" s="20">
         <f t="shared" si="6"/>
-        <v>0.7927927927927928</v>
+        <v>0.2742742742742742</v>
       </c>
       <c r="AF26" s="20">
         <f t="shared" si="7"/>
-        <v>1.1351351351351351</v>
+        <v>0.46846846846846846</v>
       </c>
       <c r="AG26" s="20">
         <f t="shared" si="1"/>
-        <v>1.7297297297297298</v>
+        <v>1.0630630630630631</v>
       </c>
       <c r="AH26" s="21">
         <f t="shared" si="8"/>
-        <v>0.7927927927927928</v>
+        <v>0.2742742742742742</v>
       </c>
       <c r="AI26" s="22" t="s">
         <v>33</v>
@@ -4285,19 +4302,19 @@
       </c>
       <c r="AQ26" s="20">
         <f t="shared" si="9"/>
-        <v>0.25945945945945947</v>
+        <v>0.12612612612612623</v>
       </c>
       <c r="AR26" s="20">
         <f t="shared" si="10"/>
-        <v>1.1672297297297298</v>
+        <v>0.4588963963963964</v>
       </c>
       <c r="AS26" s="20">
         <f t="shared" si="11"/>
-        <v>1.4504504504504505</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="AT26" s="21">
         <f t="shared" si="12"/>
-        <v>0.25945945945945947</v>
+        <v>0.12612612612612623</v>
       </c>
       <c r="AU26" s="22" t="s">
         <v>33</v>
@@ -4364,7 +4381,7 @@
       </c>
       <c r="AE27" s="13">
         <f t="shared" si="6"/>
-        <v>0.70270270270270263</v>
+        <v>0.55455455455455449</v>
       </c>
       <c r="AF27" s="13">
         <f t="shared" si="7"/>
@@ -4386,11 +4403,11 @@
       </c>
       <c r="AQ27" s="13">
         <f t="shared" si="9"/>
-        <v>1.1027027027027028</v>
+        <v>0.70270270270270285</v>
       </c>
       <c r="AR27" s="13">
         <f t="shared" si="10"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AS27" s="13">
         <f t="shared" si="11"/>
@@ -4398,7 +4415,7 @@
       </c>
       <c r="AT27" s="14">
         <f t="shared" si="12"/>
-        <v>7.60135135135135E-2</v>
+        <v>0.11768018018018017</v>
       </c>
       <c r="AU27" s="18" t="s">
         <v>34</v>
@@ -4465,7 +4482,7 @@
       </c>
       <c r="AE28" s="13">
         <f t="shared" si="6"/>
-        <v>0.67567567567567566</v>
+        <v>0.52752752752752752</v>
       </c>
       <c r="AF28" s="13">
         <f t="shared" si="7"/>
@@ -4487,11 +4504,11 @@
       </c>
       <c r="AQ28" s="13">
         <f t="shared" si="9"/>
-        <v>1.0756756756756758</v>
+        <v>0.67567567567567577</v>
       </c>
       <c r="AR28" s="13">
         <f t="shared" si="10"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AS28" s="13">
         <f>ABS(I28-AL$8)+ABS(J28-AM$8)</f>
@@ -4499,7 +4516,7 @@
       </c>
       <c r="AT28" s="14">
         <f t="shared" si="12"/>
-        <v>4.8986486486486472E-2</v>
+        <v>9.0653153153153143E-2</v>
       </c>
       <c r="AU28" s="18" t="s">
         <v>34</v>
@@ -4518,14 +4535,14 @@
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8">
         <v>15</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="3" t="s">
@@ -4566,7 +4583,7 @@
       </c>
       <c r="AE29" s="20">
         <f t="shared" si="6"/>
-        <v>0.67567567567567588</v>
+        <v>0.82382382382382402</v>
       </c>
       <c r="AF29" s="20">
         <f t="shared" si="7"/>
@@ -4578,7 +4595,7 @@
       </c>
       <c r="AH29" s="21">
         <f t="shared" si="8"/>
-        <v>0.67567567567567588</v>
+        <v>0.82382382382382402</v>
       </c>
       <c r="AI29" s="22" t="s">
         <v>33</v>
@@ -4588,11 +4605,11 @@
       </c>
       <c r="AQ29" s="20">
         <f t="shared" si="9"/>
-        <v>0.27567567567567558</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="AR29" s="20">
         <f t="shared" si="10"/>
-        <v>1.3023648648648649</v>
+        <v>1.2606981981981984</v>
       </c>
       <c r="AS29" s="20">
         <f t="shared" si="11"/>
@@ -4600,7 +4617,7 @@
       </c>
       <c r="AT29" s="21">
         <f t="shared" si="12"/>
-        <v>0.27567567567567558</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="AU29" s="22" t="s">
         <v>33</v>
@@ -4619,14 +4636,14 @@
         <v>27</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="8">
         <v>4</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2"/>
       <c r="H30" s="3" t="s">
@@ -4634,7 +4651,7 @@
       </c>
       <c r="I30" s="5">
         <f>(C30-MIN(C7:C30))/(MAX(C7:C30)-MIN(C7:C30))</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J30" s="5">
         <f>(D30-MIN(D7:D30))/(MAX(D7:D30)-MIN(D7:D30))</f>
@@ -4645,19 +4662,19 @@
       </c>
       <c r="S30" s="13">
         <f t="shared" si="2"/>
-        <v>0.24324324324324326</v>
+        <v>0.90990990990990994</v>
       </c>
       <c r="T30" s="13">
         <f t="shared" si="3"/>
-        <v>0.10810810810810811</v>
+        <v>0.77477477477477474</v>
       </c>
       <c r="U30" s="14">
         <f t="shared" si="4"/>
-        <v>0.89189189189189189</v>
+        <v>1.5585585585585586</v>
       </c>
       <c r="V30" s="14">
         <f t="shared" si="5"/>
-        <v>0.10810810810810811</v>
+        <v>0.77477477477477474</v>
       </c>
       <c r="W30" s="18" t="s">
         <v>34</v>
@@ -4667,19 +4684,19 @@
       </c>
       <c r="AE30" s="13">
         <f t="shared" si="6"/>
-        <v>0.62162162162162149</v>
+        <v>0.76976976976976963</v>
       </c>
       <c r="AF30" s="13">
         <f t="shared" si="7"/>
-        <v>0.11583011583011583</v>
+        <v>0.63963963963963966</v>
       </c>
       <c r="AG30" s="13">
         <f t="shared" si="1"/>
-        <v>0.89189189189189189</v>
+        <v>1.5585585585585586</v>
       </c>
       <c r="AH30" s="14">
         <f t="shared" si="8"/>
-        <v>0.11583011583011583</v>
+        <v>0.63963963963963966</v>
       </c>
       <c r="AI30" s="18" t="s">
         <v>34</v>
@@ -4689,19 +4706,19 @@
       </c>
       <c r="AQ30" s="13">
         <f>ABS(I30-AL$6)+ABS(J30-AM$6)</f>
-        <v>1.0216216216216218</v>
+        <v>0.4882882882882883</v>
       </c>
       <c r="AR30" s="13">
         <f>ABS(I30-AL$7)+ABS(J30-AM$7)</f>
-        <v>5.0675675675675852E-3</v>
+        <v>0.63006756756756754</v>
       </c>
       <c r="AS30" s="13">
         <f t="shared" si="11"/>
-        <v>0.61261261261261268</v>
+        <v>1.2792792792792793</v>
       </c>
       <c r="AT30" s="14">
         <f t="shared" si="12"/>
-        <v>5.0675675675675852E-3</v>
+        <v>0.4882882882882883</v>
       </c>
       <c r="AU30" s="18" t="s">
         <v>34</v>
@@ -4721,7 +4738,7 @@
       </c>
       <c r="C31" s="4">
         <f>SUM(C7:C30)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31" si="13">SUM(D7:D30)</f>
@@ -4737,7 +4754,7 @@
       </c>
       <c r="C32" s="33">
         <f>C31+D31</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D32" s="33"/>
       <c r="H32" s="3"/>
@@ -4939,11 +4956,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -4952,9 +4964,4566 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
+  <dimension ref="B2:BC41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="H4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="N4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="U4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AG4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AS4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+    </row>
+    <row r="5" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AS5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+    </row>
+    <row r="6" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="N6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="U6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9">
+        <f>(S7+S8+S9+S11+S13+S15+S16+S17+S18+S19+S21+S22+S23+S24+S25+S26+S27+S28+S29+S30)/20</f>
+        <v>5.2</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Z6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="35"/>
+      <c r="AG6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9">
+        <f>(AE7+AE8+AE9+AE11+AE13+AE15+AE16+AE17+AE19+AE22+AE23+AE24+AE25+AE26+AE27+AE28+AE30)/17</f>
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="AJ6" s="11"/>
+      <c r="AL6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ6" s="35"/>
+      <c r="AS6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="11"/>
+      <c r="AX6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC6" s="35"/>
+    </row>
+    <row r="7" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E30" si="0">SUM(C7:D7)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="13">
+        <f>SQRT((D7 - $K$6)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="P7" s="13">
+        <f>SQRT((D7 - $K$7)^2)</f>
+        <v>15</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>SQRT((D7 - $K$8)^2)</f>
+        <v>25</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <f>S7+S8+S9+S11+S13+S15+S16+S17+S18+S19+S21+S22+S23+S24+S25+S26+S27+S28+S29+S30</f>
+        <v>104</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9">
+        <f>(S10+S20+S12)/3</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Z7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="13">
+        <f>SQRT((S7 - $W$6)^2)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AB7" s="13">
+        <f>SQRT((S7 - $W$7)^2)</f>
+        <v>15.333333333333332</v>
+      </c>
+      <c r="AC7" s="13">
+        <f>SQRT((S7 - $W$8)^2)</f>
+        <v>32</v>
+      </c>
+      <c r="AD7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9">
+        <f>(AE10+AE12+AE20+AE21+AE29+AE18)/6</f>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="AJ7" s="12"/>
+      <c r="AL7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="13">
+        <f>SQRT((AE7 - $AI$6)^2)</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="AN7" s="13">
+        <f>SQRT((AE7 - $AI$7)^2)</f>
+        <v>12.166666666666668</v>
+      </c>
+      <c r="AO7" s="13">
+        <f>SQRT((AE7 - $AI$8)^2)</f>
+        <v>32</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ7" s="32"/>
+      <c r="AS7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="12"/>
+      <c r="AX7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="32"/>
+    </row>
+    <row r="8" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>30</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="N8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" ref="O8:O30" si="1">SQRT((D8 - $K$6)^2)</f>
+        <v>6</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:P30" si="2">SQRT((D8 - $K$7)^2)</f>
+        <v>16</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" ref="Q8:Q30" si="3">SQRT((D8 - $K$8)^2)</f>
+        <v>26</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9">
+        <f>S14</f>
+        <v>37</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Z8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="13">
+        <f t="shared" ref="AA8:AA30" si="4">SQRT((S8 - $W$6)^2)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" ref="AB8:AB30" si="5">SQRT((S8 - $W$7)^2)</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" ref="AC8:AC30" si="6">SQRT((S8 - $W$8)^2)</f>
+        <v>33</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9">
+        <f>AE14</f>
+        <v>37</v>
+      </c>
+      <c r="AJ8" s="10"/>
+      <c r="AL8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="13">
+        <f>SQRT((AE8 - $AI$6)^2)</f>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="AN8" s="13">
+        <f t="shared" ref="AN8:AN30" si="7">SQRT((AE8 - $AI$7)^2)</f>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="AO8" s="13">
+        <f t="shared" ref="AO8:AO30" si="8">SQRT((AE8 - $AI$8)^2)</f>
+        <v>33</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="32"/>
+      <c r="AS8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="10"/>
+      <c r="AX8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="32"/>
+    </row>
+    <row r="9" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="N9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="5"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="13">
+        <f t="shared" ref="AM9:AM30" si="9">SQRT((AE9 - $AI$6)^2)</f>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="AN9" s="13">
+        <f t="shared" si="7"/>
+        <v>15.166666666666668</v>
+      </c>
+      <c r="AO9" s="13">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="32"/>
+      <c r="AX9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="32"/>
+    </row>
+    <row r="10" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="N10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="13">
+        <f t="shared" si="4"/>
+        <v>16.8</v>
+      </c>
+      <c r="AB10" s="13">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666679</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM10" s="13">
+        <f t="shared" si="9"/>
+        <v>18.352941176470587</v>
+      </c>
+      <c r="AN10" s="13">
+        <f t="shared" si="7"/>
+        <v>4.8333333333333321</v>
+      </c>
+      <c r="AO10" s="13">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ10" s="32"/>
+      <c r="AX10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="32"/>
+    </row>
+    <row r="11" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="N11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="5"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="13">
+        <f t="shared" si="9"/>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="AN11" s="13">
+        <f t="shared" si="7"/>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="AO11" s="13">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ11" s="32"/>
+      <c r="AX11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="32"/>
+    </row>
+    <row r="12" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="N12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="4"/>
+        <v>12.8</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="5"/>
+        <v>2.3333333333333321</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>18</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="13">
+        <f t="shared" si="9"/>
+        <v>14.352941176470589</v>
+      </c>
+      <c r="AN12" s="13">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333215</v>
+      </c>
+      <c r="AO12" s="13">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="32"/>
+      <c r="AX12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="32"/>
+    </row>
+    <row r="13" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="N13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="5"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="AC13" s="13">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="13">
+        <f t="shared" si="9"/>
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="AN13" s="13">
+        <f t="shared" si="7"/>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="AO13" s="13">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ13" s="32"/>
+      <c r="AX13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="32"/>
+    </row>
+    <row r="14" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="N14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="4"/>
+        <v>31.8</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="13">
+        <f t="shared" si="9"/>
+        <v>33.352941176470587</v>
+      </c>
+      <c r="AN14" s="13">
+        <f t="shared" si="7"/>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="AO14" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ14" s="32"/>
+      <c r="AX14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="32"/>
+    </row>
+    <row r="15" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="N15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="5"/>
+        <v>11.333333333333332</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="13">
+        <f t="shared" si="9"/>
+        <v>5.3529411764705888</v>
+      </c>
+      <c r="AN15" s="13">
+        <f t="shared" si="7"/>
+        <v>8.1666666666666679</v>
+      </c>
+      <c r="AO15" s="13">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ15" s="32"/>
+      <c r="AX15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="32"/>
+    </row>
+    <row r="16" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="N16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="13">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="5"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="13">
+        <f t="shared" si="9"/>
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="AN16" s="13">
+        <f t="shared" si="7"/>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="AO16" s="13">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ16" s="32"/>
+      <c r="AX16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="32"/>
+    </row>
+    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="N17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="5"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM17" s="13">
+        <f t="shared" si="9"/>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="AN17" s="13">
+        <f t="shared" si="7"/>
+        <v>15.166666666666668</v>
+      </c>
+      <c r="AO17" s="13">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ17" s="32"/>
+      <c r="AX17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="32"/>
+    </row>
+    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="N18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="4"/>
+        <v>7.8</v>
+      </c>
+      <c r="AB18" s="13">
+        <f t="shared" si="5"/>
+        <v>7.3333333333333321</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM18" s="13">
+        <f t="shared" si="9"/>
+        <v>9.3529411764705888</v>
+      </c>
+      <c r="AN18" s="13">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666679</v>
+      </c>
+      <c r="AO18" s="13">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ18" s="32"/>
+      <c r="AX18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="32"/>
+    </row>
+    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="N19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="AB19" s="13">
+        <f t="shared" si="5"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM19" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="AN19" s="13">
+        <f t="shared" si="7"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="AO19" s="13">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ19" s="32"/>
+      <c r="AX19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="32"/>
+    </row>
+    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="N20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="4"/>
+        <v>15.8</v>
+      </c>
+      <c r="AB20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666785</v>
+      </c>
+      <c r="AC20" s="13">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>21</v>
+      </c>
+      <c r="AL20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM20" s="13">
+        <f t="shared" si="9"/>
+        <v>17.352941176470587</v>
+      </c>
+      <c r="AN20" s="13">
+        <f t="shared" si="7"/>
+        <v>3.8333333333333321</v>
+      </c>
+      <c r="AO20" s="13">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ20" s="32"/>
+      <c r="AX20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="32"/>
+    </row>
+    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="N21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="13">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AB21" s="13">
+        <f t="shared" si="5"/>
+        <v>6.3333333333333321</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>14</v>
+      </c>
+      <c r="AL21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM21" s="13">
+        <f t="shared" si="9"/>
+        <v>10.352941176470589</v>
+      </c>
+      <c r="AN21" s="13">
+        <f t="shared" si="7"/>
+        <v>3.1666666666666679</v>
+      </c>
+      <c r="AO21" s="13">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ21" s="32"/>
+      <c r="AX21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="32"/>
+    </row>
+    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="N22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="5"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="AC22" s="13">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AD22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM22" s="13">
+        <f t="shared" si="9"/>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="AN22" s="13">
+        <f t="shared" si="7"/>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="AO22" s="13">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ22" s="32"/>
+      <c r="AX22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="32"/>
+    </row>
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="N23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="5"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AD23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM23" s="13">
+        <f t="shared" si="9"/>
+        <v>6.3529411764705888</v>
+      </c>
+      <c r="AN23" s="13">
+        <f t="shared" si="7"/>
+        <v>7.1666666666666679</v>
+      </c>
+      <c r="AO23" s="13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AP23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ23" s="32"/>
+      <c r="AX23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="32"/>
+    </row>
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="N24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P24" s="13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+      <c r="AB24" s="13">
+        <f t="shared" si="5"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM24" s="13">
+        <f t="shared" si="9"/>
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="AN24" s="13">
+        <f t="shared" si="7"/>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="AO24" s="13">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ24" s="32"/>
+      <c r="AX24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="32"/>
+    </row>
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="N25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="AB25" s="13">
+        <f t="shared" si="5"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AC25" s="13">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM25" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="AN25" s="13">
+        <f t="shared" si="7"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="AO25" s="13">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AP25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ25" s="32"/>
+      <c r="AX25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="32"/>
+    </row>
+    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="N26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="AB26" s="13">
+        <f t="shared" si="5"/>
+        <v>10.333333333333332</v>
+      </c>
+      <c r="AC26" s="13">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AD26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>10</v>
+      </c>
+      <c r="AL26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM26" s="13">
+        <f t="shared" si="9"/>
+        <v>6.3529411764705888</v>
+      </c>
+      <c r="AN26" s="13">
+        <f t="shared" si="7"/>
+        <v>7.1666666666666679</v>
+      </c>
+      <c r="AO26" s="13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AP26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ26" s="32"/>
+      <c r="AX26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="32"/>
+    </row>
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="N27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="AB27" s="13">
+        <f t="shared" si="5"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="AC27" s="13">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AD27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM27" s="13">
+        <f t="shared" si="9"/>
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="AN27" s="13">
+        <f t="shared" si="7"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="AO27" s="13">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ27" s="32"/>
+      <c r="AX27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="32"/>
+    </row>
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="N28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="5"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AD28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="13">
+        <f t="shared" si="9"/>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="AN28" s="13">
+        <f t="shared" si="7"/>
+        <v>15.166666666666668</v>
+      </c>
+      <c r="AO28" s="13">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AP28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ28" s="32"/>
+      <c r="AX28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="32"/>
+    </row>
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="N29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB29" s="13">
+        <f t="shared" si="5"/>
+        <v>5.3333333333333321</v>
+      </c>
+      <c r="AC29" s="13">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AD29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>15</v>
+      </c>
+      <c r="AL29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM29" s="13">
+        <f t="shared" si="9"/>
+        <v>11.352941176470589</v>
+      </c>
+      <c r="AN29" s="13">
+        <f t="shared" si="7"/>
+        <v>2.1666666666666679</v>
+      </c>
+      <c r="AO29" s="13">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ29" s="32"/>
+      <c r="AX29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="32"/>
+    </row>
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="N30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB30" s="13">
+        <f t="shared" si="5"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AD30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM30" s="13">
+        <f t="shared" si="9"/>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="AN30" s="13">
+        <f t="shared" si="7"/>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="AO30" s="13">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AP30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ30" s="32"/>
+      <c r="AX30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="32"/>
+    </row>
+    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(C7:C30)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31" si="10">SUM(D7:D30)</f>
+        <v>202</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" ref="S31" si="11">SUM(S7:S30)</f>
+        <v>202</v>
+      </c>
+      <c r="AE31" s="4">
+        <f t="shared" ref="AE31" si="12">SUM(AE7:AE30)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="33">
+        <f>C31+D31</f>
+        <v>210</v>
+      </c>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="N33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="N37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="C32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
+  <dimension ref="B2:BC41"/>
+  <sheetViews>
+    <sheetView topLeftCell="AJ6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="H4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="N4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="U4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+    </row>
+    <row r="5" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+    </row>
+    <row r="6" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="U6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9">
+        <f>(S7+S8+S9+S10+S13+S14+S15+S16+S17+S18+S19+S20+S21+S22+S23+S24+S25+S27+S28)/19</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Z6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="35"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="11"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AS6" s="2"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="11"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+    </row>
+    <row r="7" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E30" si="0">SUM(C7:D7)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="13">
+        <f>SQRT((C7 - $J$6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <f>SQRT((C7 - $J$7)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>SQRT((C7 - $J$8)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9">
+        <f>(S11+S12+S26+S30)/4</f>
+        <v>1.25</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Z7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="13">
+        <f>SQRT((S7 - $W$6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <f>SQRT((S7 - $W$7)^2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AC7" s="13">
+        <f>SQRT((S7 - $W$8)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="32"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="12"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="32"/>
+    </row>
+    <row r="8" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" ref="O8:O30" si="1">SQRT((C8 - $J$6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:P30" si="2">SQRT((C8 - $J$7)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" ref="Q8:Q30" si="3">SQRT((C8 - $J$8)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9">
+        <f>S29</f>
+        <v>3</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Z8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="13">
+        <f t="shared" ref="AA8:AA30" si="4">SQRT((S8 - $W$6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" ref="AB8:AB30" si="5">SQRT((S8 - $W$7)^2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" ref="AC8:AC30" si="6">SQRT((S8 - $W$8)^2)</f>
+        <v>3</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="10"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="32"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="10"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="32"/>
+    </row>
+    <row r="9" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="N9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="32"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="32"/>
+    </row>
+    <row r="10" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="N10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="32"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="32"/>
+    </row>
+    <row r="11" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="N11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="2"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="32"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="32"/>
+    </row>
+    <row r="12" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="N12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="32"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="32"/>
+    </row>
+    <row r="13" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="N13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC13" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="32"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="32"/>
+    </row>
+    <row r="14" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="N14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="32"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="32"/>
+    </row>
+    <row r="15" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="N15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="32"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="32"/>
+    </row>
+    <row r="16" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="N16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="2"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="32"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="32"/>
+    </row>
+    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="N17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <f>SQRT((C17 - $J$7)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="32"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="32"/>
+    </row>
+    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="N18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="32"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="32"/>
+    </row>
+    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="N19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="32"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="32"/>
+    </row>
+    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="N20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC20" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="32"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="32"/>
+    </row>
+    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="N21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="32"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="32"/>
+    </row>
+    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="N22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC22" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="32"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="32"/>
+    </row>
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="N23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="2"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="32"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="32"/>
+    </row>
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="N24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="32"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="32"/>
+    </row>
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="N25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC25" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="2"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="32"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="32"/>
+    </row>
+    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="N26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="13">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC26" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AD26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="32"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="32"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="32"/>
+    </row>
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="N27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC27" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE27" s="32"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="32"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="32"/>
+    </row>
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="N28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" s="32"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="32"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="32"/>
+    </row>
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="N29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB29" s="13">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AC29" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE29" s="32"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="32"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="32"/>
+    </row>
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="N30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="13">
+        <f>SQRT((C30 - $J$6)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="P30" s="13">
+        <f>SQRT((C30 - $J$7)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="14">
+        <f>SQRT((C30 - $J$8)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB30" s="13">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" s="32"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="32"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="32"/>
+    </row>
+    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(C7:C30)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31" si="7">SUM(D7:D30)</f>
+        <v>202</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" ref="S31" si="8">SUM(S7:S30)</f>
+        <v>8</v>
+      </c>
+      <c r="AE31" s="36">
+        <f t="shared" ref="AE31" si="9">SUM(AE7:AE30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="33">
+        <f>C31+D31</f>
+        <v>210</v>
+      </c>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="N33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL33" s="3"/>
+      <c r="AX33" s="3"/>
+    </row>
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="N35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="N37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="R6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82048860-7419-40FB-A5C4-26ABE305EF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C651B-21A4-4B84-86D6-B807F99C7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
     <sheet name="CURANMOR" sheetId="3" r:id="rId3"/>
     <sheet name="CURAS" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="60">
   <si>
     <t>DATA CURAS DAN CURANMOR KAB PROBOLINGGO 2021 - 2022</t>
   </si>
@@ -379,6 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,53 +725,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
         <v>2021</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34">
         <v>2022</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="33">
+      <c r="J5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34">
         <v>2021</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33">
+      <c r="L5" s="34"/>
+      <c r="M5" s="34">
         <v>2022</v>
       </c>
-      <c r="N5" s="33"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -783,8 +784,8 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1814,23 +1815,23 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <f>C31+D31</f>
         <v>219</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34">
         <f>E31+F31</f>
         <v>178</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="34"/>
       <c r="J32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -1932,19 +1933,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="L3" t="s">
         <v>31</v>
       </c>
@@ -1953,12 +1954,12 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="R4" s="27" t="s">
         <v>46</v>
       </c>
@@ -2002,14 +2003,14 @@
       <c r="BG4" s="27"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
         <v>2024</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
@@ -2092,14 +2093,14 @@
       <c r="BG5" s="27"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2136,10 +2137,10 @@
       <c r="U6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="36"/>
       <c r="Y6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2164,10 +2165,10 @@
       <c r="AG6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="35" t="s">
+      <c r="AH6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="35"/>
+      <c r="AI6" s="36"/>
       <c r="AK6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2192,10 +2193,10 @@
       <c r="AS6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AT6" s="35" t="s">
+      <c r="AT6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="35"/>
+      <c r="AU6" s="36"/>
       <c r="AW6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2213,10 +2214,10 @@
       <c r="BE6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BF6" s="35" t="s">
+      <c r="BF6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="35"/>
+      <c r="BG6" s="36"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4752,14 +4753,14 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -4784,12 +4785,12 @@
     <row r="34" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="33"/>
+      <c r="H35" s="34"/>
       <c r="R35" t="s">
         <v>33</v>
       </c>
@@ -4978,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
-  <dimension ref="B2:BC41"/>
+  <dimension ref="B2:BC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,12 +4996,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
@@ -5011,12 +5012,12 @@
       </c>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="N4" s="27" t="s">
         <v>46</v>
       </c>
@@ -5060,14 +5061,14 @@
       <c r="BC4" s="27"/>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
         <v>2024</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="s">
@@ -5147,14 +5148,14 @@
       <c r="BC5" s="27"/>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5178,10 +5179,10 @@
       <c r="Q6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="35"/>
+      <c r="S6" s="36"/>
       <c r="U6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5203,10 +5204,10 @@
       <c r="AC6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="35" t="s">
+      <c r="AD6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="35"/>
+      <c r="AE6" s="36"/>
       <c r="AG6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5228,10 +5229,10 @@
       <c r="AO6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="35" t="s">
+      <c r="AP6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ6" s="35"/>
+      <c r="AQ6" s="36"/>
       <c r="AS6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5249,10 +5250,10 @@
       <c r="BA6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BB6" s="35" t="s">
+      <c r="BB6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="BC6" s="35"/>
+      <c r="BC6" s="36"/>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -7389,6 +7390,10 @@
         <f t="shared" ref="D31" si="10">SUM(D7:D30)</f>
         <v>202</v>
       </c>
+      <c r="E31">
+        <f>SUM(E7:E30)</f>
+        <v>210</v>
+      </c>
       <c r="S31" s="4">
         <f t="shared" ref="S31" si="11">SUM(S7:S30)</f>
         <v>202</v>
@@ -7402,11 +7407,11 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -7415,13 +7420,25 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="N33" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>35</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AL33" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>35</v>
       </c>
       <c r="AX33" s="3" t="s">
         <v>42</v>
@@ -7430,18 +7447,42 @@
     <row r="34" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
+      <c r="N34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN34" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="N35" t="s">
-        <v>33</v>
+      <c r="N35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="Z35" t="s">
         <v>33</v>
       </c>
-      <c r="AL35" t="s">
-        <v>33</v>
+      <c r="AL35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="AX35" t="s">
         <v>33</v>
@@ -7450,14 +7491,20 @@
     <row r="36" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="N36" t="s">
-        <v>34</v>
+      <c r="N36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="Z36" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" t="s">
-        <v>34</v>
+      <c r="AL36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM36" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="AX36" t="s">
         <v>34</v>
@@ -7466,14 +7513,17 @@
     <row r="37" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="N37" t="s">
-        <v>35</v>
+      <c r="N37" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="Z37" t="s">
         <v>35</v>
       </c>
-      <c r="AL37" t="s">
-        <v>35</v>
+      <c r="AL37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM37" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="AX37" t="s">
         <v>35</v>
@@ -7482,18 +7532,135 @@
     <row r="38" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
+      <c r="N38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM38" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
+      <c r="N39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM39" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
+      <c r="N40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL40" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
+      <c r="N41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL41" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL42" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL44" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL45" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL46" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL47" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL48" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="14:38" x14ac:dyDescent="0.25">
+      <c r="N49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL49" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="14:38" x14ac:dyDescent="0.25">
+      <c r="N50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL50" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="14:38" x14ac:dyDescent="0.25">
+      <c r="N51" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="14:38" x14ac:dyDescent="0.25">
+      <c r="N52" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="14:38" x14ac:dyDescent="0.25">
+      <c r="N53" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7514,10 +7681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
-  <dimension ref="B2:BC41"/>
+  <dimension ref="B2:BC52"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,12 +7699,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
@@ -7548,12 +7715,12 @@
       </c>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
       <c r="N4" s="27" t="s">
         <v>46</v>
       </c>
@@ -7589,14 +7756,14 @@
       <c r="BC4" s="27"/>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
         <v>2024</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="s">
@@ -7654,14 +7821,14 @@
       <c r="BC5" s="27"/>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
@@ -7682,10 +7849,10 @@
       <c r="Q6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="35"/>
+      <c r="S6" s="30"/>
       <c r="U6" s="2" t="s">
         <v>33</v>
       </c>
@@ -7707,10 +7874,10 @@
       <c r="AC6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="35" t="s">
+      <c r="AD6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="35"/>
+      <c r="AE6" s="36"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -7719,8 +7886,8 @@
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="30"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
       <c r="AS6" s="2"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="11"/>
@@ -7728,8 +7895,8 @@
       <c r="AY6" s="29"/>
       <c r="AZ6" s="29"/>
       <c r="BA6" s="30"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -7853,15 +8020,15 @@
         <v>5</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" ref="O8:O30" si="1">SQRT((C8 - $J$6)^2)</f>
+        <f t="shared" ref="O8:O29" si="1">SQRT((C8 - $J$6)^2)</f>
         <v>0</v>
       </c>
       <c r="P8" s="13">
-        <f t="shared" ref="P8:P30" si="2">SQRT((C8 - $J$7)^2)</f>
+        <f t="shared" ref="P8:P29" si="2">SQRT((C8 - $J$7)^2)</f>
         <v>1</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" ref="Q8:Q30" si="3">SQRT((C8 - $J$8)^2)</f>
+        <f t="shared" ref="Q8:Q29" si="3">SQRT((C8 - $J$8)^2)</f>
         <v>3</v>
       </c>
       <c r="R8" s="11" t="s">
@@ -9431,7 +9598,7 @@
         <f t="shared" ref="S31" si="8">SUM(S7:S30)</f>
         <v>8</v>
       </c>
-      <c r="AE31" s="36">
+      <c r="AE31" s="33">
         <f t="shared" ref="AE31" si="9">SUM(AE7:AE30)</f>
         <v>0</v>
       </c>
@@ -9440,11 +9607,11 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="34">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -9453,67 +9620,146 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="N33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" s="3"/>
       <c r="AL33" s="3"/>
       <c r="AX33" s="3"/>
     </row>
     <row r="34" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
+      <c r="N34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="N35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>33</v>
+      <c r="N35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="N36" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>34</v>
+      <c r="N36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="N37" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>35</v>
+      <c r="N37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
+      <c r="N38" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
+      <c r="N39" s="23" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
+      <c r="N40" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
+      <c r="N41" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N42" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N43" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N44" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N45" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N46" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N47" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="N48" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AD6:AE6"/>
+  <mergeCells count="9">
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="BB6:BC6"/>
     <mergeCell ref="C32:D32"/>
@@ -9522,7 +9768,314 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AD6:AE6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A0F34F-35EB-4D62-B10C-97ED54243FFE}">
+  <dimension ref="B1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2024</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="11"/>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E16" si="0">SUM(C6:D6)</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="12"/>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C651B-21A4-4B84-86D6-B807F99C7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5DE141-DE36-44B8-80EF-FC36A4FCC23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,11 +296,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +407,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,11 +1938,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -1906,6 +1946,11 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4957,6 +5002,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -4965,11 +5015,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4981,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
   <dimension ref="B2:BC53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView topLeftCell="AB12" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6:AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,22 +5212,22 @@
         <v>10</v>
       </c>
       <c r="L6" s="11"/>
-      <c r="N6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="30" t="s">
+      <c r="N6" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="36"/>
+      <c r="S6" s="37"/>
       <c r="U6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5192,22 +5237,23 @@
         <v>5.2</v>
       </c>
       <c r="X6" s="11"/>
-      <c r="Z6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="30" t="s">
+      <c r="Z6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="36" t="s">
+      <c r="AD6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="36"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="42"/>
       <c r="AG6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5217,22 +5263,22 @@
         <v>3.6470588235294117</v>
       </c>
       <c r="AJ6" s="11"/>
-      <c r="AL6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO6" s="30" t="s">
+      <c r="AL6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="36" t="s">
+      <c r="AP6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AQ6" s="36"/>
+      <c r="AQ6" s="38"/>
       <c r="AS6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5281,22 +5327,22 @@
         <v>20</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="48">
         <f>SQRT((D7 - $K$6)^2)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="48">
         <f>SQRT((D7 - $K$7)^2)</f>
         <v>15</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="49">
         <f>SQRT((D7 - $K$8)^2)</f>
         <v>25</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="2">
@@ -5315,27 +5361,28 @@
         <v>20.333333333333332</v>
       </c>
       <c r="X7" s="12"/>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="16">
         <f>SQRT((S7 - $W$6)^2)</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="16">
         <f>SQRT((S7 - $W$7)^2)</f>
         <v>15.333333333333332</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="16">
         <f>SQRT((S7 - $W$8)^2)</f>
         <v>32</v>
       </c>
-      <c r="AD7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="2">
+      <c r="AD7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="32">
         <v>5</v>
       </c>
+      <c r="AF7" s="42"/>
       <c r="AG7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5345,25 +5392,25 @@
         <v>17.166666666666668</v>
       </c>
       <c r="AJ7" s="12"/>
-      <c r="AL7" s="12" t="s">
+      <c r="AL7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AM7" s="16">
         <f>SQRT((AE7 - $AI$6)^2)</f>
         <v>1.3529411764705883</v>
       </c>
-      <c r="AN7" s="13">
+      <c r="AN7" s="16">
         <f>SQRT((AE7 - $AI$7)^2)</f>
         <v>12.166666666666668</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AO7" s="16">
         <f>SQRT((AE7 - $AI$8)^2)</f>
         <v>32</v>
       </c>
-      <c r="AP7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ7" s="32"/>
+      <c r="AP7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ7" s="15"/>
       <c r="AS7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5405,22 +5452,22 @@
         <v>30</v>
       </c>
       <c r="L8" s="10"/>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="48">
         <f t="shared" ref="O8:O30" si="1">SQRT((D8 - $K$6)^2)</f>
         <v>6</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="48">
         <f t="shared" ref="P8:P30" si="2">SQRT((D8 - $K$7)^2)</f>
         <v>16</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="49">
         <f t="shared" ref="Q8:Q30" si="3">SQRT((D8 - $K$8)^2)</f>
         <v>26</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="2">
@@ -5435,27 +5482,28 @@
         <v>37</v>
       </c>
       <c r="X8" s="10"/>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="16">
         <f t="shared" ref="AA8:AA30" si="4">SQRT((S8 - $W$6)^2)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="16">
         <f t="shared" ref="AB8:AB30" si="5">SQRT((S8 - $W$7)^2)</f>
         <v>16.333333333333332</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="16">
         <f t="shared" ref="AC8:AC30" si="6">SQRT((S8 - $W$8)^2)</f>
         <v>33</v>
       </c>
-      <c r="AD8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE8" s="2">
+      <c r="AD8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="32">
         <v>4</v>
       </c>
+      <c r="AF8" s="42"/>
       <c r="AG8" s="2" t="s">
         <v>35</v>
       </c>
@@ -5465,25 +5513,25 @@
         <v>37</v>
       </c>
       <c r="AJ8" s="10"/>
-      <c r="AL8" s="12" t="s">
+      <c r="AL8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AM8" s="13">
+      <c r="AM8" s="16">
         <f>SQRT((AE8 - $AI$6)^2)</f>
         <v>0.35294117647058831</v>
       </c>
-      <c r="AN8" s="13">
+      <c r="AN8" s="16">
         <f t="shared" ref="AN8:AN30" si="7">SQRT((AE8 - $AI$7)^2)</f>
         <v>13.166666666666668</v>
       </c>
-      <c r="AO8" s="13">
+      <c r="AO8" s="16">
         <f t="shared" ref="AO8:AO30" si="8">SQRT((AE8 - $AI$8)^2)</f>
         <v>33</v>
       </c>
-      <c r="AP8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ8" s="32"/>
+      <c r="AP8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="15"/>
       <c r="AS8" s="2" t="s">
         <v>35</v>
       </c>
@@ -5514,67 +5562,68 @@
         <v>2</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="48">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="49">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="2">
         <v>2</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="16">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="16">
         <f t="shared" si="5"/>
         <v>18.333333333333332</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AD9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE9" s="2">
+      <c r="AD9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="32">
         <v>2</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AF9" s="42"/>
+      <c r="AL9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AM9" s="13">
+      <c r="AM9" s="16">
         <f t="shared" ref="AM9:AM30" si="9">SQRT((AE9 - $AI$6)^2)</f>
         <v>1.6470588235294117</v>
       </c>
-      <c r="AN9" s="13">
+      <c r="AN9" s="16">
         <f t="shared" si="7"/>
         <v>15.166666666666668</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AO9" s="16">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AP9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ9" s="32"/>
+      <c r="AP9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="15"/>
       <c r="AX9" s="15" t="s">
         <v>6</v>
       </c>
@@ -5599,67 +5648,68 @@
         <v>22</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="49">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="47" t="s">
         <v>34</v>
       </c>
       <c r="S10" s="2">
         <v>22</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="16">
         <f t="shared" si="4"/>
         <v>16.8</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="16">
         <f t="shared" si="5"/>
         <v>1.6666666666666679</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="16">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="AD10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="AD10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" s="32">
         <v>22</v>
       </c>
-      <c r="AL10" s="23" t="s">
+      <c r="AF10" s="42"/>
+      <c r="AL10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AM10" s="16">
         <f t="shared" si="9"/>
         <v>18.352941176470587</v>
       </c>
-      <c r="AN10" s="13">
+      <c r="AN10" s="16">
         <f t="shared" si="7"/>
         <v>4.8333333333333321</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AO10" s="16">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AP10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ10" s="32"/>
+      <c r="AP10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ10" s="15"/>
       <c r="AX10" s="15" t="s">
         <v>7</v>
       </c>
@@ -5684,67 +5734,68 @@
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="49">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="2">
         <v>4</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="16">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="16">
         <f t="shared" si="5"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="16">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="AD11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE11" s="2">
+      <c r="AD11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11" s="32">
         <v>4</v>
       </c>
-      <c r="AL11" s="19" t="s">
+      <c r="AF11" s="42"/>
+      <c r="AL11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AM11" s="13">
+      <c r="AM11" s="16">
         <f t="shared" si="9"/>
         <v>0.35294117647058831</v>
       </c>
-      <c r="AN11" s="13">
+      <c r="AN11" s="16">
         <f t="shared" si="7"/>
         <v>13.166666666666668</v>
       </c>
-      <c r="AO11" s="13">
+      <c r="AO11" s="16">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AP11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ11" s="32"/>
+      <c r="AP11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ11" s="15"/>
       <c r="AX11" s="15" t="s">
         <v>8</v>
       </c>
@@ -5769,70 +5820,71 @@
         <v>19</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="49">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="47" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="2">
         <v>18</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="16">
         <f t="shared" si="4"/>
         <v>12.8</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="16">
         <f t="shared" si="5"/>
         <v>2.3333333333333321</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="16">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="AD12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE12" s="2">
+      <c r="AD12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="32">
         <v>18</v>
       </c>
+      <c r="AF12" s="42"/>
       <c r="AG12" t="s">
         <v>56</v>
       </c>
-      <c r="AL12" s="19" t="s">
+      <c r="AL12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AM12" s="13">
+      <c r="AM12" s="16">
         <f t="shared" si="9"/>
         <v>14.352941176470589</v>
       </c>
-      <c r="AN12" s="13">
+      <c r="AN12" s="16">
         <f t="shared" si="7"/>
         <v>0.83333333333333215</v>
       </c>
-      <c r="AO12" s="13">
+      <c r="AO12" s="16">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="AP12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ12" s="32"/>
+      <c r="AP12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="15"/>
       <c r="AX12" s="15" t="s">
         <v>9</v>
       </c>
@@ -5857,70 +5909,71 @@
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="48">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="49">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="16">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="16">
         <f t="shared" si="5"/>
         <v>20.333333333333332</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="16">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="AD13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="42"/>
       <c r="AG13" t="s">
         <v>57</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AL13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AM13" s="13">
+      <c r="AM13" s="16">
         <f t="shared" si="9"/>
         <v>3.6470588235294117</v>
       </c>
-      <c r="AN13" s="13">
+      <c r="AN13" s="16">
         <f t="shared" si="7"/>
         <v>17.166666666666668</v>
       </c>
-      <c r="AO13" s="13">
+      <c r="AO13" s="16">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="AP13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ13" s="32"/>
+      <c r="AP13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ13" s="15"/>
       <c r="AX13" s="15" t="s">
         <v>10</v>
       </c>
@@ -5945,70 +5998,71 @@
         <v>37</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="48">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="49">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="50" t="s">
         <v>35</v>
       </c>
       <c r="S14" s="2">
         <v>37</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="16">
         <f t="shared" si="4"/>
         <v>31.8</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AB14" s="16">
         <f t="shared" si="5"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="25" t="s">
+      <c r="AD14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="32">
         <v>37</v>
       </c>
+      <c r="AF14" s="42"/>
       <c r="AG14" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="23" t="s">
+      <c r="AL14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AM14" s="13">
+      <c r="AM14" s="16">
         <f t="shared" si="9"/>
         <v>33.352941176470587</v>
       </c>
-      <c r="AN14" s="13">
+      <c r="AN14" s="16">
         <f t="shared" si="7"/>
         <v>19.833333333333332</v>
       </c>
-      <c r="AO14" s="13">
+      <c r="AO14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="25" t="s">
+      <c r="AP14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AQ14" s="32"/>
+      <c r="AQ14" s="15"/>
       <c r="AX14" s="15" t="s">
         <v>11</v>
       </c>
@@ -6033,67 +6087,68 @@
         <v>9</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="48">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="49">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="2">
         <v>9</v>
       </c>
-      <c r="Z15" s="12" t="s">
+      <c r="Z15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="16">
         <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="16">
         <f t="shared" si="5"/>
         <v>11.333333333333332</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="16">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="AD15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE15" s="2">
+      <c r="AD15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="32">
         <v>9</v>
       </c>
-      <c r="AL15" s="12" t="s">
+      <c r="AF15" s="42"/>
+      <c r="AL15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AM15" s="13">
+      <c r="AM15" s="16">
         <f t="shared" si="9"/>
         <v>5.3529411764705888</v>
       </c>
-      <c r="AN15" s="13">
+      <c r="AN15" s="16">
         <f t="shared" si="7"/>
         <v>8.1666666666666679</v>
       </c>
-      <c r="AO15" s="13">
+      <c r="AO15" s="16">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ15" s="32"/>
+      <c r="AP15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ15" s="15"/>
       <c r="AX15" s="15" t="s">
         <v>12</v>
       </c>
@@ -6118,67 +6173,68 @@
         <v>3</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="49">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S16" s="2">
         <v>3</v>
       </c>
-      <c r="Z16" s="12" t="s">
+      <c r="Z16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="16">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="16">
         <f t="shared" si="5"/>
         <v>17.333333333333332</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="16">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="AD16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="32">
         <v>3</v>
       </c>
-      <c r="AL16" s="12" t="s">
+      <c r="AF16" s="42"/>
+      <c r="AL16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AM16" s="13">
+      <c r="AM16" s="16">
         <f t="shared" si="9"/>
         <v>0.64705882352941169</v>
       </c>
-      <c r="AN16" s="13">
+      <c r="AN16" s="16">
         <f t="shared" si="7"/>
         <v>14.166666666666668</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AO16" s="16">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="AP16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ16" s="32"/>
+      <c r="AP16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ16" s="15"/>
       <c r="AX16" s="15" t="s">
         <v>13</v>
       </c>
@@ -6203,67 +6259,68 @@
         <v>2</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="48">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="49">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="2">
         <v>2</v>
       </c>
-      <c r="Z17" s="12" t="s">
+      <c r="Z17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="16">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="16">
         <f t="shared" si="5"/>
         <v>18.333333333333332</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AD17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="2">
+      <c r="AD17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="32">
         <v>2</v>
       </c>
-      <c r="AL17" s="12" t="s">
+      <c r="AF17" s="42"/>
+      <c r="AL17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AM17" s="16">
         <f t="shared" si="9"/>
         <v>1.6470588235294117</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AN17" s="16">
         <f t="shared" si="7"/>
         <v>15.166666666666668</v>
       </c>
-      <c r="AO17" s="13">
+      <c r="AO17" s="16">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AP17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ17" s="32"/>
+      <c r="AP17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ17" s="15"/>
       <c r="AX17" s="15" t="s">
         <v>14</v>
       </c>
@@ -6288,67 +6345,68 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="48">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="49">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="2">
         <v>13</v>
       </c>
-      <c r="Z18" s="12" t="s">
+      <c r="Z18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="16">
         <f t="shared" si="4"/>
         <v>7.8</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="16">
         <f t="shared" si="5"/>
         <v>7.3333333333333321</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18" s="16">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="AD18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE18" s="2">
+      <c r="AD18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="32">
         <v>13</v>
       </c>
-      <c r="AL18" s="12" t="s">
+      <c r="AF18" s="42"/>
+      <c r="AL18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AM18" s="13">
+      <c r="AM18" s="16">
         <f t="shared" si="9"/>
         <v>9.3529411764705888</v>
       </c>
-      <c r="AN18" s="13">
+      <c r="AN18" s="16">
         <f t="shared" si="7"/>
         <v>4.1666666666666679</v>
       </c>
-      <c r="AO18" s="13">
+      <c r="AO18" s="16">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="AP18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ18" s="32"/>
+      <c r="AP18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ18" s="15"/>
       <c r="AX18" s="15" t="s">
         <v>15</v>
       </c>
@@ -6373,67 +6431,68 @@
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="48">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="49">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="2">
         <v>1</v>
       </c>
-      <c r="Z19" s="12" t="s">
+      <c r="Z19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="16">
         <f t="shared" si="4"/>
         <v>4.2</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="16">
         <f t="shared" si="5"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19" s="16">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AD19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="12" t="s">
+      <c r="AD19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="42"/>
+      <c r="AL19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AM19" s="13">
+      <c r="AM19" s="16">
         <f t="shared" si="9"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="AN19" s="13">
+      <c r="AN19" s="16">
         <f t="shared" si="7"/>
         <v>16.166666666666668</v>
       </c>
-      <c r="AO19" s="13">
+      <c r="AO19" s="16">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AP19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ19" s="32"/>
+      <c r="AP19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ19" s="15"/>
       <c r="AX19" s="15" t="s">
         <v>16</v>
       </c>
@@ -6458,67 +6517,68 @@
         <v>21</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="48">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="49">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="47" t="s">
         <v>34</v>
       </c>
       <c r="S20" s="2">
         <v>21</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="16">
         <f t="shared" si="4"/>
         <v>15.8</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="16">
         <f t="shared" si="5"/>
         <v>0.66666666666666785</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20" s="16">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="AD20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE20" s="2">
+      <c r="AD20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="32">
         <v>21</v>
       </c>
-      <c r="AL20" s="23" t="s">
+      <c r="AF20" s="42"/>
+      <c r="AL20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AM20" s="13">
+      <c r="AM20" s="16">
         <f t="shared" si="9"/>
         <v>17.352941176470587</v>
       </c>
-      <c r="AN20" s="13">
+      <c r="AN20" s="16">
         <f t="shared" si="7"/>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AO20" s="13">
+      <c r="AO20" s="16">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="AP20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ20" s="32"/>
+      <c r="AP20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ20" s="15"/>
       <c r="AX20" s="15" t="s">
         <v>17</v>
       </c>
@@ -6543,67 +6603,68 @@
         <v>14</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="48">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="49">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="2">
         <v>14</v>
       </c>
-      <c r="Z21" s="19" t="s">
+      <c r="Z21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="16">
         <f t="shared" si="4"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="16">
         <f t="shared" si="5"/>
         <v>6.3333333333333321</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21" s="16">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="AD21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE21" s="2">
+      <c r="AD21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21" s="32">
         <v>14</v>
       </c>
-      <c r="AL21" s="12" t="s">
+      <c r="AF21" s="42"/>
+      <c r="AL21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AM21" s="13">
+      <c r="AM21" s="16">
         <f t="shared" si="9"/>
         <v>10.352941176470589</v>
       </c>
-      <c r="AN21" s="13">
+      <c r="AN21" s="16">
         <f t="shared" si="7"/>
         <v>3.1666666666666679</v>
       </c>
-      <c r="AO21" s="13">
+      <c r="AO21" s="16">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="AP21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ21" s="32"/>
+      <c r="AP21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ21" s="15"/>
       <c r="AX21" s="15" t="s">
         <v>18</v>
       </c>
@@ -6628,67 +6689,68 @@
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="49">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="2">
         <v>4</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Z22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="16">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="16">
         <f t="shared" si="5"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="16">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="AD22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE22" s="2">
+      <c r="AD22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="32">
         <v>4</v>
       </c>
-      <c r="AL22" s="12" t="s">
+      <c r="AF22" s="42"/>
+      <c r="AL22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AM22" s="13">
+      <c r="AM22" s="16">
         <f t="shared" si="9"/>
         <v>0.35294117647058831</v>
       </c>
-      <c r="AN22" s="13">
+      <c r="AN22" s="16">
         <f t="shared" si="7"/>
         <v>13.166666666666668</v>
       </c>
-      <c r="AO22" s="13">
+      <c r="AO22" s="16">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AP22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ22" s="32"/>
+      <c r="AP22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ22" s="15"/>
       <c r="AX22" s="15" t="s">
         <v>19</v>
       </c>
@@ -6713,67 +6775,68 @@
         <v>10</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="49">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S23" s="2">
         <v>10</v>
       </c>
-      <c r="Z23" s="12" t="s">
+      <c r="Z23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="16">
         <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="16">
         <f t="shared" si="5"/>
         <v>10.333333333333332</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="16">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="AD23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="AD23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="32">
         <v>10</v>
       </c>
-      <c r="AL23" s="12" t="s">
+      <c r="AF23" s="42"/>
+      <c r="AL23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AM23" s="13">
+      <c r="AM23" s="16">
         <f t="shared" si="9"/>
         <v>6.3529411764705888</v>
       </c>
-      <c r="AN23" s="13">
+      <c r="AN23" s="16">
         <f t="shared" si="7"/>
         <v>7.1666666666666679</v>
       </c>
-      <c r="AO23" s="13">
+      <c r="AO23" s="16">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ23" s="32"/>
+      <c r="AP23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ23" s="15"/>
       <c r="AX23" s="15" t="s">
         <v>20</v>
       </c>
@@ -6798,67 +6861,68 @@
         <v>0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="48">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="49">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="16">
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="16">
         <f t="shared" si="5"/>
         <v>20.333333333333332</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24" s="16">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="AD24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="12" t="s">
+      <c r="AD24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="42"/>
+      <c r="AL24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM24" s="13">
+      <c r="AM24" s="16">
         <f t="shared" si="9"/>
         <v>3.6470588235294117</v>
       </c>
-      <c r="AN24" s="13">
+      <c r="AN24" s="16">
         <f t="shared" si="7"/>
         <v>17.166666666666668</v>
       </c>
-      <c r="AO24" s="13">
+      <c r="AO24" s="16">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="AP24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ24" s="32"/>
+      <c r="AP24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ24" s="15"/>
       <c r="AX24" s="15" t="s">
         <v>21</v>
       </c>
@@ -6883,67 +6947,68 @@
         <v>1</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="48">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="49">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="16">
         <f t="shared" si="4"/>
         <v>4.2</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="16">
         <f t="shared" si="5"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="16">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AD25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="12" t="s">
+      <c r="AD25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="42"/>
+      <c r="AL25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AM25" s="13">
+      <c r="AM25" s="16">
         <f t="shared" si="9"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="AN25" s="13">
+      <c r="AN25" s="16">
         <f t="shared" si="7"/>
         <v>16.166666666666668</v>
       </c>
-      <c r="AO25" s="13">
+      <c r="AO25" s="16">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AP25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ25" s="32"/>
+      <c r="AP25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ25" s="15"/>
       <c r="AX25" s="15" t="s">
         <v>22</v>
       </c>
@@ -6968,67 +7033,68 @@
         <v>11</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="49">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S26" s="8">
         <v>10</v>
       </c>
-      <c r="Z26" s="19" t="s">
+      <c r="Z26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="16">
         <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="16">
         <f t="shared" si="5"/>
         <v>10.333333333333332</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="16">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="AD26" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE26" s="8">
+      <c r="AD26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE26" s="32">
         <v>10</v>
       </c>
-      <c r="AL26" s="19" t="s">
+      <c r="AF26" s="42"/>
+      <c r="AL26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AM26" s="13">
+      <c r="AM26" s="16">
         <f t="shared" si="9"/>
         <v>6.3529411764705888</v>
       </c>
-      <c r="AN26" s="13">
+      <c r="AN26" s="16">
         <f t="shared" si="7"/>
         <v>7.1666666666666679</v>
       </c>
-      <c r="AO26" s="13">
+      <c r="AO26" s="16">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="AP26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ26" s="32"/>
+      <c r="AP26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ26" s="15"/>
       <c r="AX26" s="15" t="s">
         <v>23</v>
       </c>
@@ -7053,67 +7119,68 @@
         <v>1</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="48">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="49">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S27" s="2">
         <v>1</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="16">
         <f t="shared" si="4"/>
         <v>4.2</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="16">
         <f t="shared" si="5"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="16">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AD27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="12" t="s">
+      <c r="AD27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="42"/>
+      <c r="AL27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AM27" s="13">
+      <c r="AM27" s="16">
         <f t="shared" si="9"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="AN27" s="13">
+      <c r="AN27" s="16">
         <f t="shared" si="7"/>
         <v>16.166666666666668</v>
       </c>
-      <c r="AO27" s="13">
+      <c r="AO27" s="16">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AP27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ27" s="32"/>
+      <c r="AP27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ27" s="15"/>
       <c r="AX27" s="15" t="s">
         <v>24</v>
       </c>
@@ -7138,67 +7205,68 @@
         <v>2</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="48">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="49">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S28" s="2">
         <v>2</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="16">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="16">
         <f t="shared" si="5"/>
         <v>18.333333333333332</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AD28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE28" s="2">
+      <c r="AD28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" s="32">
         <v>2</v>
       </c>
-      <c r="AL28" s="12" t="s">
+      <c r="AF28" s="42"/>
+      <c r="AL28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AM28" s="13">
+      <c r="AM28" s="16">
         <f t="shared" si="9"/>
         <v>1.6470588235294117</v>
       </c>
-      <c r="AN28" s="13">
+      <c r="AN28" s="16">
         <f t="shared" si="7"/>
         <v>15.166666666666668</v>
       </c>
-      <c r="AO28" s="13">
+      <c r="AO28" s="16">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AP28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ28" s="32"/>
+      <c r="AP28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ28" s="15"/>
       <c r="AX28" s="15" t="s">
         <v>25</v>
       </c>
@@ -7223,67 +7291,68 @@
         <v>18</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="48">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="49">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S29" s="8">
         <v>15</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="Z29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="16">
         <f t="shared" si="4"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="16">
         <f t="shared" si="5"/>
         <v>5.3333333333333321</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="16">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="AD29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE29" s="8">
+      <c r="AD29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="32">
         <v>15</v>
       </c>
-      <c r="AL29" s="19" t="s">
+      <c r="AF29" s="42"/>
+      <c r="AL29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AM29" s="13">
+      <c r="AM29" s="16">
         <f t="shared" si="9"/>
         <v>11.352941176470589</v>
       </c>
-      <c r="AN29" s="13">
+      <c r="AN29" s="16">
         <f t="shared" si="7"/>
         <v>2.1666666666666679</v>
       </c>
-      <c r="AO29" s="13">
+      <c r="AO29" s="16">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="AP29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ29" s="32"/>
+      <c r="AP29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ29" s="15"/>
       <c r="AX29" s="15" t="s">
         <v>26</v>
       </c>
@@ -7308,67 +7377,68 @@
         <v>6</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="49">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="50" t="s">
         <v>33</v>
       </c>
       <c r="S30" s="8">
         <v>4</v>
       </c>
-      <c r="Z30" s="12" t="s">
+      <c r="Z30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="16">
         <f t="shared" si="4"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AB30" s="16">
         <f t="shared" si="5"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="16">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="AD30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE30" s="8">
+      <c r="AD30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE30" s="32">
         <v>4</v>
       </c>
-      <c r="AL30" s="12" t="s">
+      <c r="AF30" s="42"/>
+      <c r="AL30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AM30" s="13">
+      <c r="AM30" s="16">
         <f t="shared" si="9"/>
         <v>0.35294117647058831</v>
       </c>
-      <c r="AN30" s="13">
+      <c r="AN30" s="16">
         <f t="shared" si="7"/>
         <v>13.166666666666668</v>
       </c>
-      <c r="AO30" s="13">
+      <c r="AO30" s="16">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AP30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ30" s="32"/>
+      <c r="AP30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ30" s="15"/>
       <c r="AX30" s="15" t="s">
         <v>27</v>
       </c>
@@ -7398,10 +7468,16 @@
         <f t="shared" ref="S31" si="11">SUM(S7:S30)</f>
         <v>202</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="33">
         <f t="shared" ref="AE31" si="12">SUM(AE7:AE30)</f>
         <v>202</v>
       </c>
+      <c r="AF31" s="42"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -7663,17 +7739,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7683,8 +7756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
   <dimension ref="B2:BC52"/>
   <sheetViews>
-    <sheetView topLeftCell="T4" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6:AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7837,19 +7910,19 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="11"/>
-      <c r="N6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="30" t="s">
+      <c r="N6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="40" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="30"/>
@@ -7862,22 +7935,22 @@
         <v>0</v>
       </c>
       <c r="X6" s="11"/>
-      <c r="Z6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="30" t="s">
+      <c r="Z6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="36" t="s">
+      <c r="AD6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="36"/>
+      <c r="AE6" s="41"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
@@ -7922,22 +7995,22 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="16">
         <f>SQRT((C7 - $J$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="16">
         <f>SQRT((C7 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="17">
         <f>SQRT((C7 - $J$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="2">
@@ -7952,25 +8025,25 @@
         <v>1.25</v>
       </c>
       <c r="X7" s="12"/>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="16">
         <f>SQRT((S7 - $W$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="16">
         <f>SQRT((S7 - $W$7)^2)</f>
         <v>1.25</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="16">
         <f>SQRT((S7 - $W$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="AD7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="32"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
@@ -8016,22 +8089,22 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="10"/>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="16">
         <f t="shared" ref="O8:O29" si="1">SQRT((C8 - $J$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="16">
         <f t="shared" ref="P8:P29" si="2">SQRT((C8 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="17">
         <f t="shared" ref="Q8:Q29" si="3">SQRT((C8 - $J$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="2">
@@ -8046,25 +8119,25 @@
         <v>3</v>
       </c>
       <c r="X8" s="10"/>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="16">
         <f t="shared" ref="AA8:AA30" si="4">SQRT((S8 - $W$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="16">
         <f t="shared" ref="AB8:AB30" si="5">SQRT((S8 - $W$7)^2)</f>
         <v>1.25</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="16">
         <f t="shared" ref="AC8:AC30" si="6">SQRT((S8 - $W$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="AD8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE8" s="2"/>
+      <c r="AD8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="32"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
@@ -8101,46 +8174,46 @@
         <v>2</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE9" s="2"/>
+      <c r="AD9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="32"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
@@ -8169,46 +8242,46 @@
         <v>22</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="32"/>
       <c r="AL10" s="23"/>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
@@ -8237,46 +8310,46 @@
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S11" s="2">
         <v>1</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="16">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="16">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE11" s="2"/>
+      <c r="AD11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="32"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
@@ -8305,46 +8378,46 @@
         <v>19</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="16">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="16">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE12" s="2"/>
+      <c r="AD12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="32"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
@@ -8373,46 +8446,46 @@
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE13" s="2"/>
+      <c r="AD13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="32"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="13"/>
       <c r="AN13" s="13"/>
@@ -8441,46 +8514,46 @@
         <v>37</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AB14" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE14" s="2"/>
+      <c r="AD14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="32"/>
       <c r="AL14" s="23"/>
       <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
@@ -8509,46 +8582,46 @@
         <v>9</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="Z15" s="12" t="s">
+      <c r="Z15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE15" s="2"/>
+      <c r="AD15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="32"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="13"/>
       <c r="AN15" s="13"/>
@@ -8577,46 +8650,46 @@
         <v>3</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
       </c>
-      <c r="Z16" s="12" t="s">
+      <c r="Z16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE16" s="2"/>
+      <c r="AD16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="32"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
@@ -8645,46 +8718,46 @@
         <v>2</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="16">
         <f>SQRT((C17 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="Z17" s="12" t="s">
+      <c r="Z17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="2"/>
+      <c r="AD17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="32"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="13"/>
       <c r="AN17" s="13"/>
@@ -8713,46 +8786,46 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
       </c>
-      <c r="Z18" s="12" t="s">
+      <c r="Z18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE18" s="2"/>
+      <c r="AD18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="32"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="13"/>
       <c r="AN18" s="13"/>
@@ -8781,46 +8854,46 @@
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="Z19" s="12" t="s">
+      <c r="Z19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE19" s="2"/>
+      <c r="AD19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="32"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="13"/>
       <c r="AN19" s="13"/>
@@ -8849,46 +8922,46 @@
         <v>21</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE20" s="2"/>
+      <c r="AD20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE20" s="32"/>
       <c r="AL20" s="23"/>
       <c r="AM20" s="13"/>
       <c r="AN20" s="13"/>
@@ -8917,46 +8990,46 @@
         <v>14</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
       </c>
-      <c r="Z21" s="19" t="s">
+      <c r="Z21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE21" s="2"/>
+      <c r="AD21" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="32"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="13"/>
       <c r="AN21" s="13"/>
@@ -8985,46 +9058,46 @@
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Z22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE22" s="2"/>
+      <c r="AD22" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="32"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="13"/>
       <c r="AN22" s="13"/>
@@ -9053,46 +9126,46 @@
         <v>10</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="12" t="s">
+      <c r="Z23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="2"/>
+      <c r="AD23" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="32"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="13"/>
       <c r="AN23" s="13"/>
@@ -9121,46 +9194,46 @@
         <v>0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" s="2"/>
+      <c r="AD24" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="32"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="13"/>
       <c r="AN24" s="13"/>
@@ -9189,46 +9262,46 @@
         <v>1</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="2"/>
+      <c r="AD25" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="32"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="13"/>
       <c r="AN25" s="13"/>
@@ -9257,43 +9330,43 @@
         <v>11</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="Z26" s="19" t="s">
+      <c r="Z26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="16">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="16">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD26" s="12" t="s">
+      <c r="AD26" s="15" t="s">
         <v>34</v>
       </c>
       <c r="AE26" s="32"/>
@@ -9325,43 +9398,43 @@
         <v>1</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AA27" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AB27" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD27" s="11" t="s">
+      <c r="AD27" s="42" t="s">
         <v>33</v>
       </c>
       <c r="AE27" s="32"/>
@@ -9393,43 +9466,43 @@
         <v>2</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="42" t="s">
         <v>33</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AA28" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AB28" s="16">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD28" s="11" t="s">
+      <c r="AD28" s="42" t="s">
         <v>33</v>
       </c>
       <c r="AE28" s="32"/>
@@ -9461,43 +9534,43 @@
         <v>18</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R29" s="10" t="s">
+      <c r="R29" s="42" t="s">
         <v>35</v>
       </c>
       <c r="S29" s="2">
         <v>3</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="Z29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="16">
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="10" t="s">
+      <c r="AD29" s="42" t="s">
         <v>35</v>
       </c>
       <c r="AE29" s="32"/>
@@ -9529,43 +9602,43 @@
         <v>6</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="16">
         <f>SQRT((C30 - $J$6)^2)</f>
         <v>2</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="16">
         <f>SQRT((C30 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="17">
         <f>SQRT((C30 - $J$8)^2)</f>
         <v>1</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S30" s="2">
         <v>2</v>
       </c>
-      <c r="Z30" s="12" t="s">
+      <c r="Z30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AB30" s="13">
+      <c r="AB30" s="16">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="16">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD30" s="12" t="s">
+      <c r="AD30" s="15" t="s">
         <v>34</v>
       </c>
       <c r="AE30" s="32"/>
@@ -9594,6 +9667,11 @@
         <f t="shared" ref="D31" si="7">SUM(D7:D30)</f>
         <v>202</v>
       </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
       <c r="S31" s="4">
         <f t="shared" ref="S31" si="8">SUM(S7:S30)</f>
         <v>8</v>
@@ -9759,16 +9837,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="BB6:BC6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H4:K4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AD6:AE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5DE141-DE36-44B8-80EF-FC36A4FCC23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B22C77B-1452-4780-B15A-2F3AB067A0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="57">
   <si>
     <t>DATA CURAS DAN CURANMOR KAB PROBOLINGGO 2021 - 2022</t>
   </si>
@@ -199,15 +199,6 @@
     <t>ITERASI 4</t>
   </si>
   <si>
-    <t>SSE C1</t>
-  </si>
-  <si>
-    <t>SSE C2</t>
-  </si>
-  <si>
-    <t>SSE C3</t>
-  </si>
-  <si>
     <t>CURAS</t>
   </si>
 </sst>
@@ -315,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,16 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,7 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -428,7 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,6 +418,82 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,53 +827,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="47">
         <v>2021</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47">
         <v>2022</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="47">
         <v>2021</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34">
+      <c r="L5" s="47"/>
+      <c r="M5" s="47">
         <v>2022</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,8 +886,8 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="G6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1860,23 +1917,23 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="47">
         <f>C31+D31</f>
         <v>219</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47">
         <f>E31+F31</f>
         <v>178</v>
       </c>
-      <c r="F32" s="34"/>
+      <c r="F32" s="47"/>
       <c r="J32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -1938,6 +1995,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -1946,11 +2008,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1978,19 +2035,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="L3" t="s">
         <v>31</v>
       </c>
@@ -1999,12 +2056,12 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
       <c r="R4" s="27" t="s">
         <v>46</v>
       </c>
@@ -2048,14 +2105,14 @@
       <c r="BG4" s="27"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="47">
         <v>2024</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
@@ -2138,14 +2195,14 @@
       <c r="BG5" s="27"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="47"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2182,10 +2239,10 @@
       <c r="U6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="36"/>
+      <c r="W6" s="49"/>
       <c r="Y6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2210,10 +2267,10 @@
       <c r="AG6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="36" t="s">
+      <c r="AH6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="36"/>
+      <c r="AI6" s="49"/>
       <c r="AK6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2238,10 +2295,10 @@
       <c r="AS6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AT6" s="36" t="s">
+      <c r="AT6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="36"/>
+      <c r="AU6" s="49"/>
       <c r="AW6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2259,10 +2316,10 @@
       <c r="BE6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BF6" s="36" t="s">
+      <c r="BF6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="36"/>
+      <c r="BG6" s="49"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4798,14 +4855,14 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="47">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="47"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -4830,12 +4887,12 @@
     <row r="34" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="47"/>
       <c r="R35" t="s">
         <v>33</v>
       </c>
@@ -5002,11 +5059,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -5015,6 +5067,11 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5024,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
-  <dimension ref="B2:BC53"/>
+  <dimension ref="A2:BN61"/>
   <sheetViews>
-    <sheetView topLeftCell="AB12" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6:AP30"/>
+    <sheetView tabSelected="1" topLeftCell="W21" workbookViewId="0">
+      <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,29 +5097,80 @@
     <col min="26" max="26" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="C2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="L2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+    </row>
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="H4" s="35" t="s">
+      <c r="L3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+    </row>
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="H4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="38"/>
       <c r="N4" s="27" t="s">
         <v>46</v>
       </c>
@@ -5074,6 +5182,7 @@
       <c r="U4" s="27" t="s">
         <v>47</v>
       </c>
+      <c r="X4" s="38"/>
       <c r="Z4" s="27" t="s">
         <v>48</v>
       </c>
@@ -5093,27 +5202,39 @@
       <c r="AO4" s="27"/>
       <c r="AP4" s="27"/>
       <c r="AQ4" s="27"/>
-      <c r="AS4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-    </row>
-    <row r="5" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+    </row>
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="47">
         <v>2024</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="s">
@@ -5128,9 +5249,7 @@
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
+      <c r="L5" s="38"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -5146,9 +5265,7 @@
       <c r="W5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
+      <c r="X5" s="38"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -5164,43 +5281,46 @@
       <c r="AI5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>41</v>
-      </c>
+      <c r="AJ5" s="38"/>
       <c r="AL5" s="27"/>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
       <c r="AO5" s="27"/>
       <c r="AP5" s="27"/>
       <c r="AQ5" s="27"/>
-      <c r="AS5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-    </row>
-    <row r="6" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+    </row>
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B6" s="47"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="47"/>
       <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5211,23 +5331,23 @@
       <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="N6" s="43" t="s">
+      <c r="L6" s="38"/>
+      <c r="N6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="44" t="s">
+      <c r="O6" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="27"/>
       <c r="U6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5236,24 +5356,24 @@
         <f>(S7+S8+S9+S11+S13+S15+S16+S17+S18+S19+S21+S22+S23+S24+S25+S26+S27+S28+S29+S30)/20</f>
         <v>5.2</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Z6" s="38" t="s">
+      <c r="X6" s="38"/>
+      <c r="Z6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AA6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="40" t="s">
+      <c r="AC6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="41" t="s">
+      <c r="AD6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="42"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="38"/>
       <c r="AG6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5262,46 +5382,48 @@
         <f>(AE7+AE8+AE9+AE11+AE13+AE15+AE16+AE17+AE19+AE22+AE23+AE24+AE25+AE26+AE27+AE28+AE30)/17</f>
         <v>3.6470588235294117</v>
       </c>
-      <c r="AJ6" s="11"/>
-      <c r="AL6" s="38" t="s">
+      <c r="AJ6" s="38"/>
+      <c r="AL6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AM6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN6" s="39" t="s">
+      <c r="AM6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AO6" s="40" t="s">
+      <c r="AO6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="41" t="s">
+      <c r="AP6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AQ6" s="38"/>
-      <c r="AS6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="11"/>
-      <c r="AX6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB6" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC6" s="36"/>
-    </row>
-    <row r="7" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+    </row>
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5326,23 +5448,23 @@
       <c r="K7" s="7">
         <v>20</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="15"/>
+      <c r="N7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="44">
         <f>SQRT((D7 - $K$6)^2)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="44">
         <f>SQRT((D7 - $K$7)^2)</f>
         <v>15</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="45">
         <f>SQRT((D7 - $K$8)^2)</f>
         <v>25</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="2">
@@ -5360,7 +5482,7 @@
         <f>(S10+S20+S12)/3</f>
         <v>20.333333333333332</v>
       </c>
-      <c r="X7" s="12"/>
+      <c r="X7" s="15"/>
       <c r="Z7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5504,7 @@
       <c r="AE7" s="32">
         <v>5</v>
       </c>
-      <c r="AF7" s="42"/>
+      <c r="AF7" s="38"/>
       <c r="AG7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5391,7 +5513,7 @@
         <f>(AE10+AE12+AE20+AE21+AE29+AE18)/6</f>
         <v>17.166666666666668</v>
       </c>
-      <c r="AJ7" s="12"/>
+      <c r="AJ7" s="15"/>
       <c r="AL7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5411,22 +5533,31 @@
         <v>33</v>
       </c>
       <c r="AQ7" s="15"/>
-      <c r="AS7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="12"/>
-      <c r="AX7" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="15"/>
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
       <c r="BB7" s="17"/>
       <c r="BC7" s="32"/>
-    </row>
-    <row r="8" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+    </row>
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5451,23 +5582,23 @@
       <c r="K8" s="7">
         <v>30</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="N8" s="47" t="s">
+      <c r="L8" s="38"/>
+      <c r="N8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="44">
         <f t="shared" ref="O8:O30" si="1">SQRT((D8 - $K$6)^2)</f>
         <v>6</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="44">
         <f t="shared" ref="P8:P30" si="2">SQRT((D8 - $K$7)^2)</f>
         <v>16</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="45">
         <f t="shared" ref="Q8:Q30" si="3">SQRT((D8 - $K$8)^2)</f>
         <v>26</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="2">
@@ -5481,7 +5612,7 @@
         <f>S14</f>
         <v>37</v>
       </c>
-      <c r="X8" s="10"/>
+      <c r="X8" s="38"/>
       <c r="Z8" s="15" t="s">
         <v>5</v>
       </c>
@@ -5503,7 +5634,7 @@
       <c r="AE8" s="32">
         <v>4</v>
       </c>
-      <c r="AF8" s="42"/>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="2" t="s">
         <v>35</v>
       </c>
@@ -5512,7 +5643,7 @@
         <f>AE14</f>
         <v>37</v>
       </c>
-      <c r="AJ8" s="10"/>
+      <c r="AJ8" s="38"/>
       <c r="AL8" s="15" t="s">
         <v>5</v>
       </c>
@@ -5532,22 +5663,31 @@
         <v>33</v>
       </c>
       <c r="AQ8" s="15"/>
-      <c r="AS8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="10"/>
-      <c r="AX8" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="15"/>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
       <c r="BB8" s="17"/>
       <c r="BC8" s="32"/>
-    </row>
-    <row r="9" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+    </row>
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -5562,22 +5702,22 @@
         <v>2</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="Q9" s="45">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="2">
@@ -5604,7 +5744,7 @@
       <c r="AE9" s="32">
         <v>2</v>
       </c>
-      <c r="AF9" s="42"/>
+      <c r="AF9" s="38"/>
       <c r="AL9" s="15" t="s">
         <v>6</v>
       </c>
@@ -5624,16 +5764,31 @@
         <v>33</v>
       </c>
       <c r="AQ9" s="15"/>
-      <c r="AX9" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="15"/>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
       <c r="BB9" s="17"/>
       <c r="BC9" s="32"/>
-    </row>
-    <row r="10" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38"/>
+    </row>
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5648,22 +5803,22 @@
         <v>22</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="44">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="45">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="43" t="s">
         <v>34</v>
       </c>
       <c r="S10" s="2">
@@ -5690,7 +5845,7 @@
       <c r="AE10" s="32">
         <v>22</v>
       </c>
-      <c r="AF10" s="42"/>
+      <c r="AF10" s="38"/>
       <c r="AL10" s="15" t="s">
         <v>7</v>
       </c>
@@ -5710,16 +5865,31 @@
         <v>34</v>
       </c>
       <c r="AQ10" s="15"/>
-      <c r="AX10" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="15"/>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
       <c r="BA10" s="16"/>
       <c r="BB10" s="17"/>
       <c r="BC10" s="32"/>
-    </row>
-    <row r="11" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="38"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="38"/>
+      <c r="BM10" s="38"/>
+      <c r="BN10" s="38"/>
+    </row>
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5734,22 +5904,22 @@
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="44">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="45">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R11" s="50" t="s">
+      <c r="R11" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="2">
@@ -5776,7 +5946,7 @@
       <c r="AE11" s="32">
         <v>4</v>
       </c>
-      <c r="AF11" s="42"/>
+      <c r="AF11" s="38"/>
       <c r="AL11" s="15" t="s">
         <v>8</v>
       </c>
@@ -5796,16 +5966,31 @@
         <v>33</v>
       </c>
       <c r="AQ11" s="15"/>
-      <c r="AX11" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="15"/>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
       <c r="BA11" s="16"/>
       <c r="BB11" s="17"/>
       <c r="BC11" s="32"/>
-    </row>
-    <row r="12" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+    </row>
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -5820,22 +6005,22 @@
         <v>19</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="48">
+      <c r="O12" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="44">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="43" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="2">
@@ -5862,10 +6047,7 @@
       <c r="AE12" s="32">
         <v>18</v>
       </c>
-      <c r="AF12" s="42"/>
-      <c r="AG12" t="s">
-        <v>56</v>
-      </c>
+      <c r="AF12" s="38"/>
       <c r="AL12" s="15" t="s">
         <v>9</v>
       </c>
@@ -5885,16 +6067,31 @@
         <v>34</v>
       </c>
       <c r="AQ12" s="15"/>
-      <c r="AX12" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="15"/>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
       <c r="BA12" s="16"/>
       <c r="BB12" s="17"/>
       <c r="BC12" s="32"/>
-    </row>
-    <row r="13" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+    </row>
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -5909,22 +6106,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="44">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="45">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R13" s="50" t="s">
+      <c r="R13" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="2">
@@ -5951,10 +6148,7 @@
       <c r="AE13" s="32">
         <v>0</v>
       </c>
-      <c r="AF13" s="42"/>
-      <c r="AG13" t="s">
-        <v>57</v>
-      </c>
+      <c r="AF13" s="38"/>
       <c r="AL13" s="15" t="s">
         <v>10</v>
       </c>
@@ -5974,16 +6168,31 @@
         <v>33</v>
       </c>
       <c r="AQ13" s="15"/>
-      <c r="AX13" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="15"/>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
       <c r="BA13" s="16"/>
       <c r="BB13" s="17"/>
       <c r="BC13" s="32"/>
-    </row>
-    <row r="14" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
+      <c r="BL13" s="38"/>
+      <c r="BM13" s="38"/>
+      <c r="BN13" s="38"/>
+    </row>
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5998,22 +6207,22 @@
         <v>37</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="44">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="44">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="45">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R14" s="50" t="s">
+      <c r="R14" s="46" t="s">
         <v>35</v>
       </c>
       <c r="S14" s="2">
@@ -6040,10 +6249,7 @@
       <c r="AE14" s="32">
         <v>37</v>
       </c>
-      <c r="AF14" s="42"/>
-      <c r="AG14" t="s">
-        <v>58</v>
-      </c>
+      <c r="AF14" s="38"/>
       <c r="AL14" s="15" t="s">
         <v>11</v>
       </c>
@@ -6063,16 +6269,31 @@
         <v>35</v>
       </c>
       <c r="AQ14" s="15"/>
-      <c r="AX14" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="15"/>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
       <c r="BA14" s="16"/>
       <c r="BB14" s="17"/>
       <c r="BC14" s="32"/>
-    </row>
-    <row r="15" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+    </row>
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -6087,22 +6308,22 @@
         <v>9</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="N15" s="47" t="s">
+      <c r="N15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="44">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="45">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="2">
@@ -6129,7 +6350,7 @@
       <c r="AE15" s="32">
         <v>9</v>
       </c>
-      <c r="AF15" s="42"/>
+      <c r="AF15" s="38"/>
       <c r="AL15" s="15" t="s">
         <v>12</v>
       </c>
@@ -6149,16 +6370,31 @@
         <v>33</v>
       </c>
       <c r="AQ15" s="15"/>
-      <c r="AX15" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="15"/>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="16"/>
       <c r="BA15" s="16"/>
       <c r="BB15" s="17"/>
       <c r="BC15" s="32"/>
-    </row>
-    <row r="16" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+    </row>
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -6173,22 +6409,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="44">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="Q16" s="49">
+      <c r="Q16" s="45">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S16" s="2">
@@ -6215,7 +6451,7 @@
       <c r="AE16" s="32">
         <v>3</v>
       </c>
-      <c r="AF16" s="42"/>
+      <c r="AF16" s="38"/>
       <c r="AL16" s="15" t="s">
         <v>13</v>
       </c>
@@ -6235,16 +6471,31 @@
         <v>33</v>
       </c>
       <c r="AQ16" s="15"/>
-      <c r="AX16" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="15"/>
       <c r="AY16" s="16"/>
       <c r="AZ16" s="16"/>
       <c r="BA16" s="16"/>
       <c r="BB16" s="17"/>
       <c r="BC16" s="32"/>
-    </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+    </row>
+    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -6259,22 +6510,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P17" s="48">
+      <c r="P17" s="44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="45">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R17" s="50" t="s">
+      <c r="R17" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="2">
@@ -6301,7 +6552,7 @@
       <c r="AE17" s="32">
         <v>2</v>
       </c>
-      <c r="AF17" s="42"/>
+      <c r="AF17" s="38"/>
       <c r="AL17" s="15" t="s">
         <v>14</v>
       </c>
@@ -6321,16 +6572,31 @@
         <v>33</v>
       </c>
       <c r="AQ17" s="15"/>
-      <c r="AX17" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="15"/>
       <c r="AY17" s="16"/>
       <c r="AZ17" s="16"/>
       <c r="BA17" s="16"/>
       <c r="BB17" s="17"/>
       <c r="BC17" s="32"/>
-    </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="38"/>
+      <c r="BM17" s="38"/>
+      <c r="BN17" s="38"/>
+    </row>
+    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -6345,22 +6611,22 @@
         <v>13</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="48">
+      <c r="O18" s="44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="44">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q18" s="49">
+      <c r="Q18" s="45">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R18" s="50" t="s">
+      <c r="R18" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="2">
@@ -6387,7 +6653,7 @@
       <c r="AE18" s="32">
         <v>13</v>
       </c>
-      <c r="AF18" s="42"/>
+      <c r="AF18" s="38"/>
       <c r="AL18" s="15" t="s">
         <v>15</v>
       </c>
@@ -6407,16 +6673,31 @@
         <v>34</v>
       </c>
       <c r="AQ18" s="15"/>
-      <c r="AX18" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="15"/>
       <c r="AY18" s="16"/>
       <c r="AZ18" s="16"/>
       <c r="BA18" s="16"/>
       <c r="BB18" s="17"/>
       <c r="BC18" s="32"/>
-    </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
+      <c r="BM18" s="38"/>
+      <c r="BN18" s="38"/>
+    </row>
+    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -6431,22 +6712,22 @@
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="44">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="45">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="2">
@@ -6473,7 +6754,7 @@
       <c r="AE19" s="32">
         <v>1</v>
       </c>
-      <c r="AF19" s="42"/>
+      <c r="AF19" s="38"/>
       <c r="AL19" s="15" t="s">
         <v>16</v>
       </c>
@@ -6493,16 +6774,31 @@
         <v>33</v>
       </c>
       <c r="AQ19" s="15"/>
-      <c r="AX19" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="15"/>
       <c r="AY19" s="16"/>
       <c r="AZ19" s="16"/>
       <c r="BA19" s="16"/>
       <c r="BB19" s="17"/>
       <c r="BC19" s="32"/>
-    </row>
-    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
+      <c r="BM19" s="38"/>
+      <c r="BN19" s="38"/>
+    </row>
+    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -6517,22 +6813,22 @@
         <v>21</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="43" t="s">
         <v>34</v>
       </c>
       <c r="S20" s="2">
@@ -6559,7 +6855,7 @@
       <c r="AE20" s="32">
         <v>21</v>
       </c>
-      <c r="AF20" s="42"/>
+      <c r="AF20" s="38"/>
       <c r="AL20" s="15" t="s">
         <v>17</v>
       </c>
@@ -6579,16 +6875,31 @@
         <v>34</v>
       </c>
       <c r="AQ20" s="15"/>
-      <c r="AX20" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="15"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="16"/>
       <c r="BA20" s="16"/>
       <c r="BB20" s="17"/>
       <c r="BC20" s="32"/>
-    </row>
-    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
+      <c r="BM20" s="38"/>
+      <c r="BN20" s="38"/>
+    </row>
+    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -6603,22 +6914,22 @@
         <v>14</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="48">
+      <c r="O21" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="44">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Q21" s="49">
+      <c r="Q21" s="45">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="R21" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="2">
@@ -6645,7 +6956,7 @@
       <c r="AE21" s="32">
         <v>14</v>
       </c>
-      <c r="AF21" s="42"/>
+      <c r="AF21" s="38"/>
       <c r="AL21" s="15" t="s">
         <v>18</v>
       </c>
@@ -6665,16 +6976,31 @@
         <v>34</v>
       </c>
       <c r="AQ21" s="15"/>
-      <c r="AX21" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="15"/>
       <c r="AY21" s="16"/>
       <c r="AZ21" s="16"/>
       <c r="BA21" s="16"/>
       <c r="BB21" s="17"/>
       <c r="BC21" s="32"/>
-    </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+    </row>
+    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -6689,22 +7015,22 @@
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="48">
+      <c r="O22" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="48">
+      <c r="P22" s="44">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="45">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R22" s="50" t="s">
+      <c r="R22" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="2">
@@ -6731,7 +7057,7 @@
       <c r="AE22" s="32">
         <v>4</v>
       </c>
-      <c r="AF22" s="42"/>
+      <c r="AF22" s="38"/>
       <c r="AL22" s="15" t="s">
         <v>19</v>
       </c>
@@ -6751,16 +7077,31 @@
         <v>33</v>
       </c>
       <c r="AQ22" s="15"/>
-      <c r="AX22" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="38"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="15"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
       <c r="BA22" s="16"/>
       <c r="BB22" s="17"/>
       <c r="BC22" s="32"/>
-    </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="38"/>
+      <c r="BF22" s="38"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="38"/>
+      <c r="BI22" s="38"/>
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="38"/>
+      <c r="BL22" s="38"/>
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="38"/>
+    </row>
+    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
@@ -6775,22 +7116,22 @@
         <v>10</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="N23" s="47" t="s">
+      <c r="N23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="44">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="45">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R23" s="50" t="s">
+      <c r="R23" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S23" s="2">
@@ -6817,7 +7158,7 @@
       <c r="AE23" s="32">
         <v>10</v>
       </c>
-      <c r="AF23" s="42"/>
+      <c r="AF23" s="38"/>
       <c r="AL23" s="15" t="s">
         <v>20</v>
       </c>
@@ -6837,16 +7178,31 @@
         <v>33</v>
       </c>
       <c r="AQ23" s="15"/>
-      <c r="AX23" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="15"/>
       <c r="AY23" s="16"/>
       <c r="AZ23" s="16"/>
       <c r="BA23" s="16"/>
       <c r="BB23" s="17"/>
       <c r="BC23" s="32"/>
-    </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+    </row>
+    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -6861,22 +7217,22 @@
         <v>0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="N24" s="47" t="s">
+      <c r="N24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="48">
+      <c r="O24" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="44">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="45">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="R24" s="50" t="s">
+      <c r="R24" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S24" s="2">
@@ -6903,7 +7259,7 @@
       <c r="AE24" s="32">
         <v>0</v>
       </c>
-      <c r="AF24" s="42"/>
+      <c r="AF24" s="38"/>
       <c r="AL24" s="15" t="s">
         <v>21</v>
       </c>
@@ -6923,16 +7279,31 @@
         <v>33</v>
       </c>
       <c r="AQ24" s="15"/>
-      <c r="AX24" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="15"/>
       <c r="AY24" s="16"/>
       <c r="AZ24" s="16"/>
       <c r="BA24" s="16"/>
       <c r="BB24" s="17"/>
       <c r="BC24" s="32"/>
-    </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+    </row>
+    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -6947,22 +7318,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="48">
+      <c r="O25" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="44">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q25" s="49">
+      <c r="Q25" s="45">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R25" s="50" t="s">
+      <c r="R25" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S25" s="2">
@@ -6989,7 +7360,7 @@
       <c r="AE25" s="32">
         <v>1</v>
       </c>
-      <c r="AF25" s="42"/>
+      <c r="AF25" s="38"/>
       <c r="AL25" s="15" t="s">
         <v>22</v>
       </c>
@@ -7009,16 +7380,31 @@
         <v>33</v>
       </c>
       <c r="AQ25" s="15"/>
-      <c r="AX25" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="38"/>
+      <c r="AV25" s="38"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="15"/>
       <c r="AY25" s="16"/>
       <c r="AZ25" s="16"/>
       <c r="BA25" s="16"/>
       <c r="BB25" s="17"/>
       <c r="BC25" s="32"/>
-    </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="38"/>
+      <c r="BF25" s="38"/>
+      <c r="BG25" s="38"/>
+      <c r="BH25" s="38"/>
+      <c r="BI25" s="38"/>
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="38"/>
+      <c r="BL25" s="38"/>
+      <c r="BM25" s="38"/>
+      <c r="BN25" s="38"/>
+    </row>
+    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
@@ -7033,22 +7419,22 @@
         <v>11</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="44">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="45">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R26" s="50" t="s">
+      <c r="R26" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S26" s="8">
@@ -7075,7 +7461,7 @@
       <c r="AE26" s="32">
         <v>10</v>
       </c>
-      <c r="AF26" s="42"/>
+      <c r="AF26" s="38"/>
       <c r="AL26" s="15" t="s">
         <v>23</v>
       </c>
@@ -7095,16 +7481,31 @@
         <v>33</v>
       </c>
       <c r="AQ26" s="15"/>
-      <c r="AX26" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="15"/>
       <c r="AY26" s="16"/>
       <c r="AZ26" s="16"/>
       <c r="BA26" s="16"/>
       <c r="BB26" s="17"/>
       <c r="BC26" s="32"/>
-    </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+    </row>
+    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
@@ -7119,22 +7520,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="48">
+      <c r="O27" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="44">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Q27" s="49">
+      <c r="Q27" s="45">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="R27" s="50" t="s">
+      <c r="R27" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S27" s="2">
@@ -7161,7 +7562,7 @@
       <c r="AE27" s="32">
         <v>1</v>
       </c>
-      <c r="AF27" s="42"/>
+      <c r="AF27" s="38"/>
       <c r="AL27" s="15" t="s">
         <v>24</v>
       </c>
@@ -7181,16 +7582,31 @@
         <v>33</v>
       </c>
       <c r="AQ27" s="15"/>
-      <c r="AX27" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="15"/>
       <c r="AY27" s="16"/>
       <c r="AZ27" s="16"/>
       <c r="BA27" s="16"/>
       <c r="BB27" s="17"/>
       <c r="BC27" s="32"/>
-    </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="38"/>
+      <c r="BF27" s="38"/>
+      <c r="BG27" s="38"/>
+      <c r="BH27" s="38"/>
+      <c r="BI27" s="38"/>
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="38"/>
+      <c r="BL27" s="38"/>
+      <c r="BM27" s="38"/>
+      <c r="BN27" s="38"/>
+    </row>
+    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
@@ -7205,22 +7621,22 @@
         <v>2</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="N28" s="47" t="s">
+      <c r="N28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="44">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="45">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="R28" s="50" t="s">
+      <c r="R28" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S28" s="2">
@@ -7247,7 +7663,7 @@
       <c r="AE28" s="32">
         <v>2</v>
       </c>
-      <c r="AF28" s="42"/>
+      <c r="AF28" s="38"/>
       <c r="AL28" s="15" t="s">
         <v>25</v>
       </c>
@@ -7267,16 +7683,31 @@
         <v>33</v>
       </c>
       <c r="AQ28" s="15"/>
-      <c r="AX28" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="15"/>
       <c r="AY28" s="16"/>
       <c r="AZ28" s="16"/>
       <c r="BA28" s="16"/>
       <c r="BB28" s="17"/>
       <c r="BC28" s="32"/>
-    </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+    </row>
+    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
@@ -7291,22 +7722,22 @@
         <v>18</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="N29" s="47" t="s">
+      <c r="N29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="44">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="Q29" s="45">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="R29" s="50" t="s">
+      <c r="R29" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S29" s="8">
@@ -7333,7 +7764,7 @@
       <c r="AE29" s="32">
         <v>15</v>
       </c>
-      <c r="AF29" s="42"/>
+      <c r="AF29" s="38"/>
       <c r="AL29" s="15" t="s">
         <v>26</v>
       </c>
@@ -7353,16 +7784,31 @@
         <v>34</v>
       </c>
       <c r="AQ29" s="15"/>
-      <c r="AX29" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="15"/>
       <c r="AY29" s="16"/>
       <c r="AZ29" s="16"/>
       <c r="BA29" s="16"/>
       <c r="BB29" s="17"/>
       <c r="BC29" s="32"/>
-    </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
+    </row>
+    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
@@ -7377,22 +7823,22 @@
         <v>6</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="48">
+      <c r="O30" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P30" s="48">
+      <c r="P30" s="44">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="45">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="R30" s="50" t="s">
+      <c r="R30" s="46" t="s">
         <v>33</v>
       </c>
       <c r="S30" s="8">
@@ -7419,7 +7865,7 @@
       <c r="AE30" s="32">
         <v>4</v>
       </c>
-      <c r="AF30" s="42"/>
+      <c r="AF30" s="38"/>
       <c r="AL30" s="15" t="s">
         <v>27</v>
       </c>
@@ -7439,16 +7885,31 @@
         <v>33</v>
       </c>
       <c r="AQ30" s="15"/>
-      <c r="AX30" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="15"/>
       <c r="AY30" s="16"/>
       <c r="AZ30" s="16"/>
       <c r="BA30" s="16"/>
       <c r="BB30" s="17"/>
       <c r="BC30" s="32"/>
-    </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="BD30" s="38"/>
+      <c r="BE30" s="38"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="38"/>
+      <c r="BH30" s="38"/>
+      <c r="BI30" s="38"/>
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="38"/>
+      <c r="BL30" s="38"/>
+      <c r="BM30" s="38"/>
+      <c r="BN30" s="38"/>
+    </row>
+    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
@@ -7468,275 +7929,1486 @@
         <f t="shared" ref="S31" si="11">SUM(S7:S30)</f>
         <v>202</v>
       </c>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
       <c r="AE31" s="33">
         <f t="shared" ref="AE31" si="12">SUM(AE7:AE30)</f>
         <v>202</v>
       </c>
-      <c r="AF31" s="42"/>
-    </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="AF31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
+      <c r="BM31" s="38"/>
+      <c r="BN31" s="38"/>
+    </row>
+    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="47">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="N33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="N34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM34" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN34" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="N35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="N36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM36" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="N37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM37" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="N38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="N39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM39" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="N40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL40" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="N41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL41" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL42" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL43" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL44" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL45" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N46" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL46" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL47" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL48" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="14:38" x14ac:dyDescent="0.25">
-      <c r="N49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL49" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="14:38" x14ac:dyDescent="0.25">
-      <c r="N50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL50" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="14:38" x14ac:dyDescent="0.25">
-      <c r="N51" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="14:38" x14ac:dyDescent="0.25">
-      <c r="N52" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="14:38" x14ac:dyDescent="0.25">
-      <c r="N53" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="D32" s="47"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38"/>
+      <c r="AR32" s="38"/>
+      <c r="AS32" s="38"/>
+      <c r="AT32" s="38"/>
+      <c r="AU32" s="38"/>
+      <c r="AV32" s="38"/>
+      <c r="AW32" s="38"/>
+      <c r="AX32" s="38"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="38"/>
+      <c r="BB32" s="38"/>
+      <c r="BC32" s="38"/>
+      <c r="BD32" s="38"/>
+      <c r="BE32" s="38"/>
+      <c r="BF32" s="38"/>
+      <c r="BG32" s="38"/>
+      <c r="BH32" s="38"/>
+      <c r="BI32" s="38"/>
+      <c r="BJ32" s="38"/>
+      <c r="BK32" s="38"/>
+      <c r="BL32" s="38"/>
+      <c r="BM32" s="38"/>
+      <c r="BN32" s="38"/>
+    </row>
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AK33" s="38"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="38"/>
+      <c r="BB33" s="38"/>
+      <c r="BC33" s="38"/>
+      <c r="BD33" s="38"/>
+      <c r="BE33" s="38"/>
+      <c r="BF33" s="38"/>
+      <c r="BG33" s="38"/>
+      <c r="BH33" s="38"/>
+      <c r="BI33" s="38"/>
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="38"/>
+      <c r="BL33" s="38"/>
+      <c r="BM33" s="38"/>
+      <c r="BN33" s="38"/>
+    </row>
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+    </row>
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AK35" s="38"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="38"/>
+      <c r="BG35" s="38"/>
+      <c r="BH35" s="38"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="38"/>
+      <c r="BL35" s="38"/>
+      <c r="BM35" s="38"/>
+      <c r="BN35" s="38"/>
+    </row>
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="38"/>
+      <c r="AW36" s="38"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="38"/>
+      <c r="BE36" s="38"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
+      <c r="BI36" s="38"/>
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="38"/>
+      <c r="BM36" s="38"/>
+      <c r="BN36" s="38"/>
+    </row>
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+    </row>
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38"/>
+    </row>
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+    </row>
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AR40" s="38"/>
+      <c r="AS40" s="38"/>
+      <c r="AT40" s="38"/>
+      <c r="AU40" s="38"/>
+      <c r="AV40" s="38"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="38"/>
+      <c r="BD40" s="38"/>
+      <c r="BE40" s="38"/>
+      <c r="BF40" s="38"/>
+      <c r="BG40" s="38"/>
+      <c r="BH40" s="38"/>
+      <c r="BI40" s="38"/>
+      <c r="BJ40" s="38"/>
+      <c r="BK40" s="38"/>
+      <c r="BL40" s="38"/>
+      <c r="BM40" s="38"/>
+      <c r="BN40" s="38"/>
+    </row>
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+    </row>
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BH42" s="38"/>
+      <c r="BI42" s="38"/>
+      <c r="BJ42" s="38"/>
+      <c r="BK42" s="38"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+    </row>
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+    </row>
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="38"/>
+      <c r="BH44" s="38"/>
+      <c r="BI44" s="38"/>
+      <c r="BJ44" s="38"/>
+      <c r="BK44" s="38"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+    </row>
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AR45" s="38"/>
+      <c r="AS45" s="38"/>
+      <c r="AT45" s="38"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="38"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="38"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="38"/>
+      <c r="BJ45" s="38"/>
+      <c r="BK45" s="38"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+    </row>
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AR46" s="38"/>
+      <c r="AS46" s="38"/>
+      <c r="AT46" s="38"/>
+      <c r="AU46" s="38"/>
+      <c r="AV46" s="38"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="38"/>
+      <c r="BH46" s="38"/>
+      <c r="BI46" s="38"/>
+      <c r="BJ46" s="38"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+    </row>
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AR47" s="38"/>
+      <c r="AS47" s="38"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
+      <c r="BF47" s="38"/>
+      <c r="BG47" s="38"/>
+      <c r="BH47" s="38"/>
+      <c r="BI47" s="38"/>
+      <c r="BJ47" s="38"/>
+      <c r="BK47" s="38"/>
+      <c r="BL47" s="38"/>
+      <c r="BM47" s="38"/>
+      <c r="BN47" s="38"/>
+    </row>
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AR48" s="38"/>
+      <c r="AS48" s="38"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
+      <c r="BB48" s="38"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="38"/>
+      <c r="BH48" s="38"/>
+      <c r="BI48" s="38"/>
+      <c r="BJ48" s="38"/>
+      <c r="BK48" s="38"/>
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="38"/>
+      <c r="BN48" s="38"/>
+    </row>
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AR49" s="38"/>
+      <c r="AS49" s="38"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="38"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
+      <c r="BF49" s="38"/>
+      <c r="BG49" s="38"/>
+      <c r="BH49" s="38"/>
+      <c r="BI49" s="38"/>
+      <c r="BJ49" s="38"/>
+      <c r="BK49" s="38"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="38"/>
+      <c r="BN49" s="38"/>
+    </row>
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+    </row>
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="38"/>
+    </row>
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="38"/>
+      <c r="AC52" s="38"/>
+      <c r="AD52" s="38"/>
+    </row>
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="38"/>
+      <c r="AD53" s="38"/>
+    </row>
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="38"/>
+    </row>
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="38"/>
+      <c r="AD55" s="38"/>
+    </row>
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+    </row>
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="38"/>
+    </row>
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
+      <c r="AB58" s="38"/>
+      <c r="AC58" s="38"/>
+      <c r="AD58" s="38"/>
+    </row>
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+    </row>
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+    </row>
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7754,2098 +9426,2676 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
-  <dimension ref="B2:BC52"/>
+  <dimension ref="B2:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O11" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6:AD30"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="50"/>
+    <col min="2" max="2" width="15.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="50"/>
+    <col min="4" max="4" width="12.28515625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="50"/>
+    <col min="6" max="6" width="26.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="50" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="50"/>
+    <col min="14" max="14" width="14.140625" style="50" customWidth="1"/>
+    <col min="15" max="22" width="9.140625" style="50"/>
+    <col min="23" max="23" width="16.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="50"/>
+    <col min="26" max="26" width="15" style="50" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="C2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+      <c r="H3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="52">
         <v>3</v>
       </c>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="N4" s="27" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="N4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="U4" s="27" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="U4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="54">
         <v>2024</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="U5" t="s">
+      <c r="L5" s="56"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="U5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11"/>
-      <c r="N6" s="38" t="s">
+      <c r="E6" s="54"/>
+      <c r="H6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="57">
+        <v>0</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
+      <c r="N6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="U6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9">
+      <c r="S6" s="61"/>
+      <c r="U6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62">
         <f>(S7+S8+S9+S10+S13+S14+S15+S16+S17+S18+S19+S20+S21+S22+S23+S24+S25+S27+S28)/19</f>
         <v>0</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Z6" s="38" t="s">
+      <c r="X6" s="56"/>
+      <c r="Z6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AA6" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="40" t="s">
+      <c r="AC6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AD6" s="41" t="s">
+      <c r="AD6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="11"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AS6" s="2"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="11"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
+      <c r="AE6" s="63"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="75"/>
+      <c r="AQ6" s="75"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="66"/>
+      <c r="BC6" s="66"/>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="55">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="55">
         <f t="shared" ref="E7:E30" si="0">SUM(C7:D7)</f>
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7">
+      <c r="I7" s="67"/>
+      <c r="J7" s="57">
         <v>1</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="15" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="68"/>
+      <c r="N7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="69">
         <f>SQRT((C7 - $J$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="69">
         <f>SQRT((C7 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="70">
         <f>SQRT((C7 - $J$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="R7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="s">
+      <c r="R7" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="55">
+        <v>0</v>
+      </c>
+      <c r="U7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9">
+      <c r="V7" s="62"/>
+      <c r="W7" s="62">
         <f>(S11+S12+S26+S30)/4</f>
         <v>1.25</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Z7" s="15" t="s">
+      <c r="X7" s="68"/>
+      <c r="Z7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="69">
         <f>SQRT((S7 - $W$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="69">
         <f>SQRT((S7 - $W$7)^2)</f>
         <v>1.25</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="69">
         <f>SQRT((S7 - $W$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="AD7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="32"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="32"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="12"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="32"/>
+      <c r="AD7" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE7" s="71"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="71"/>
     </row>
     <row r="8" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="55">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="55"/>
+      <c r="H8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7">
+      <c r="I8" s="67"/>
+      <c r="J8" s="57">
         <v>3</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="10"/>
-      <c r="N8" s="15" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="56"/>
+      <c r="N8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="69">
         <f t="shared" ref="O8:O29" si="1">SQRT((C8 - $J$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="69">
         <f t="shared" ref="P8:P29" si="2">SQRT((C8 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="70">
         <f t="shared" ref="Q8:Q29" si="3">SQRT((C8 - $J$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="R8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="s">
+      <c r="R8" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="55">
+        <v>0</v>
+      </c>
+      <c r="U8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9">
+      <c r="V8" s="62"/>
+      <c r="W8" s="62">
         <f>S29</f>
         <v>3</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Z8" s="15" t="s">
+      <c r="X8" s="56"/>
+      <c r="Z8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="69">
         <f t="shared" ref="AA8:AA30" si="4">SQRT((S8 - $W$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="69">
         <f t="shared" ref="AB8:AB30" si="5">SQRT((S8 - $W$7)^2)</f>
         <v>1.25</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="69">
         <f t="shared" ref="AC8:AC30" si="6">SQRT((S8 - $W$8)^2)</f>
         <v>3</v>
       </c>
-      <c r="AD8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE8" s="32"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="10"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="32"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="10"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="32"/>
+      <c r="AD8" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="71"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="68"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="70"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="71"/>
     </row>
     <row r="9" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="55">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="N9" s="15" t="s">
+      <c r="F9" s="55"/>
+      <c r="N9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="15" t="s">
+      <c r="R9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE9" s="32"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="32"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="32"/>
+      <c r="AD9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="71"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="69"/>
+      <c r="AO9" s="69"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="71"/>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="55">
+        <v>0</v>
+      </c>
+      <c r="D10" s="55">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="N10" s="15" t="s">
+      <c r="F10" s="55"/>
+      <c r="N10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15" t="s">
+      <c r="R10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE10" s="32"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="32"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="32"/>
+      <c r="AD10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="71"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="71"/>
     </row>
     <row r="11" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="55">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="55">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="N11" s="15" t="s">
+      <c r="F11" s="55"/>
+      <c r="N11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="55">
         <v>1</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="69">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="69">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="69">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AD11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AE11" s="32"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="32"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="32"/>
+      <c r="AE11" s="71"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="71"/>
     </row>
     <row r="12" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="55">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="55">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="55">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="N12" s="15" t="s">
+      <c r="F12" s="55"/>
+      <c r="N12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="55">
         <v>1</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="69">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="69">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="69">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AD12" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AE12" s="32"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="32"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="32"/>
+      <c r="AE12" s="71"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="71"/>
     </row>
     <row r="13" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="N13" s="15" t="s">
+      <c r="F13" s="55"/>
+      <c r="N13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="15" t="s">
+      <c r="R13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE13" s="32"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="32"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="32"/>
+      <c r="AD13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="71"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
     </row>
     <row r="14" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="55">
+        <v>0</v>
+      </c>
+      <c r="D14" s="55">
         <v>37</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="55">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="N14" s="15" t="s">
+      <c r="F14" s="55"/>
+      <c r="N14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R14" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15" t="s">
+      <c r="R14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA14" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AB14" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD14" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE14" s="32"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="32"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="32"/>
+      <c r="AD14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="71"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="71"/>
     </row>
     <row r="15" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="N15" s="15" t="s">
+      <c r="F15" s="55"/>
+      <c r="N15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R15" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="15" t="s">
+      <c r="R15" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AA15" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AB15" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AC15" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD15" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE15" s="32"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="32"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="32"/>
+      <c r="AD15" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE15" s="71"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="69"/>
+      <c r="AN15" s="69"/>
+      <c r="AO15" s="69"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="71"/>
     </row>
     <row r="16" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="N16" s="15" t="s">
+      <c r="F16" s="55"/>
+      <c r="N16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R16" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15" t="s">
+      <c r="R16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="16">
+      <c r="AA16" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AB16" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AC16" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD16" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE16" s="32"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="32"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="32"/>
+      <c r="AD16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE16" s="71"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="71"/>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="55">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="N17" s="15" t="s">
+      <c r="F17" s="55"/>
+      <c r="N17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="69">
         <f>SQRT((C17 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R17" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="15" t="s">
+      <c r="R17" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA17" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AB17" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AC17" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD17" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE17" s="32"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="32"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="32"/>
+      <c r="AD17" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE17" s="71"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="69"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="71"/>
     </row>
     <row r="18" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="55">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="55">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="N18" s="15" t="s">
+      <c r="F18" s="55"/>
+      <c r="N18" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R18" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="15" t="s">
+      <c r="R18" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA18" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AB18" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AC18" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD18" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE18" s="32"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="32"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="32"/>
+      <c r="AD18" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="71"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="71"/>
     </row>
     <row r="19" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="N19" s="15" t="s">
+      <c r="F19" s="55"/>
+      <c r="N19" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R19" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="15" t="s">
+      <c r="R19" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="16">
+      <c r="AA19" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="16">
+      <c r="AB19" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC19" s="16">
+      <c r="AC19" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD19" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE19" s="32"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="32"/>
-      <c r="AX19" s="15"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="32"/>
+      <c r="AD19" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE19" s="71"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="71"/>
     </row>
     <row r="20" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="55">
+        <v>0</v>
+      </c>
+      <c r="D20" s="55">
         <v>21</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="55">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="N20" s="15" t="s">
+      <c r="F20" s="55"/>
+      <c r="N20" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R20" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="15" t="s">
+      <c r="R20" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AA20" s="16">
+      <c r="AA20" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="16">
+      <c r="AB20" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC20" s="16">
+      <c r="AC20" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD20" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE20" s="32"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="32"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="32"/>
+      <c r="AD20" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE20" s="71"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="71"/>
     </row>
     <row r="21" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+      <c r="D21" s="55">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="55">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="N21" s="15" t="s">
+      <c r="F21" s="55"/>
+      <c r="N21" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R21" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15" t="s">
+      <c r="R21" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="AA21" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="16">
+      <c r="AB21" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC21" s="16">
+      <c r="AC21" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD21" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE21" s="32"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="32"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="16"/>
-      <c r="AZ21" s="16"/>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="32"/>
+      <c r="AD21" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="71"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
     </row>
     <row r="22" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="55">
+        <v>0</v>
+      </c>
+      <c r="D22" s="55">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="N22" s="15" t="s">
+      <c r="F22" s="55"/>
+      <c r="N22" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R22" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="15" t="s">
+      <c r="R22" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" s="16">
+      <c r="AA22" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="16">
+      <c r="AB22" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC22" s="16">
+      <c r="AC22" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD22" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE22" s="32"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="32"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="16"/>
-      <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="32"/>
+      <c r="AD22" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="71"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="71"/>
     </row>
     <row r="23" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="55">
+        <v>0</v>
+      </c>
+      <c r="D23" s="55">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="N23" s="15" t="s">
+      <c r="F23" s="55"/>
+      <c r="N23" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R23" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="15" t="s">
+      <c r="R23" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA23" s="16">
+      <c r="AA23" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="16">
+      <c r="AB23" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC23" s="16">
+      <c r="AC23" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD23" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE23" s="32"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="32"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="16"/>
-      <c r="AZ23" s="16"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="32"/>
+      <c r="AD23" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="71"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="71"/>
     </row>
     <row r="24" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="55">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="N24" s="15" t="s">
+      <c r="F24" s="55"/>
+      <c r="N24" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R24" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="15" t="s">
+      <c r="R24" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AA24" s="16">
+      <c r="AA24" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="16">
+      <c r="AB24" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC24" s="16">
+      <c r="AC24" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD24" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE24" s="32"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="32"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="32"/>
+      <c r="AD24" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE24" s="71"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="56"/>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="56"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="70"/>
+      <c r="BC24" s="71"/>
     </row>
     <row r="25" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="55">
+        <v>0</v>
+      </c>
+      <c r="D25" s="55">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="N25" s="15" t="s">
+      <c r="F25" s="55"/>
+      <c r="N25" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R25" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="15" t="s">
+      <c r="R25" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AA25" s="16">
+      <c r="AA25" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="16">
+      <c r="AB25" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC25" s="16">
+      <c r="AC25" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD25" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE25" s="32"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="32"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="32"/>
+      <c r="AD25" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="71"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="69"/>
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="69"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="70"/>
+      <c r="BC25" s="71"/>
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="71">
         <v>1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="71">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="N26" s="15" t="s">
+      <c r="F26" s="71"/>
+      <c r="N26" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="69">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="55">
         <v>1</v>
       </c>
-      <c r="Z26" s="15" t="s">
+      <c r="Z26" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AA26" s="16">
+      <c r="AA26" s="69">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AB26" s="69">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AC26" s="69">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD26" s="15" t="s">
+      <c r="AD26" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AE26" s="32"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="32"/>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="32"/>
+      <c r="AE26" s="71"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="69"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="71"/>
     </row>
     <row r="27" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="71">
+        <v>0</v>
+      </c>
+      <c r="D27" s="71">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="N27" s="15" t="s">
+      <c r="F27" s="71"/>
+      <c r="N27" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R27" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="15" t="s">
+      <c r="R27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="16">
+      <c r="AA27" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="16">
+      <c r="AB27" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AC27" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD27" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE27" s="32"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="32"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="32"/>
+      <c r="AD27" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE27" s="71"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="69"/>
+      <c r="AO27" s="69"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="71"/>
     </row>
     <row r="28" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="71">
+        <v>0</v>
+      </c>
+      <c r="D28" s="71">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="N28" s="15" t="s">
+      <c r="F28" s="71"/>
+      <c r="N28" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R28" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="15" t="s">
+      <c r="R28" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="16">
+      <c r="AA28" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="16">
+      <c r="AB28" s="69">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="AC28" s="16">
+      <c r="AC28" s="69">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AD28" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE28" s="32"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="32"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="32"/>
+      <c r="AD28" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE28" s="71"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="68"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="71"/>
     </row>
     <row r="29" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="71">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="71">
         <v>15</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="71">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="N29" s="15" t="s">
+      <c r="F29" s="71"/>
+      <c r="N29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="69">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="69">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="55">
         <v>3</v>
       </c>
-      <c r="Z29" s="15" t="s">
+      <c r="Z29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="16">
+      <c r="AA29" s="69">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AB29" s="16">
+      <c r="AB29" s="69">
         <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
-      <c r="AC29" s="16">
+      <c r="AC29" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="42" t="s">
+      <c r="AD29" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AE29" s="32"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="32"/>
-      <c r="AX29" s="15"/>
-      <c r="AY29" s="16"/>
-      <c r="AZ29" s="16"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="32"/>
+      <c r="AE29" s="71"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="68"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="71"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
     </row>
     <row r="30" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="71">
         <v>2</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="71">
         <v>4</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="N30" s="15" t="s">
+      <c r="F30" s="71"/>
+      <c r="N30" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="69">
         <f>SQRT((C30 - $J$6)^2)</f>
         <v>2</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="69">
         <f>SQRT((C30 - $J$7)^2)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="70">
         <f>SQRT((C30 - $J$8)^2)</f>
         <v>1</v>
       </c>
-      <c r="R30" s="15" t="s">
+      <c r="R30" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="55">
         <v>2</v>
       </c>
-      <c r="Z30" s="15" t="s">
+      <c r="Z30" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="AA30" s="16">
+      <c r="AA30" s="69">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AB30" s="16">
+      <c r="AB30" s="69">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="AC30" s="16">
+      <c r="AC30" s="69">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD30" s="15" t="s">
+      <c r="AD30" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AE30" s="32"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="32"/>
-      <c r="AX30" s="15"/>
-      <c r="AY30" s="16"/>
-      <c r="AZ30" s="16"/>
-      <c r="BA30" s="16"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="32"/>
+      <c r="AE30" s="71"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="68"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="69"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="69"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="70"/>
+      <c r="BC30" s="71"/>
     </row>
     <row r="31" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="71">
         <f>SUM(C7:C30)</f>
         <v>8</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="71">
         <f t="shared" ref="D31" si="7">SUM(D7:D30)</f>
         <v>202</v>
       </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="4">
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="72">
         <f t="shared" ref="S31" si="8">SUM(S7:S30)</f>
         <v>8</v>
       </c>
-      <c r="AE31" s="33">
+      <c r="AE31" s="73">
         <f t="shared" ref="AE31" si="9">SUM(AE7:AE30)</f>
         <v>0</v>
       </c>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
     </row>
     <row r="32" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="74">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
     </row>
     <row r="33" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="N33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AX33" s="3"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="55"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="Z33" s="67"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="68"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="67"/>
     </row>
     <row r="34" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="N34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="55"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
     </row>
     <row r="35" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="N35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
     </row>
     <row r="36" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="N36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
     </row>
     <row r="37" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="N37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="56"/>
+      <c r="AR37" s="56"/>
+      <c r="AS37" s="56"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
+      <c r="AW37" s="56"/>
     </row>
     <row r="38" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="N38" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
     </row>
     <row r="39" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="N39" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="56"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
     </row>
     <row r="40" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="N40" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="AI40" s="56"/>
+      <c r="AJ40" s="56"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="56"/>
+      <c r="AM40" s="56"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="56"/>
+      <c r="AP40" s="56"/>
+      <c r="AQ40" s="56"/>
+      <c r="AR40" s="56"/>
+      <c r="AS40" s="56"/>
+      <c r="AT40" s="56"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="56"/>
+      <c r="AW40" s="56"/>
     </row>
     <row r="41" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="N41" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="AI41" s="56"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56"/>
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56"/>
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56"/>
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56"/>
     </row>
     <row r="42" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N42" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="N42" s="68"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="AI42" s="56"/>
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="56"/>
+      <c r="AM42" s="56"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="56"/>
+      <c r="AP42" s="56"/>
+      <c r="AQ42" s="56"/>
+      <c r="AR42" s="56"/>
+      <c r="AS42" s="56"/>
+      <c r="AT42" s="56"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="56"/>
+      <c r="AW42" s="56"/>
     </row>
     <row r="43" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N43" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="N43" s="68"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="56"/>
+      <c r="AL43" s="56"/>
+      <c r="AM43" s="56"/>
+      <c r="AN43" s="56"/>
+      <c r="AO43" s="56"/>
+      <c r="AP43" s="56"/>
+      <c r="AQ43" s="56"/>
+      <c r="AR43" s="56"/>
+      <c r="AS43" s="56"/>
+      <c r="AT43" s="56"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="56"/>
     </row>
     <row r="44" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N44" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="N44" s="68"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="56"/>
+      <c r="AN44" s="56"/>
+      <c r="AO44" s="56"/>
+      <c r="AP44" s="56"/>
+      <c r="AQ44" s="56"/>
+      <c r="AR44" s="56"/>
+      <c r="AS44" s="56"/>
+      <c r="AT44" s="56"/>
+      <c r="AU44" s="56"/>
+      <c r="AV44" s="56"/>
+      <c r="AW44" s="56"/>
     </row>
     <row r="45" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N45" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="N45" s="68"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="56"/>
+      <c r="AO45" s="56"/>
+      <c r="AP45" s="56"/>
+      <c r="AQ45" s="56"/>
+      <c r="AR45" s="56"/>
+      <c r="AS45" s="56"/>
+      <c r="AT45" s="56"/>
+      <c r="AU45" s="56"/>
+      <c r="AV45" s="56"/>
+      <c r="AW45" s="56"/>
     </row>
     <row r="46" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N46" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="N46" s="68"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="56"/>
+      <c r="AS46" s="56"/>
+      <c r="AT46" s="56"/>
+      <c r="AU46" s="56"/>
+      <c r="AV46" s="56"/>
+      <c r="AW46" s="56"/>
     </row>
     <row r="47" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N47" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="N47" s="68"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="AI47" s="56"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+      <c r="AP47" s="56"/>
+      <c r="AQ47" s="56"/>
+      <c r="AR47" s="56"/>
+      <c r="AS47" s="56"/>
+      <c r="AT47" s="56"/>
+      <c r="AU47" s="56"/>
+      <c r="AV47" s="56"/>
+      <c r="AW47" s="56"/>
     </row>
     <row r="48" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="N48" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N49" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N50" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N51" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N52" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="N48" s="68"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="AI48" s="56"/>
+      <c r="AJ48" s="56"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="56"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="56"/>
+      <c r="AQ48" s="56"/>
+      <c r="AR48" s="56"/>
+      <c r="AS48" s="56"/>
+      <c r="AT48" s="56"/>
+      <c r="AU48" s="56"/>
+      <c r="AV48" s="56"/>
+      <c r="AW48" s="56"/>
+    </row>
+    <row r="49" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N49" s="68"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56"/>
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56"/>
+      <c r="AP49" s="56"/>
+      <c r="AQ49" s="56"/>
+      <c r="AR49" s="56"/>
+      <c r="AS49" s="56"/>
+      <c r="AT49" s="56"/>
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+      <c r="AW49" s="56"/>
+    </row>
+    <row r="50" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N50" s="68"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="AI50" s="56"/>
+      <c r="AJ50" s="56"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="56"/>
+      <c r="AM50" s="56"/>
+      <c r="AN50" s="56"/>
+      <c r="AO50" s="56"/>
+      <c r="AP50" s="56"/>
+      <c r="AQ50" s="56"/>
+      <c r="AR50" s="56"/>
+      <c r="AS50" s="56"/>
+      <c r="AT50" s="56"/>
+      <c r="AU50" s="56"/>
+      <c r="AV50" s="56"/>
+      <c r="AW50" s="56"/>
+    </row>
+    <row r="51" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N51" s="68"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+    </row>
+    <row r="52" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N52" s="68"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+    </row>
+    <row r="53" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+    </row>
+    <row r="54" spans="14:49" x14ac:dyDescent="0.25">
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9862,12 +12112,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
@@ -9878,22 +12128,22 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="47">
         <v>2024</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -9913,14 +12163,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="47"/>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>

--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E080F3-5AA7-4BD1-8668-15E3BDC023D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1EA45-D239-4AB9-949B-6188FE6F5C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
     <sheet name="CURANMOR" sheetId="3" r:id="rId5"/>
     <sheet name="CURAS" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="86">
   <si>
     <t>DATA CURAS DAN CURANMOR KAB PROBOLINGGO 2021 - 2022</t>
   </si>
@@ -280,15 +281,25 @@
   <si>
     <t>MAX</t>
   </si>
+  <si>
+    <t>Nama Kecamatan</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Krejengan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +348,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF110A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF110A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF110A57"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +406,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F5FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -539,11 +582,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDCDFE8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDCDFE8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDCDFE8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDCDFE8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDCDFE8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDCDFE8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDCDFE8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDCDFE8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDCDFE8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDCDFE8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,21 +756,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -675,9 +765,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,9 +772,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,6 +806,46 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,53 +1179,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="63">
         <v>2021</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63">
         <v>2022</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="63">
         <v>2021</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45">
+      <c r="L5" s="63"/>
+      <c r="M5" s="63">
         <v>2022</v>
       </c>
-      <c r="N5" s="45"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1114,8 +1238,8 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="63"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2145,23 +2269,23 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="63">
         <f>C31+D31</f>
         <v>219</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63">
         <f>E31+F31</f>
         <v>178</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="63"/>
       <c r="J32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -2223,6 +2347,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -2231,11 +2360,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2263,19 +2387,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="L3" t="s">
         <v>31</v>
       </c>
@@ -2284,12 +2408,12 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
       <c r="R4" s="27" t="s">
         <v>46</v>
       </c>
@@ -2333,14 +2457,14 @@
       <c r="BG4" s="27"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="63">
         <v>2024</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
@@ -2423,14 +2547,14 @@
       <c r="BG5" s="27"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="63"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2467,10 +2591,10 @@
       <c r="U6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="47" t="s">
+      <c r="V6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="47"/>
+      <c r="W6" s="65"/>
       <c r="Y6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2495,10 +2619,10 @@
       <c r="AG6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="47" t="s">
+      <c r="AH6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="47"/>
+      <c r="AI6" s="65"/>
       <c r="AK6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2523,10 +2647,10 @@
       <c r="AS6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AT6" s="47" t="s">
+      <c r="AT6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="47"/>
+      <c r="AU6" s="65"/>
       <c r="AW6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2544,10 +2668,10 @@
       <c r="BE6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BF6" s="47" t="s">
+      <c r="BF6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="47"/>
+      <c r="BG6" s="65"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5083,14 +5207,14 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="63">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="63"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -5115,12 +5239,12 @@
     <row r="34" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="H34" s="45"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="45"/>
+      <c r="H35" s="63"/>
       <c r="R35" t="s">
         <v>33</v>
       </c>
@@ -5287,11 +5411,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -5300,6 +5419,11 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5318,12 +5442,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
@@ -5334,22 +5458,22 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="63">
         <v>2024</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -5369,14 +5493,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="63"/>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
@@ -5628,88 +5752,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="45">
         <v>2024</v>
       </c>
-      <c r="C1" s="51">
+      <c r="C1" s="46">
         <v>2023</v>
       </c>
-      <c r="D1" s="51">
+      <c r="D1" s="46">
         <v>2022</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="54">
         <v>1</v>
       </c>
-      <c r="C4" s="62">
-        <v>0</v>
-      </c>
-      <c r="D4" s="62">
+      <c r="C4" s="55">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55">
         <v>2</v>
       </c>
       <c r="E4">
         <f>B4+C4+D4</f>
         <v>3</v>
       </c>
-      <c r="H4" s="62">
-        <v>0</v>
-      </c>
-      <c r="I4" s="62">
-        <v>0</v>
-      </c>
-      <c r="J4" s="62">
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
         <v>0</v>
       </c>
       <c r="K4">
@@ -5718,29 +5842,29 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="61">
-        <v>0</v>
-      </c>
-      <c r="C5" s="62">
+      <c r="B5" s="54">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55">
         <v>4</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="55">
         <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E23" si="0">B5+C5+D5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="62">
-        <v>0</v>
-      </c>
-      <c r="I5" s="62">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62">
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
         <v>0</v>
       </c>
       <c r="K5">
@@ -5749,29 +5873,29 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="54">
         <v>5</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="55">
         <v>2</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="55">
         <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H6" s="62">
-        <v>0</v>
-      </c>
-      <c r="I6" s="62">
-        <v>0</v>
-      </c>
-      <c r="J6" s="62">
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
         <v>0</v>
       </c>
       <c r="K6">
@@ -5780,29 +5904,29 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="54">
         <v>2</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="55">
         <v>1</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="55">
         <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="62">
-        <v>0</v>
-      </c>
-      <c r="I7" s="62">
-        <v>0</v>
-      </c>
-      <c r="J7" s="62">
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
         <v>0</v>
       </c>
       <c r="K7">
@@ -5811,29 +5935,29 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="54">
         <v>1</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="55">
         <v>2</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="55">
         <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H8" s="62">
-        <v>0</v>
-      </c>
-      <c r="I8" s="62">
-        <v>0</v>
-      </c>
-      <c r="J8" s="62">
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
         <v>0</v>
       </c>
       <c r="K8">
@@ -5842,29 +5966,29 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="54">
         <v>13</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="55">
         <v>16</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="55">
         <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H9" s="62">
-        <v>0</v>
-      </c>
-      <c r="I9" s="62">
-        <v>0</v>
-      </c>
-      <c r="J9" s="62">
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
         <v>0</v>
       </c>
       <c r="K9">
@@ -5873,29 +5997,29 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="54">
         <v>1</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="55">
         <v>1</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="55">
         <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H10" s="62">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0</v>
-      </c>
-      <c r="J10" s="62">
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
         <v>0</v>
       </c>
       <c r="K10">
@@ -5904,29 +6028,29 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="54">
         <v>4</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="55">
         <v>8</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="55">
         <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H11" s="62">
-        <v>0</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0</v>
-      </c>
-      <c r="J11" s="62">
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55">
         <v>1</v>
       </c>
       <c r="K11">
@@ -5935,29 +6059,29 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="54">
         <v>22</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="55">
         <v>26</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="55">
         <v>11</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H12" s="62">
-        <v>0</v>
-      </c>
-      <c r="I12" s="62">
-        <v>0</v>
-      </c>
-      <c r="J12" s="62">
+      <c r="H12" s="55">
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
         <v>1</v>
       </c>
       <c r="K12">
@@ -5966,29 +6090,29 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="54">
         <v>21</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="55">
         <v>10</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="55">
         <v>17</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="H13" s="62">
-        <v>0</v>
-      </c>
-      <c r="I13" s="62">
-        <v>0</v>
-      </c>
-      <c r="J13" s="62">
+      <c r="H13" s="55">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
+        <v>0</v>
+      </c>
+      <c r="J13" s="55">
         <v>0</v>
       </c>
       <c r="K13">
@@ -5997,29 +6121,29 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="54">
         <v>18</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="55">
         <v>17</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="55">
         <v>7</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="55">
         <v>1</v>
       </c>
-      <c r="I14" s="62">
-        <v>0</v>
-      </c>
-      <c r="J14" s="62">
+      <c r="I14" s="55">
+        <v>0</v>
+      </c>
+      <c r="J14" s="55">
         <v>0</v>
       </c>
       <c r="K14">
@@ -6028,29 +6152,29 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="54">
         <v>10</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="55">
         <v>12</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="55">
         <v>8</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H15" s="62">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62">
-        <v>0</v>
-      </c>
-      <c r="J15" s="62">
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0</v>
+      </c>
+      <c r="J15" s="55">
         <v>0</v>
       </c>
       <c r="K15">
@@ -6059,29 +6183,29 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="54">
         <v>37</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="55">
         <v>51</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="55">
         <v>100</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="H16" s="62">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62">
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
         <v>1</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="55">
         <v>0</v>
       </c>
       <c r="K16">
@@ -6090,29 +6214,29 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="54">
         <v>2</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="55">
         <v>4</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="55">
         <v>15</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H17" s="62">
-        <v>0</v>
-      </c>
-      <c r="I17" s="62">
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
         <v>1</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="55">
         <v>1</v>
       </c>
       <c r="K17">
@@ -6121,29 +6245,29 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="54">
         <v>4</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="55">
         <v>1</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="55">
         <v>3</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="55">
         <v>1</v>
       </c>
-      <c r="I18" s="62">
-        <v>0</v>
-      </c>
-      <c r="J18" s="62">
+      <c r="I18" s="55">
+        <v>0</v>
+      </c>
+      <c r="J18" s="55">
         <v>0</v>
       </c>
       <c r="K18">
@@ -6152,29 +6276,29 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="54">
         <v>9</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="55">
         <v>1</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="55">
         <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H19" s="62">
-        <v>0</v>
-      </c>
-      <c r="I19" s="62">
-        <v>0</v>
-      </c>
-      <c r="J19" s="62">
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0</v>
+      </c>
+      <c r="J19" s="55">
         <v>1</v>
       </c>
       <c r="K19">
@@ -6183,29 +6307,29 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="61">
-        <v>0</v>
-      </c>
-      <c r="C20" s="62">
+      <c r="B20" s="54">
+        <v>0</v>
+      </c>
+      <c r="C20" s="55">
         <v>3</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="55">
         <v>10</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H20" s="62">
-        <v>0</v>
-      </c>
-      <c r="I20" s="62">
-        <v>0</v>
-      </c>
-      <c r="J20" s="62">
+      <c r="H20" s="55">
+        <v>0</v>
+      </c>
+      <c r="I20" s="55">
+        <v>0</v>
+      </c>
+      <c r="J20" s="55">
         <v>0</v>
       </c>
       <c r="K20">
@@ -6214,29 +6338,29 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="54">
         <v>14</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="55">
         <v>25</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="55">
         <v>14</v>
       </c>
       <c r="E21">
         <f>B21+C21+D21</f>
         <v>53</v>
       </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
-      <c r="I21" s="62">
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
         <v>1</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="55">
         <v>0</v>
       </c>
       <c r="K21">
@@ -6244,30 +6368,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="54">
         <v>4</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="55">
         <v>4</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="55">
         <v>4</v>
       </c>
       <c r="E22">
         <f>B22+C22+D22</f>
         <v>12</v>
       </c>
-      <c r="H22" s="62">
-        <v>0</v>
-      </c>
-      <c r="I22" s="62">
-        <v>0</v>
-      </c>
-      <c r="J22" s="62">
+      <c r="H22" s="55">
+        <v>0</v>
+      </c>
+      <c r="I22" s="55">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55">
         <v>0</v>
       </c>
       <c r="K22">
@@ -6276,29 +6400,29 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="54">
         <v>2</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="55">
         <v>1</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="55">
         <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H23" s="62">
-        <v>0</v>
-      </c>
-      <c r="I23" s="62">
-        <v>0</v>
-      </c>
-      <c r="J23" s="62">
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
         <v>0</v>
       </c>
       <c r="K23">
@@ -6307,29 +6431,29 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="57">
         <v>3</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="58">
         <v>8</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="58">
         <v>2</v>
       </c>
       <c r="E24">
         <f>B24+C24+D24</f>
         <v>13</v>
       </c>
-      <c r="H24" s="65">
-        <v>0</v>
-      </c>
-      <c r="I24" s="65">
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
+      <c r="H24" s="58">
+        <v>0</v>
+      </c>
+      <c r="I24" s="58">
+        <v>0</v>
+      </c>
+      <c r="J24" s="58">
         <v>0</v>
       </c>
       <c r="K24">
@@ -6349,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
   <dimension ref="A2:BM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6365,9 +6489,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="K2" s="38"/>
       <c r="W2" s="38"/>
       <c r="AQ2" s="38"/>
@@ -6428,12 +6552,12 @@
       <c r="BM3" s="38"/>
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="38"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
@@ -6491,13 +6615,13 @@
       <c r="BM4" s="38"/>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="63" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -6582,9 +6706,9 @@
       <c r="BM5" s="38"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -6673,8 +6797,8 @@
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="36"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
       <c r="BE6" s="38"/>
@@ -6720,15 +6844,15 @@
       <c r="M7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="59">
         <f>SQRT((F7 - $J$6)^2)</f>
         <v>0.15675675675675677</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="59">
         <f>SQRT((F7 - $J$7)^2)</f>
         <v>0.45675675675675675</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="61">
         <f>SQRT((F7 - $J$8)^2)</f>
         <v>0.7567567567567568</v>
       </c>
@@ -6858,15 +6982,15 @@
       <c r="M8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="59">
         <f t="shared" ref="N8:N30" si="2">SQRT((F8 - $J$6)^2)</f>
         <v>0.14054054054054055</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="59">
         <f t="shared" ref="O8:O30" si="3">SQRT((F8 - $J$7)^2)</f>
         <v>0.44054054054054054</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="61">
         <f t="shared" ref="P8:P30" si="4">SQRT((F8 - $J$8)^2)</f>
         <v>0.74054054054054053</v>
       </c>
@@ -6981,15 +7105,15 @@
       <c r="M9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="59">
         <f t="shared" si="2"/>
         <v>0.10270270270270271</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="59">
         <f t="shared" si="3"/>
         <v>0.4027027027027027</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="61">
         <f t="shared" si="4"/>
         <v>0.70270270270270274</v>
       </c>
@@ -7076,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E8:E30" si="11">MAX(C$7:C$30)</f>
+        <f t="shared" ref="E10:E30" si="11">MAX(C$7:C$30)</f>
         <v>188</v>
       </c>
       <c r="F10" s="7">
@@ -7086,15 +7210,15 @@
       <c r="M10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="59">
         <f t="shared" si="2"/>
         <v>0.10270270270270271</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="59">
         <f t="shared" si="3"/>
         <v>0.19729729729729728</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="61">
         <f t="shared" si="4"/>
         <v>0.49729729729729732</v>
       </c>
@@ -7191,15 +7315,15 @@
       <c r="M11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="59">
         <f t="shared" si="2"/>
         <v>0.17297297297297298</v>
       </c>
-      <c r="O11" s="66">
+      <c r="O11" s="59">
         <f t="shared" si="3"/>
         <v>0.47297297297297297</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="61">
         <f t="shared" si="4"/>
         <v>0.77297297297297307</v>
       </c>
@@ -7296,15 +7420,15 @@
       <c r="M12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="59">
         <f t="shared" si="2"/>
         <v>1.0810810810810811E-2</v>
       </c>
-      <c r="O12" s="66">
+      <c r="O12" s="59">
         <f t="shared" si="3"/>
         <v>0.28918918918918918</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="61">
         <f t="shared" si="4"/>
         <v>0.58918918918918917</v>
       </c>
@@ -7398,18 +7522,22 @@
         <f t="shared" si="1"/>
         <v>5.4054054054054057E-2</v>
       </c>
+      <c r="G13" s="7">
+        <f>F7+F8+F9+F10+F11+F12+F13+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F26+F27+F29+F28+F30</f>
+        <v>2.0270270270270268</v>
+      </c>
       <c r="M13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="59">
         <f t="shared" si="2"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="O13" s="66">
+      <c r="O13" s="59">
         <f t="shared" si="3"/>
         <v>0.44594594594594594</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="61">
         <f t="shared" si="4"/>
         <v>0.74594594594594599</v>
       </c>
@@ -7503,18 +7631,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="G14" s="75">
+        <f>G13/23</f>
+        <v>8.8131609870740299E-2</v>
+      </c>
       <c r="M14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="59">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="59">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="61">
         <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
@@ -7611,15 +7743,15 @@
       <c r="M15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="59">
         <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="59">
         <f t="shared" si="3"/>
         <v>0.35405405405405405</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="61">
         <f t="shared" si="4"/>
         <v>0.65405405405405403</v>
       </c>
@@ -7716,15 +7848,15 @@
       <c r="M16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="59">
         <f t="shared" si="2"/>
         <v>0.14594594594594595</v>
       </c>
-      <c r="O16" s="66">
+      <c r="O16" s="59">
         <f t="shared" si="3"/>
         <v>0.44594594594594594</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="61">
         <f t="shared" si="4"/>
         <v>0.74594594594594599</v>
       </c>
@@ -7821,15 +7953,15 @@
       <c r="M17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="59">
         <f t="shared" si="2"/>
         <v>0.19459459459459461</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="59">
         <f t="shared" si="3"/>
         <v>0.49459459459459459</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="61">
         <f t="shared" si="4"/>
         <v>0.79459459459459469</v>
       </c>
@@ -7926,15 +8058,15 @@
       <c r="M18" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="59">
         <f t="shared" si="2"/>
         <v>3.783783783783784E-2</v>
       </c>
-      <c r="O18" s="66">
+      <c r="O18" s="59">
         <f t="shared" si="3"/>
         <v>0.33783783783783783</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="61">
         <f t="shared" si="4"/>
         <v>0.63783783783783787</v>
       </c>
@@ -8031,15 +8163,15 @@
       <c r="M19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="59">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="O19" s="66">
+      <c r="O19" s="59">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="61">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
@@ -8136,15 +8268,15 @@
       <c r="M20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="59">
         <f t="shared" si="2"/>
         <v>4.3243243243243246E-2</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="59">
         <f t="shared" si="3"/>
         <v>0.25675675675675674</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="61">
         <f t="shared" si="4"/>
         <v>0.55675675675675684</v>
       </c>
@@ -8241,15 +8373,15 @@
       <c r="M21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="59">
         <f t="shared" si="2"/>
         <v>7.0270270270270274E-2</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="59">
         <f t="shared" si="3"/>
         <v>0.22972972972972971</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="61">
         <f t="shared" si="4"/>
         <v>0.52972972972972976</v>
       </c>
@@ -8346,15 +8478,15 @@
       <c r="M22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="59">
         <f t="shared" si="2"/>
         <v>0.15135135135135136</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="59">
         <f t="shared" si="3"/>
         <v>0.45135135135135135</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="61">
         <f t="shared" si="4"/>
         <v>0.75135135135135145</v>
       </c>
@@ -8451,15 +8583,15 @@
       <c r="M23" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="59">
         <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O23" s="59">
         <f t="shared" si="3"/>
         <v>0.35405405405405405</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="61">
         <f t="shared" si="4"/>
         <v>0.65405405405405403</v>
       </c>
@@ -8556,15 +8688,15 @@
       <c r="M24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="59">
         <f t="shared" si="2"/>
         <v>0.1891891891891892</v>
       </c>
-      <c r="O24" s="66">
+      <c r="O24" s="59">
         <f t="shared" si="3"/>
         <v>0.48918918918918919</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="61">
         <f t="shared" si="4"/>
         <v>0.78918918918918923</v>
       </c>
@@ -8661,15 +8793,15 @@
       <c r="M25" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N25" s="59">
         <f t="shared" si="2"/>
         <v>0.19459459459459461</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O25" s="59">
         <f t="shared" si="3"/>
         <v>0.49459459459459459</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="61">
         <f t="shared" si="4"/>
         <v>0.79459459459459469</v>
       </c>
@@ -8766,15 +8898,15 @@
       <c r="M26" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="59">
         <f t="shared" si="2"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="O26" s="66">
+      <c r="O26" s="59">
         <f t="shared" si="3"/>
         <v>0.46216216216216216</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="61">
         <f t="shared" si="4"/>
         <v>0.76216216216216215</v>
       </c>
@@ -8871,15 +9003,15 @@
       <c r="M27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="59">
         <f t="shared" si="2"/>
         <v>0.1891891891891892</v>
       </c>
-      <c r="O27" s="66">
+      <c r="O27" s="59">
         <f t="shared" si="3"/>
         <v>0.48918918918918919</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="61">
         <f t="shared" si="4"/>
         <v>0.78918918918918923</v>
       </c>
@@ -8976,15 +9108,15 @@
       <c r="M28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="66">
+      <c r="N28" s="59">
         <f t="shared" si="2"/>
         <v>0.17837837837837839</v>
       </c>
-      <c r="O28" s="66">
+      <c r="O28" s="59">
         <f t="shared" si="3"/>
         <v>0.47837837837837838</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="61">
         <f t="shared" si="4"/>
         <v>0.77837837837837842</v>
       </c>
@@ -9081,15 +9213,15 @@
       <c r="M29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="59">
         <f t="shared" si="2"/>
         <v>0.13513513513513514</v>
       </c>
-      <c r="O29" s="66">
+      <c r="O29" s="59">
         <f t="shared" si="3"/>
         <v>0.43513513513513513</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="61">
         <f t="shared" si="4"/>
         <v>0.73513513513513518</v>
       </c>
@@ -9186,15 +9318,15 @@
       <c r="M30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="59">
         <f t="shared" si="2"/>
         <v>0.19459459459459461</v>
       </c>
-      <c r="O30" s="66">
+      <c r="O30" s="59">
         <f t="shared" si="3"/>
         <v>0.49459459459459459</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="61">
         <f t="shared" si="4"/>
         <v>0.79459459459459469</v>
       </c>
@@ -10746,8 +10878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
   <dimension ref="B2:BB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F30"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10761,11 +10893,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="C2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
@@ -10791,12 +10923,12 @@
       <c r="AV3" s="38"/>
     </row>
     <row r="4" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
       </c>
@@ -10840,13 +10972,13 @@
       <c r="BB4" s="27"/>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="63" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -10912,9 +11044,9 @@
       <c r="BB5" s="27"/>
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -10973,8 +11105,8 @@
       <c r="AL6" s="35"/>
       <c r="AM6" s="35"/>
       <c r="AN6" s="36"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="69"/>
       <c r="AQ6" s="38"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="38"/>
@@ -10985,25 +11117,25 @@
       <c r="AX6" s="29"/>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="30"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
         <f>MIN(C$7:C$30)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="32">
         <f>MAX(C$7:C$30)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="62">
         <f xml:space="preserve"> ((C7 - $D$7) / ($E$7 - $D$7))</f>
         <v>0</v>
       </c>
@@ -11019,15 +11151,15 @@
       <c r="M7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="60">
         <f>SQRT((F7- $I$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="60">
         <f>SQRT((F7- $I$7)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="62">
         <f>SQRT((F7- $I$8)^2)</f>
         <v>1</v>
       </c>
@@ -11090,21 +11222,21 @@
       <c r="BB7" s="32"/>
     </row>
     <row r="8" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D31" si="0">MIN(C$7:C$30)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E31" si="1">MAX(C$7:C$30)</f>
+      <c r="D8" s="32">
+        <f t="shared" ref="D8:D30" si="0">MIN(C$7:C$30)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8:E30" si="1">MAX(C$7:C$30)</f>
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="62">
         <f t="shared" ref="F8:F30" si="2" xml:space="preserve"> ((C8 - $D$7) / ($E$7 - $D$7))</f>
         <v>0.33333333333333331</v>
       </c>
@@ -11120,16 +11252,16 @@
       <c r="M8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="60">
         <f t="shared" ref="N8:N30" si="3">SQRT((F8- $I$6)^2)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="60">
         <f t="shared" ref="O8:O30" si="4">SQRT((F8- $I$7)^2)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P8" s="69">
-        <f t="shared" ref="P8:P30" si="5">SQRT((F8- $I$8)^2)</f>
+      <c r="P8" s="62">
+        <f t="shared" ref="P8:P29" si="5">SQRT((F8- $I$8)^2)</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="Q8" s="38" t="s">
@@ -11191,36 +11323,36 @@
       <c r="BB8" s="32"/>
     </row>
     <row r="9" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="32">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="62">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="60">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="P9" s="69">
+      <c r="P9" s="62">
         <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
@@ -11272,36 +11404,36 @@
       <c r="BB9" s="32"/>
     </row>
     <row r="10" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="32">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P10" s="69">
+      <c r="P10" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -11353,36 +11485,36 @@
       <c r="BB10" s="32"/>
     </row>
     <row r="11" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="32">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="67">
+      <c r="N11" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P11" s="69">
+      <c r="P11" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -11434,36 +11566,36 @@
       <c r="BB11" s="32"/>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="32">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="67">
-        <f t="shared" si="3"/>
+      <c r="N12" s="60">
+        <f>SQRT((F12- $I$6)^2)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P12" s="69">
+      <c r="P12" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -11515,36 +11647,36 @@
       <c r="BB12" s="32"/>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="67">
+      <c r="N13" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P13" s="69">
+      <c r="P13" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11596,36 +11728,36 @@
       <c r="BB13" s="32"/>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="32">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="67">
+      <c r="N14" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -11677,37 +11809,37 @@
       <c r="BB14" s="32"/>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="32">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O15" s="67">
-        <f t="shared" si="4"/>
+      <c r="O15" s="60">
+        <f>SQRT((F15- $I$7)^2)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P15" s="69">
-        <f t="shared" si="5"/>
+      <c r="P15" s="62">
+        <f>SQRT((F15- $I$8)^2)</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="Q15" s="38" t="s">
@@ -11758,36 +11890,36 @@
       <c r="BB15" s="32"/>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="67">
+      <c r="N16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="67">
+      <c r="O16" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11839,36 +11971,36 @@
       <c r="BB16" s="32"/>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="67">
+      <c r="N17" s="60">
         <f>SQRT((F17- $I$6)^2)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="67">
+      <c r="O17" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11920,36 +12052,36 @@
       <c r="BB17" s="32"/>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="67">
+      <c r="N18" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12001,36 +12133,36 @@
       <c r="BB18" s="32"/>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P19" s="69">
+      <c r="P19" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12082,36 +12214,36 @@
       <c r="BB19" s="32"/>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="32">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P20" s="69">
+      <c r="P20" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12163,36 +12295,36 @@
       <c r="BB20" s="32"/>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="62">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -12244,36 +12376,36 @@
       <c r="BB21" s="32"/>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="67">
+      <c r="N22" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12325,36 +12457,36 @@
       <c r="BB22" s="32"/>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="32">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12406,36 +12538,36 @@
       <c r="BB23" s="32"/>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12487,36 +12619,36 @@
       <c r="BB24" s="32"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="67">
+      <c r="N25" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O25" s="67">
+      <c r="O25" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P25" s="69">
+      <c r="P25" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12589,15 +12721,15 @@
       <c r="M26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="67">
+      <c r="N26" s="60">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O26" s="67">
+      <c r="O26" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="P26" s="69">
+      <c r="P26" s="62">
         <f t="shared" si="5"/>
         <v>0.66666666666666674</v>
       </c>
@@ -12649,36 +12781,36 @@
       <c r="BB26" s="32"/>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="32">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="67">
+      <c r="N27" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="67">
+      <c r="O27" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P27" s="69">
+      <c r="P27" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12730,36 +12862,36 @@
       <c r="BB27" s="32"/>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="32">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="67">
+      <c r="N28" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="67">
+      <c r="O28" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P28" s="69">
+      <c r="P28" s="62">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -12832,15 +12964,15 @@
       <c r="M29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="67">
+      <c r="N29" s="60">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O29" s="67">
+      <c r="O29" s="60">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="P29" s="69">
+      <c r="P29" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -12913,15 +13045,15 @@
       <c r="M30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="67">
+      <c r="N30" s="60">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O30" s="67">
+      <c r="O30" s="60">
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="P30" s="69">
+      <c r="P30" s="62">
         <f>SQRT((F30- $I$8)^2)</f>
         <v>0.33333333333333337</v>
       </c>
@@ -13479,14 +13611,533 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="AO6:AP6"/>
     <mergeCell ref="BA6:BB6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF750BB8-12B1-4DDA-A3C7-AD936B93E529}">
+  <dimension ref="A3:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="76">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="76">
+        <v>0.96</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0.94</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="76">
+        <v>0.11</v>
+      </c>
+      <c r="E7" s="76">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0.27</v>
+      </c>
+      <c r="D8" s="76">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="76">
+        <v>0</v>
+      </c>
+      <c r="D9" s="76">
+        <v>0.18</v>
+      </c>
+      <c r="E9" s="76">
+        <v>0.97</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76">
+        <v>0.21</v>
+      </c>
+      <c r="C10" s="76">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="76">
+        <v>0</v>
+      </c>
+      <c r="E10" s="76">
+        <v>0.79</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="76">
+        <v>0.16</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="76">
+        <v>1</v>
+      </c>
+      <c r="C12" s="76">
+        <v>0.97</v>
+      </c>
+      <c r="D12" s="76">
+        <v>0.79</v>
+      </c>
+      <c r="E12" s="76">
+        <v>0</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="76">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="76">
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="76">
+        <v>0.85</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="76">
+        <v>0.16</v>
+      </c>
+      <c r="E14" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="76">
+        <v>0.16</v>
+      </c>
+      <c r="C16" s="76">
+        <v>0.13</v>
+      </c>
+      <c r="D16" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="76">
+        <v>0.84</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="76">
+        <v>0</v>
+      </c>
+      <c r="C17" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="76">
+        <v>0.21</v>
+      </c>
+      <c r="E17" s="76">
+        <v>1</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="76">
+        <v>0.24</v>
+      </c>
+      <c r="C18" s="76">
+        <v>0.21</v>
+      </c>
+      <c r="D18" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="76">
+        <v>0.76</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76">
+        <v>0.27</v>
+      </c>
+      <c r="C19" s="76">
+        <v>0.24</v>
+      </c>
+      <c r="D19" s="76">
+        <v>0.06</v>
+      </c>
+      <c r="E19" s="76">
+        <v>0.73</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="76">
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="76">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="76">
+        <v>0.06</v>
+      </c>
+      <c r="E21" s="76">
+        <v>0.85</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="76">
+        <v>0.04</v>
+      </c>
+      <c r="C24" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="76">
+        <v>0.17</v>
+      </c>
+      <c r="E24" s="76">
+        <v>0.96</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="76">
+        <v>0.19</v>
+      </c>
+      <c r="E26" s="76">
+        <v>0.98</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="76">
+        <v>0.06</v>
+      </c>
+      <c r="C27" s="76">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="76">
+        <v>0.94</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="76">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="76">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1EA45-D239-4AB9-949B-6188FE6F5C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6747D75-2645-4C78-B9E5-940D6626E4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -806,6 +806,25 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,25 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,53 +1179,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="70">
         <v>2021</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70">
         <v>2022</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="70">
         <v>2021</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63">
+      <c r="L5" s="70"/>
+      <c r="M5" s="70">
         <v>2022</v>
       </c>
-      <c r="N5" s="63"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1238,8 +1238,8 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="G6" s="70"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2269,23 +2269,23 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="70">
         <f>C31+D31</f>
         <v>219</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63">
+      <c r="D32" s="70"/>
+      <c r="E32" s="70">
         <f>E31+F31</f>
         <v>178</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="70"/>
       <c r="J32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -2347,11 +2347,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -2360,6 +2355,11 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,19 +2387,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
       <c r="L3" t="s">
         <v>31</v>
       </c>
@@ -2408,12 +2408,12 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="R4" s="27" t="s">
         <v>46</v>
       </c>
@@ -2457,14 +2457,14 @@
       <c r="BG4" s="27"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="70">
         <v>2024</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
@@ -2547,14 +2547,14 @@
       <c r="BG5" s="27"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="70"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2591,10 +2591,10 @@
       <c r="U6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="65" t="s">
+      <c r="V6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="72"/>
       <c r="Y6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2619,10 +2619,10 @@
       <c r="AG6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="65" t="s">
+      <c r="AH6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="65"/>
+      <c r="AI6" s="72"/>
       <c r="AK6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2647,10 +2647,10 @@
       <c r="AS6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AT6" s="65" t="s">
+      <c r="AT6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="65"/>
+      <c r="AU6" s="72"/>
       <c r="AW6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2668,10 +2668,10 @@
       <c r="BE6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BF6" s="65" t="s">
+      <c r="BF6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="65"/>
+      <c r="BG6" s="72"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5207,14 +5207,14 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="70">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="70"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -5239,12 +5239,12 @@
     <row r="34" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="70"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="70"/>
       <c r="R35" t="s">
         <v>33</v>
       </c>
@@ -5411,6 +5411,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -5419,11 +5424,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5442,12 +5442,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="C1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
@@ -5458,22 +5458,22 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="70">
         <v>2024</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -5493,14 +5493,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="63"/>
+      <c r="E5" s="70"/>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
@@ -5742,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7247C1F-547F-40E3-8593-729479C08754}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,7 +5752,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="73" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="45">
@@ -5769,7 +5769,7 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="48" t="s">
         <v>58</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="51" t="s">
         <v>59</v>
       </c>
@@ -6473,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
   <dimension ref="A2:BM61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6489,9 +6489,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="K2" s="38"/>
       <c r="W2" s="38"/>
       <c r="AQ2" s="38"/>
@@ -6552,12 +6552,12 @@
       <c r="BM3" s="38"/>
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="38"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
@@ -6615,13 +6615,13 @@
       <c r="BM4" s="38"/>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="70" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -6706,9 +6706,9 @@
       <c r="BM5" s="38"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -6797,8 +6797,8 @@
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="36"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
       <c r="BE6" s="38"/>
@@ -7631,7 +7631,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="68">
         <f>G13/23</f>
         <v>8.8131609870740299E-2</v>
       </c>
@@ -10878,8 +10878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
   <dimension ref="B2:BB54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10893,11 +10893,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
@@ -10923,12 +10923,12 @@
       <c r="AV3" s="38"/>
     </row>
     <row r="4" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
       </c>
@@ -10972,13 +10972,13 @@
       <c r="BB4" s="27"/>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="70" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -11044,9 +11044,9 @@
       <c r="BB5" s="27"/>
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -11105,8 +11105,8 @@
       <c r="AL6" s="35"/>
       <c r="AM6" s="35"/>
       <c r="AN6" s="36"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
       <c r="AQ6" s="38"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="38"/>
@@ -11117,8 +11117,8 @@
       <c r="AX6" s="29"/>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="30"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="72"/>
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
@@ -13611,13 +13611,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="AO6:AP6"/>
     <mergeCell ref="BA6:BB6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13627,7 +13627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF750BB8-12B1-4DDA-A3C7-AD936B93E529}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:F28"/>
     </sheetView>
   </sheetViews>
@@ -13638,502 +13638,502 @@
   <sheetData>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="65" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="69">
         <v>0.04</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="69">
         <v>0.01</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="69">
         <v>0.17</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="69">
         <v>0.96</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="69">
         <v>0.06</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="69">
         <v>0.03</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="69">
         <v>0.15</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="69">
         <v>0.94</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="69">
         <v>0.1</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="69">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="69">
         <v>0.11</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="69">
         <v>0.9</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="69">
         <v>0.3</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="69">
         <v>0.27</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="69">
         <v>0.09</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="69">
         <v>0.7</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="69">
         <v>0.03</v>
       </c>
-      <c r="C9" s="76">
-        <v>0</v>
-      </c>
-      <c r="D9" s="76">
+      <c r="C9" s="69">
+        <v>0</v>
+      </c>
+      <c r="D9" s="69">
         <v>0.18</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="69">
         <v>0.97</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="69">
         <v>0.21</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="69">
         <v>0.18</v>
       </c>
-      <c r="D10" s="76">
-        <v>0</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="D10" s="69">
+        <v>0</v>
+      </c>
+      <c r="E10" s="69">
         <v>0.79</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="69">
         <v>0.05</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="69">
         <v>0.02</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="69">
         <v>0.16</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="69">
         <v>0.95</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="69">
         <v>1</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="69">
         <v>0.97</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="69">
         <v>0.79</v>
       </c>
-      <c r="E12" s="76">
-        <v>0</v>
-      </c>
-      <c r="F12" s="74" t="s">
+      <c r="E12" s="69">
+        <v>0</v>
+      </c>
+      <c r="F12" s="67" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="69">
         <v>0.15</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="69">
         <v>0.12</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="69">
         <v>0.06</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="69">
         <v>0.85</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="69">
         <v>0.05</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="69">
         <v>0.02</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="69">
         <v>0.16</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="69">
         <v>0.95</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="69">
         <v>0.01</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="69">
         <v>0.02</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="69">
         <v>0.2</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="69">
         <v>0.99</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="69">
         <v>0.16</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="69">
         <v>0.13</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="69">
         <v>0.05</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="69">
         <v>0.84</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="76">
-        <v>0</v>
-      </c>
-      <c r="C17" s="76">
+      <c r="B17" s="69">
+        <v>0</v>
+      </c>
+      <c r="C17" s="69">
         <v>0.03</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="69">
         <v>0.21</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="69">
         <v>1</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="69">
         <v>0.24</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="69">
         <v>0.21</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="69">
         <v>0.03</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="69">
         <v>0.76</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="69">
         <v>0.27</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="69">
         <v>0.24</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="69">
         <v>0.06</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="69">
         <v>0.73</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="69">
         <v>0.05</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="69">
         <v>0.02</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="69">
         <v>0.16</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="69">
         <v>0.95</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="69">
         <v>0.15</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="69">
         <v>0.12</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="69">
         <v>0.06</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="69">
         <v>0.85</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="69">
         <v>0.01</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="69">
         <v>0.02</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="69">
         <v>0.2</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="69">
         <v>0.99</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="69">
         <v>0.01</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="69">
         <v>0.02</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="69">
         <v>0.2</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="69">
         <v>0.99</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="69">
         <v>0.04</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="69">
         <v>0.01</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="69">
         <v>0.17</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="69">
         <v>0.96</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="69">
         <v>0.01</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="69">
         <v>0.02</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="69">
         <v>0.2</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="69">
         <v>0.99</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="69">
         <v>0.02</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="69">
         <v>0.01</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="69">
         <v>0.19</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="69">
         <v>0.98</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="69">
         <v>0.06</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="69">
         <v>0.03</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="69">
         <v>0.15</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="69">
         <v>0.94</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="69">
         <v>0.01</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="69">
         <v>0.02</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="69">
         <v>0.2</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="69">
         <v>0.99</v>
       </c>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="67" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6747D75-2645-4C78-B9E5-940D6626E4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E536D8-FD03-4137-BD36-23C4E8E141CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="89">
   <si>
     <t>DATA CURAS DAN CURANMOR KAB PROBOLINGGO 2021 - 2022</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>Krejengan</t>
+  </si>
+  <si>
+    <t>POLSEK SUMBERASIH</t>
+  </si>
+  <si>
+    <t>POLSEK TONGAS</t>
+  </si>
+  <si>
+    <t>POLSEK WONOMERTO</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +854,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2347,6 +2365,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G5:G6"/>
@@ -2355,11 +2378,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5411,11 +5429,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="I32:J32"/>
@@ -5424,6 +5437,11 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5740,29 +5758,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7247C1F-547F-40E3-8593-729479C08754}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="45">
-        <v>2024</v>
+      <c r="B1" s="46">
+        <v>2022</v>
       </c>
       <c r="C1" s="46">
         <v>2023</v>
       </c>
-      <c r="D1" s="46">
-        <v>2022</v>
+      <c r="D1" s="45">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>57</v>
       </c>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
@@ -5770,15 +5792,16 @@
     </row>
     <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>58</v>
       </c>
+      <c r="G2" s="74"/>
       <c r="H2" s="50" t="s">
         <v>56</v>
       </c>
@@ -5791,15 +5814,16 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>59</v>
       </c>
+      <c r="G3" s="75"/>
       <c r="H3" s="52" t="s">
         <v>59</v>
       </c>
@@ -5810,518 +5834,569 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="54">
+        <v>62</v>
+      </c>
+      <c r="B4" s="55">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2</v>
+      </c>
+      <c r="D4" s="54">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>D4+C4+B4</f>
+        <v>11</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>J4+I4+H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5" s="55">
+        <v>8</v>
+      </c>
+      <c r="D5" s="54">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>D5+C5+B5</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="55">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55">
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>J5+I5+H5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="55">
+        <v>15</v>
+      </c>
+      <c r="C6" s="55">
+        <v>4</v>
+      </c>
+      <c r="D6" s="54">
         <v>2</v>
       </c>
-      <c r="E4">
-        <f>B4+C4+D4</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55">
-        <v>0</v>
-      </c>
-      <c r="J4" s="55">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>H4+I4+J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="54">
-        <v>0</v>
-      </c>
-      <c r="C5" s="55">
-        <v>4</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="E6">
+        <f>D6+C6+B6</f>
+        <v>21</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="55">
         <v>1</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E23" si="0">B5+C5+D5</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0</v>
-      </c>
-      <c r="J5" s="55">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K24" si="1">H5+I5+J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="54">
-        <v>5</v>
-      </c>
-      <c r="C6" s="55">
+      <c r="I6" s="55">
+        <v>1</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>J6+I6+H6</f>
         <v>2</v>
-      </c>
-      <c r="D6" s="55">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="55">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="54">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="55">
+        <v>11</v>
       </c>
       <c r="C7" s="55">
+        <v>26</v>
+      </c>
+      <c r="D7" s="54">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <f>D7+C7+B7</f>
+        <v>59</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="55">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>J7+I7+H7</f>
         <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="55">
-        <v>0</v>
-      </c>
-      <c r="I7" s="55">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="54">
+        <v>74</v>
+      </c>
+      <c r="B8" s="55">
+        <v>3</v>
+      </c>
+      <c r="C8" s="55">
         <v>1</v>
       </c>
-      <c r="C8" s="55">
-        <v>2</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>D8+C8+B8</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
         <v>1</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
-        <v>0</v>
-      </c>
-      <c r="J8" s="55">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>J8+I8+H8</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="54">
+        <v>70</v>
+      </c>
+      <c r="B9" s="55">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55">
+        <v>17</v>
+      </c>
+      <c r="D9" s="54">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <f>D9+C9+B9</f>
+        <v>42</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>J9+I9+H9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="55">
+        <v>10</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>D10+C10+B10</f>
         <v>13</v>
       </c>
-      <c r="C9" s="55">
-        <v>16</v>
-      </c>
-      <c r="D9" s="55">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="54">
+      <c r="G10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>J10+I10+H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="55">
+        <v>100</v>
+      </c>
+      <c r="C11" s="55">
+        <v>51</v>
+      </c>
+      <c r="D11" s="54">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f>D11+C11+B11</f>
+        <v>188</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
         <v>1</v>
       </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H10" s="55">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="54">
-        <v>4</v>
-      </c>
-      <c r="C11" s="55">
-        <v>8</v>
-      </c>
-      <c r="D11" s="55">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
       <c r="J11" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f>J11+I11+H11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="54">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B12" s="55">
+        <v>20</v>
       </c>
       <c r="C12" s="55">
-        <v>26</v>
-      </c>
-      <c r="D12" s="55">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="54">
+        <v>9</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>D12+C12+B12</f>
+        <v>30</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>75</v>
       </c>
       <c r="H12" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="55">
         <v>0</v>
       </c>
       <c r="J12" s="55">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>J12+I12+H12</f>
         <v>1</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="58">
+        <v>2</v>
+      </c>
+      <c r="C13" s="58">
+        <v>8</v>
+      </c>
+      <c r="D13" s="57">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>D13+C13+B13</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>J13+I13+H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="54">
-        <v>21</v>
-      </c>
-      <c r="C13" s="55">
-        <v>10</v>
-      </c>
-      <c r="D13" s="55">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H13" s="55">
-        <v>0</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0</v>
-      </c>
-      <c r="J13" s="55">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="54">
-        <v>18</v>
-      </c>
       <c r="C14" s="55">
-        <v>17</v>
-      </c>
-      <c r="D14" s="55">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="54">
+        <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>D14+C14+B14</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="55">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>J14+I14+H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="55">
+        <v>4</v>
+      </c>
+      <c r="C15" s="55">
+        <v>16</v>
+      </c>
+      <c r="D15" s="54">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f>D15+C15+B15</f>
+        <v>33</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <v>0</v>
+      </c>
+      <c r="J15" s="55">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>J15+I15+H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="55">
+        <v>2</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54">
         <v>1</v>
       </c>
-      <c r="I14" s="55">
-        <v>0</v>
-      </c>
-      <c r="J14" s="55">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="54">
-        <v>10</v>
-      </c>
-      <c r="C15" s="55">
-        <v>12</v>
-      </c>
-      <c r="D15" s="55">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="55">
-        <v>0</v>
-      </c>
-      <c r="J15" s="55">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="54">
-        <v>37</v>
-      </c>
-      <c r="C16" s="55">
-        <v>51</v>
-      </c>
-      <c r="D16" s="55">
-        <v>100</v>
-      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>188</v>
+        <f>D16+C16+B16</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="H16" s="55">
         <v>0</v>
       </c>
       <c r="I16" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="55">
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J16+I16+H16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="54">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B17" s="55">
+        <v>17</v>
       </c>
       <c r="C17" s="55">
-        <v>4</v>
-      </c>
-      <c r="D17" s="55">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="54">
+        <v>21</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>D17+C17+B17</f>
+        <v>48</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="H17" s="55">
         <v>0</v>
       </c>
       <c r="I17" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>J17+I17+H17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="54">
+        <v>77</v>
+      </c>
+      <c r="B18" s="55">
+        <v>14</v>
+      </c>
+      <c r="C18" s="55">
+        <v>25</v>
+      </c>
+      <c r="D18" s="54">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <f>D18+C18+B18</f>
+        <v>53</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55">
+        <v>1</v>
+      </c>
+      <c r="J18" s="55">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>J18+I18+H18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="55">
         <v>4</v>
       </c>
-      <c r="C18" s="55">
-        <v>1</v>
-      </c>
-      <c r="D18" s="55">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="C19" s="55">
+        <v>4</v>
+      </c>
+      <c r="D19" s="54">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>D19+C19+B19</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
+        <v>0</v>
+      </c>
+      <c r="J19" s="55">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>J19+I19+H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="55">
         <v>8</v>
       </c>
-      <c r="H18" s="55">
-        <v>1</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0</v>
-      </c>
-      <c r="J18" s="55">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="54">
-        <v>9</v>
-      </c>
-      <c r="C19" s="55">
-        <v>1</v>
-      </c>
-      <c r="D19" s="55">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="C20" s="55">
+        <v>12</v>
+      </c>
+      <c r="D20" s="54">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f>D20+C20+B20</f>
         <v>30</v>
       </c>
-      <c r="H19" s="55">
-        <v>0</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0</v>
-      </c>
-      <c r="J19" s="55">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="54">
-        <v>0</v>
-      </c>
-      <c r="C20" s="55">
-        <v>3</v>
-      </c>
-      <c r="D20" s="55">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="G20" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="H20" s="55">
         <v>0</v>
@@ -6333,137 +6408,252 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f>J20+I20+H20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="54">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
       </c>
       <c r="C21" s="55">
-        <v>25</v>
-      </c>
-      <c r="D21" s="55">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
       </c>
       <c r="E21">
-        <f>B21+C21+D21</f>
-        <v>53</v>
+        <f>D21+C21+B21</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="55">
         <v>0</v>
       </c>
       <c r="I21" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="55">
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J21+I21+H21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="54">
+        <v>64</v>
+      </c>
+      <c r="B22" s="55">
+        <v>1</v>
+      </c>
+      <c r="C22" s="55">
+        <v>2</v>
+      </c>
+      <c r="D22" s="54">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>D22+C22+B22</f>
         <v>4</v>
       </c>
-      <c r="C22" s="55">
+      <c r="G22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="55">
+        <v>0</v>
+      </c>
+      <c r="I22" s="55">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>J22+I22+H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="79">
+        <v>3</v>
+      </c>
+      <c r="C23" s="79">
+        <v>2</v>
+      </c>
+      <c r="D23" s="78">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f>D23+C23+B23</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="79">
+        <v>0</v>
+      </c>
+      <c r="I23" s="79">
+        <v>0</v>
+      </c>
+      <c r="J23" s="79">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>J23+I23+H23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="55">
+        <v>3</v>
+      </c>
+      <c r="C24" s="55">
+        <v>1</v>
+      </c>
+      <c r="D24" s="54">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>D24+C24+B24</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>J24+I24+H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="55">
         <v>4</v>
       </c>
-      <c r="D22" s="55">
+      <c r="C25" s="55">
+        <v>1</v>
+      </c>
+      <c r="D25" s="54">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f>D25+C25+B25</f>
+        <v>7</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>J25+I25+H25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="77">
+        <v>5</v>
+      </c>
+      <c r="C26" s="77">
+        <v>5</v>
+      </c>
+      <c r="D26" s="77">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f>D26+C26+B26</f>
+        <v>15</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="77">
+        <v>0</v>
+      </c>
+      <c r="I26" s="77">
+        <v>0</v>
+      </c>
+      <c r="J26" s="77">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <f>J26+I26+H26</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="77">
+        <v>2</v>
+      </c>
+      <c r="C27" s="77">
+        <v>0</v>
+      </c>
+      <c r="D27" s="77">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f>D27+C27+B27</f>
         <v>4</v>
       </c>
-      <c r="E22">
-        <f>B22+C22+D22</f>
-        <v>12</v>
-      </c>
-      <c r="H22" s="55">
-        <v>0</v>
-      </c>
-      <c r="I22" s="55">
-        <v>0</v>
-      </c>
-      <c r="J22" s="55">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="54">
+      <c r="G27" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="77">
+        <v>0</v>
+      </c>
+      <c r="I27" s="77">
+        <v>0</v>
+      </c>
+      <c r="J27" s="77">
         <v>2</v>
       </c>
-      <c r="C23" s="55">
-        <v>1</v>
-      </c>
-      <c r="D23" s="55">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="57">
-        <v>3</v>
-      </c>
-      <c r="C24" s="58">
-        <v>8</v>
-      </c>
-      <c r="D24" s="58">
+      <c r="K27">
+        <f>J27+I27+H27</f>
         <v>2</v>
       </c>
-      <c r="E24">
-        <f>B24+C24+D24</f>
-        <v>13</v>
-      </c>
-      <c r="H24" s="58">
-        <v>0</v>
-      </c>
-      <c r="I24" s="58">
-        <v>0</v>
-      </c>
-      <c r="J24" s="58">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6473,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E50C3-E510-44DF-9648-92EC3D48E3D3}">
   <dimension ref="A2:BM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10878,8 +11068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A07BDC3-86C1-49BC-A7E6-7DF335B10BC5}">
   <dimension ref="B2:BB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13611,13 +13801,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13627,8 +13817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF750BB8-12B1-4DDA-A3C7-AD936B93E529}">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Perhitungan K-Means K_3.xlsx
+++ b/Perhitungan K-Means K_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E536D8-FD03-4137-BD36-23C4E8E141CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBC9E9-47FD-47BB-96FB-42667914C92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3" xr2:uid="{204938CF-0984-440D-97FB-7D0080130912}"/>
   </bookViews>
   <sheets>
     <sheet name="Normalisasi" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +834,9 @@
     <xf numFmtId="2" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,15 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,53 +1191,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="71">
         <v>2021</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71">
         <v>2022</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="71">
         <v>2021</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71">
         <v>2022</v>
       </c>
-      <c r="N5" s="70"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1256,8 +1250,8 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2287,23 +2281,23 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="71">
         <f>C31+D31</f>
         <v>219</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71">
         <f>E31+F31</f>
         <v>178</v>
       </c>
-      <c r="F32" s="70"/>
+      <c r="F32" s="71"/>
       <c r="J32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -2405,19 +2399,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
       <c r="L3" t="s">
         <v>31</v>
       </c>
@@ -2426,12 +2420,12 @@
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="R4" s="27" t="s">
         <v>46</v>
       </c>
@@ -2475,14 +2469,14 @@
       <c r="BG4" s="27"/>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="71">
         <v>2024</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="4"/>
@@ -2565,14 +2559,14 @@
       <c r="BG5" s="27"/>
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="70"/>
+      <c r="E6" s="71"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2609,10 +2603,10 @@
       <c r="U6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="72"/>
+      <c r="W6" s="73"/>
       <c r="Y6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2637,10 +2631,10 @@
       <c r="AG6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="72" t="s">
+      <c r="AH6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="72"/>
+      <c r="AI6" s="73"/>
       <c r="AK6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2665,10 +2659,10 @@
       <c r="AS6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AT6" s="72" t="s">
+      <c r="AT6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="72"/>
+      <c r="AU6" s="73"/>
       <c r="AW6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2686,10 +2680,10 @@
       <c r="BE6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BF6" s="72" t="s">
+      <c r="BF6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="BG6" s="72"/>
+      <c r="BG6" s="73"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5225,14 +5219,14 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="71">
         <f>C31+D31</f>
         <v>210</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="71"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
@@ -5257,12 +5251,12 @@
     <row r="34" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="H34" s="70"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="H35" s="70"/>
+      <c r="H35" s="71"/>
       <c r="R35" t="s">
         <v>33</v>
       </c>
@@ -5460,12 +5454,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="C1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
@@ -5476,22 +5470,22 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="71">
         <v>2024</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
@@ -5511,14 +5505,14 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
@@ -5760,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7247C1F-547F-40E3-8593-729479C08754}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,7 +5765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="46">
@@ -5783,7 +5777,7 @@
       <c r="D1" s="45">
         <v>2024</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="74" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="47"/>
@@ -5791,7 +5785,7 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="49" t="s">
         <v>58</v>
       </c>
@@ -5801,7 +5795,7 @@
       <c r="D2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="50" t="s">
         <v>56</v>
       </c>
@@ -5813,7 +5807,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="52" t="s">
         <v>59</v>
       </c>
@@ -5823,7 +5817,7 @@
       <c r="D3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="52" t="s">
         <v>59</v>
       </c>
@@ -5848,8 +5842,11 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>D4+C4+B4</f>
+        <f t="shared" ref="E4:E27" si="0">D4+C4+B4</f>
         <v>11</v>
+      </c>
+      <c r="F4" s="70">
+        <v>1</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>62</v>
@@ -5864,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>J4+I4+H4</f>
+        <f t="shared" ref="K4:K27" si="1">J4+I4+H4</f>
         <v>0</v>
       </c>
     </row>
@@ -5882,8 +5879,11 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>D5+C5+B5</f>
+        <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="F5" s="70">
+        <v>2</v>
       </c>
       <c r="G5" s="53" t="s">
         <v>67</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>J5+I5+H5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5916,8 +5916,11 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>D6+C6+B6</f>
+        <f t="shared" si="0"/>
         <v>21</v>
+      </c>
+      <c r="F6" s="70">
+        <v>3</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>73</v>
@@ -5932,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>J6+I6+H6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5950,8 +5953,11 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <f>D7+C7+B7</f>
+        <f t="shared" si="0"/>
         <v>59</v>
+      </c>
+      <c r="F7" s="70">
+        <v>4</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>68</v>
@@ -5966,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>J7+I7+H7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5984,8 +5990,11 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <f>D8+C8+B8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="F8" s="70">
+        <v>5</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>74</v>
@@ -6000,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <f>J8+I8+H8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6018,8 +6027,11 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <f>D9+C9+B9</f>
+        <f t="shared" si="0"/>
         <v>42</v>
+      </c>
+      <c r="F9" s="70">
+        <v>6</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>70</v>
@@ -6034,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <f>J9+I9+H9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6052,8 +6064,11 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f>D10+C10+B10</f>
+        <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="F10" s="70">
+        <v>7</v>
       </c>
       <c r="G10" s="53" t="s">
         <v>76</v>
@@ -6068,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>J10+I10+H10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6086,8 +6101,11 @@
         <v>37</v>
       </c>
       <c r="E11">
-        <f>D11+C11+B11</f>
+        <f t="shared" si="0"/>
         <v>188</v>
+      </c>
+      <c r="F11" s="70">
+        <v>8</v>
       </c>
       <c r="G11" s="53" t="s">
         <v>72</v>
@@ -6102,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>J11+I11+H11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6120,8 +6138,11 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <f>D12+C12+B12</f>
+        <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="F12" s="70">
+        <v>9</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>75</v>
@@ -6136,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>J12+I12+H12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6154,8 +6175,11 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <f>D13+C13+B13</f>
+        <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="F13" s="70">
+        <v>10</v>
       </c>
       <c r="G13" s="56" t="s">
         <v>80</v>
@@ -6170,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>J13+I13+H13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6188,8 +6212,11 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>D14+C14+B14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="F14" s="70">
+        <v>11</v>
       </c>
       <c r="G14" s="53" t="s">
         <v>63</v>
@@ -6204,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f>J14+I14+H14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6222,8 +6249,11 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <f>D15+C15+B15</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F15" s="70">
+        <v>12</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>65</v>
@@ -6238,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>J15+I15+H15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6256,8 +6286,11 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>D16+C16+B16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="F16" s="70">
+        <v>13</v>
       </c>
       <c r="G16" s="53" t="s">
         <v>60</v>
@@ -6272,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>J16+I16+H16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6290,8 +6323,11 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <f>D17+C17+B17</f>
+        <f t="shared" si="0"/>
         <v>48</v>
+      </c>
+      <c r="F17" s="70">
+        <v>14</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>69</v>
@@ -6306,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>J17+I17+H17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6324,8 +6360,11 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <f>D18+C18+B18</f>
+        <f t="shared" si="0"/>
         <v>53</v>
+      </c>
+      <c r="F18" s="70">
+        <v>15</v>
       </c>
       <c r="G18" s="53" t="s">
         <v>77</v>
@@ -6340,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>J18+I18+H18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6358,8 +6397,11 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <f>D19+C19+B19</f>
+        <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="F19" s="70">
+        <v>16</v>
       </c>
       <c r="G19" s="53" t="s">
         <v>78</v>
@@ -6374,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>J19+I19+H19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,8 +6434,11 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>D20+C20+B20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="F20" s="70">
+        <v>17</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>71</v>
@@ -6408,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f>J20+I20+H20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6426,8 +6471,11 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f>D21+C21+B21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="F21" s="70">
+        <v>18</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>61</v>
@@ -6442,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f>J21+I21+H21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6460,8 +6508,11 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>D22+C22+B22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="F22" s="70">
+        <v>19</v>
       </c>
       <c r="G22" s="53" t="s">
         <v>64</v>
@@ -6476,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>J22+I22+H22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6484,33 +6535,36 @@
       <c r="A23" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="58">
         <v>3</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="58">
         <v>2</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="57">
         <v>5</v>
       </c>
       <c r="E23">
-        <f>D23+C23+B23</f>
+        <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="F23" s="70">
+        <v>20</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="79">
-        <v>0</v>
-      </c>
-      <c r="I23" s="79">
-        <v>0</v>
-      </c>
-      <c r="J23" s="79">
+      <c r="H23" s="58">
+        <v>0</v>
+      </c>
+      <c r="I23" s="58">
+        <v>0</v>
+      </c>
+      <c r="J23" s="58">
         <v>1</v>
       </c>
       <c r="K23">
-        <f>J23+I23+H23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6528,8 +6582,11 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>D24+C24+B24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="F24" s="70">
+        <v>21</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>66</v>
@@ -6544,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f>J24+I24+H24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6562,8 +6619,11 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>D25+C25+B25</f>
+        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="F25" s="70">
+        <v>22</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>79</v>
@@ -6578,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>J25+I25+H25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6586,33 +6646,36 @@
       <c r="A26" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="70">
         <v>5</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="70">
         <v>5</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="70">
         <v>5</v>
       </c>
       <c r="E26">
-        <f>D26+C26+B26</f>
+        <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="F26" s="70">
+        <v>23</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="77">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77">
-        <v>0</v>
-      </c>
-      <c r="J26" s="77">
+      <c r="H26" s="70">
+        <v>0</v>
+      </c>
+      <c r="I26" s="70">
+        <v>0</v>
+      </c>
+      <c r="J26" s="70">
         <v>3</v>
       </c>
       <c r="K26">
-        <f>J26+I26+H26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -6620,33 +6683,36 @@
       <c r="A27" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="70">
         <v>2</v>
       </c>
-      <c r="C27" s="77">
-        <v>0</v>
-      </c>
-      <c r="D27" s="77">
+      <c r="C27" s="70">
+        <v>0</v>
+      </c>
+      <c r="D27" s="70">
         <v>2</v>
       </c>
       <c r="E27">
-        <f>D27+C27+B27</f>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="F27" s="70">
+        <v>24</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="77">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77">
-        <v>0</v>
-      </c>
-      <c r="J27" s="77">
+      <c r="H27" s="70">
+        <v>0</v>
+      </c>
+      <c r="I27" s="70">
+        <v>0</v>
+      </c>
+      <c r="J27" s="70">
         <v>2</v>
       </c>
       <c r="K27">
-        <f>J27+I27+H27</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -6679,9 +6745,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="K2" s="38"/>
       <c r="W2" s="38"/>
       <c r="AQ2" s="38"/>
@@ -6742,12 +6808,12 @@
       <c r="BM3" s="38"/>
     </row>
     <row r="4" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="38"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
@@ -6805,13 +6871,13 @@
       <c r="BM4" s="38"/>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -6896,9 +6962,9 @@
       <c r="BM5" s="38"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -6987,8 +7053,8 @@
       <c r="AX6" s="35"/>
       <c r="AY6" s="35"/>
       <c r="AZ6" s="36"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
+      <c r="BA6" s="77"/>
+      <c r="BB6" s="77"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
       <c r="BE6" s="38"/>
@@ -11083,11 +11149,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
@@ -11113,12 +11179,12 @@
       <c r="AV3" s="38"/>
     </row>
     <row r="4" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="M4" s="27" t="s">
         <v>46</v>
       </c>
@@ -11162,13 +11228,13 @@
       <c r="BB4" s="27"/>
     </row>
     <row r="5" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>81</v>
       </c>
       <c r="E5" t="s">
@@ -11234,9 +11300,9 @@
       <c r="BB5" s="27"/>
     </row>
     <row r="6" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
@@ -11295,8 +11361,8 @@
       <c r="AL6" s="35"/>
       <c r="AM6" s="35"/>
       <c r="AN6" s="36"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
       <c r="AQ6" s="38"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="38"/>
@@ -11307,8 +11373,8 @@
       <c r="AX6" s="29"/>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="30"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="72"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
     </row>
     <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
